--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6BAFED-F069-45F1-90B4-D1D91AC2B4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD621C-A408-4DD5-8CC9-A634105503B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>contrato</t>
   </si>
@@ -85,10 +88,151 @@
     <t>SERVIÇOS DE RECOMPOSIÇÃO DE ASFALTO EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ) EM VALAS ABERTAS PARA A MANUTENÇÃO DAS REDES DE ÁGUA E ESGOTO.</t>
   </si>
   <si>
-    <t>016/2022</t>
-  </si>
-  <si>
     <t>CP 002/2022</t>
+  </si>
+  <si>
+    <t>011/2023</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE PRESTAÇÃO DE SERVIÇOS ESPECIALIZADO EM RASTREAMENTO VEICULAR, ABRANGENDO MONITORAMENTO VIA INTERNET, IMPLANTAÇÃO DE SISTEMA DE ACOMPANHAMENTO, LOCALIZAÇÃO E IMOBILIZAÇÃO AUTOMÁTICA DE VEÍCULOS, PRESTAÇÃO DE SERVIÇO DE POSICIONAMENTO POR SATÉLITE (GPS), EM TEMPO REAL E ININTERRUPTO, PARA O CONTROLE DE VEÍCULOS, INCLUINDO O FORNECIMENTO DE EQUIPAMENTOS, COMPONENTES E LICENÇA DE USO DE SOFTWARE, E OS RESPECTIVOS SERVIÇOS DE INSTALAÇÃO, CONFIGURAÇÃO, CAPACITAÇÃO E SUPORTE TÉCNICO E GARANTIA DE FUNCIONAMENTO PARA MANUTENÇÃO DOS VEÍCULOS DA FROTA DO SANEAR E PRESTAÇÃO DE SERVIÇO DE LOCAÇÃO DE SOFTWARE PARA USO NA GESTÃO DE FROTAS E CONTROLE DE ROTAS DE VEÍCULOS DO SANEAR</t>
+  </si>
+  <si>
+    <t>AMÉRICA SAT MONITORAMENTO EIRELI</t>
+  </si>
+  <si>
+    <t>PE 010/2023</t>
+  </si>
+  <si>
+    <t>013/2022</t>
+  </si>
+  <si>
+    <t>GOLD MÁQUINAS ELÉTRICAS E INDÚSTRIAIS LTDA-ME</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO PREVENTIVA E CORRETIVA DE MOTORES ELÉTRICOS WEG, GE, SEW, BONFILGLID E DRIVER COM FORNECIMENTO DE MATERIAL.</t>
+  </si>
+  <si>
+    <t>TP 005/2022</t>
+  </si>
+  <si>
+    <t>014/2023</t>
+  </si>
+  <si>
+    <t>RST ENGENHARIA E MONTAGENS LTDA</t>
+  </si>
+  <si>
+    <t>TP 006/2023</t>
+  </si>
+  <si>
+    <t>PARA SERVIÇOS DE MONTAGENS DE ESTRUTURAS ELÉTRICAS E PAINÉIS DE AUTOMAÇÃO PARA ATENDER AS ESTAÇÕES ELEVATÓRIAS DE ÁGUA TRATADA RC1 (OTAVIANO MUNIZ) E RC2 (VILA TOSCANA).</t>
+  </si>
+  <si>
+    <t>018/2023</t>
+  </si>
+  <si>
+    <t>SM7 ENGENHARIA, TECNOLOGIA E IMPORTAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t>019/2023</t>
+  </si>
+  <si>
+    <t>H.P. REDLINSKI</t>
+  </si>
+  <si>
+    <t>021/2023</t>
+  </si>
+  <si>
+    <t>D+C PARTS ELEVADORES LTDA</t>
+  </si>
+  <si>
+    <t>023/2023</t>
+  </si>
+  <si>
+    <t>TOTAL DYNAMICS SUPPLY SYSTEMS LTDA</t>
+  </si>
+  <si>
+    <t>026/2023</t>
+  </si>
+  <si>
+    <t>GENTE SEGURADORA S.A.</t>
+  </si>
+  <si>
+    <t>MASTER EMPREENDIMENTOS</t>
+  </si>
+  <si>
+    <t>027/2023</t>
+  </si>
+  <si>
+    <t>028/2023</t>
+  </si>
+  <si>
+    <t>TECNOBOMBAS BOMBAS MOTORES E SERVIÇOS LTDA</t>
+  </si>
+  <si>
+    <t>004/2023</t>
+  </si>
+  <si>
+    <t>PROMINAS BRASIL EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>005/2023</t>
+  </si>
+  <si>
+    <t>034/2022</t>
+  </si>
+  <si>
+    <t>SAGATEC LTDA.</t>
+  </si>
+  <si>
+    <t>039/2022</t>
+  </si>
+  <si>
+    <t>MILLENIUM INDÚSTRIA COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO DE ARTEFATOS DE CIMENTO LTDA</t>
+  </si>
+  <si>
+    <t>008/2023</t>
+  </si>
+  <si>
+    <t>009/2023</t>
+  </si>
+  <si>
+    <t>003/2024</t>
+  </si>
+  <si>
+    <t>relatorio</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ENERGY SYSTEM DO BRASIL IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t>ELECTRIC CONSULTORIA E SERVIÇOS SOCIEDADE SIMPLES</t>
+  </si>
+  <si>
+    <t>MARIANGELA BELLISSIMO UEBARA</t>
+  </si>
+  <si>
+    <t>D A GARISTO LINS CONSULTORIA ME</t>
+  </si>
+  <si>
+    <t>TECNOBOMBAS – OBRA ETA</t>
+  </si>
+  <si>
+    <t>010/2024</t>
+  </si>
+  <si>
+    <t>011/2024</t>
+  </si>
+  <si>
+    <t>012/2024</t>
+  </si>
+  <si>
+    <t>009/2024</t>
+  </si>
+  <si>
+    <t>007/2024</t>
   </si>
 </sst>
 </file>
@@ -137,11 +281,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,17 +603,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -477,7 +625,7 @@
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -517,8 +665,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,7 +679,7 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1">
@@ -545,7 +696,7 @@
         <v>5310660</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -553,11 +704,358 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
+      <c r="L2">
+        <v>16</v>
       </c>
       <c r="M2" s="1">
         <v>44705</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="264.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45061</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45426</v>
+      </c>
+      <c r="G3">
+        <f>F3-E3</f>
+        <v>365</v>
+      </c>
+      <c r="H3">
+        <v>192000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45077</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44719</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45083</v>
+      </c>
+      <c r="G4">
+        <f>F4-E4</f>
+        <v>364</v>
+      </c>
+      <c r="H4">
+        <v>1300043.0900000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44736</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45133</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45312</v>
+      </c>
+      <c r="G5">
+        <f>F5-E5</f>
+        <v>179</v>
+      </c>
+      <c r="H5">
+        <v>848743.93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1">
+        <v>45135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD621C-A408-4DD5-8CC9-A634105503B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C2352-DB53-4BA1-B378-61C8940C9E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>contrato</t>
   </si>
@@ -233,13 +233,109 @@
   </si>
   <si>
     <t>007/2024</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO DE RESERVATÓRIO DE CHAPA DE AÇO PARAFUSADA PARA COMPLEMENTAR AS OBRAS DO SISTEMA DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS-MT.</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE ESCAVADEIRA HIDRÁULICA SOBRE ESTEIRAS, CAMINHÃO BASCULANTE CAPACIDADE DE 12M³ E PÁ CARREGADEIRA SOBRE RODAS</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE MANUTENÇÃO PREVENTIVA PERIÓDICA DO ELEVADOR INSTALADO NA AGÊNCIA COMERCIAL DO SANEAR.</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE GEORADAR CAPAZ DE DETECTAR QUALQUER TIPO DE TUBULAÇÃO, CABOS OU ESTRUTURAS ENTERRADAS, METÁLICA OU NÃO METÁLICAS, NO INTUITO DE AUXILIAR NO MAPEAMENTO E CADASTROS DE REDES EXISTENTES.</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS.</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DOS SERVIÇOS DE PAVIMENTAÇÃO ASFÁLTICA EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ), REGULARIZAÇÃO E COMPACTAÇÃO DE LEITO EXISTENTE NA VIA QUE DE ACESSO A ESTAÇÃO ELEVATÓRIA DE ESGOTO “BACIA B”.</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE OBRAS DE AMPLIAÇÃO DO SISTEMA DE ESGOTAMENTO SANITÁRIO A SEREM IMPLANTADAS PARA ATENDIMENTO DE ALGUMAS QUADRAS EM DIVERSOS BAIRROS NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO, AMPLIAÇÃO, REFORMA E URBANIZAÇÃO DA CAPTAÇÃO DE ÁGUA BRUTA DO SANEAR, LOCALIZADA ÀS MARGENS DO RIO VERMELHO COM ACESSO PELA COLINA VERDE</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MATERIAIS E SERVIÇOS PARA MANUTENÇÃO EM 2 (DOIS) EQUIPAMENTOS COMBINADOS DE HIDROJATEAMENTO E SUCÇÃO MODELO SRV 200 – MARCA PROMINAS.</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE DIAGNÓSTICO SITUACIONAL INTERNO, ESTUDOS HIDROGEOLÓGICOS, SERVIÇOS DE LIMPEZA E MANUTENÇÃO DE POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
+  </si>
+  <si>
+    <t>JAMAL</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE EXTENSÃO DE REDES DE ABASTECIEMNTO DE ÁGUA, INSTALAÇÃO DE VÁLVULAS REDUTORAS DE PRESSÃO, VENTOSAS E REGISTROS EM GERAL, CAPEAMENTO DE REDE, INTERLIGAÇÕES E OBRAS CIVIS CORRELACIONADAS COMO CONFECÇÃO DE CAIXAS E RECOMPOSIÇÃO ASFÁLTICA.</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO - INFRAESTRUTURA DE TRANSMISSÃO DE DADOS, ATRAVÉS DE RÁDIO LORA PARA TELEMETRIA DE VAZÃO ATRAVÉS DE SAÍDA PULSADA E ARMAZENAMENTO EM SERVIDOR WEB COM FORNECIMENTO DE RÁDIO TRANSMISSOR LORA E HIDRÔMETRO ACOPLADO.</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT,</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA NO FORNECIMENTO DE SISTEMAS DE GERAÇÃO DE ENERGIA, INCLUINDO ESTUDOS, IMPLANTAÇÃO, INSTALAÇÃO, TREINAMENTO E MANUTENÇÃO.</t>
+  </si>
+  <si>
+    <t>SERVIÇO ESPECIALIZADO DE ASSESSORIA E GESTÃO PERANTE A CÂMARA DE COMERCIALIZAÇÃO DE ENERGIA ELÉTRICA (CCEE) E ADEQUAÇÕES DO SISTEMA DE MEDIÇÃO PARA FATURAMENTO (SMF) E O QUE MAIS SEJA NECESSÁRIO E EXIGIDO PELA DISTRIBUIDORA, INCLUINDO PROJETO, MATERIAIS E EQUIPAMENTOS, IMPLANTAÇÃO, APROVAÇÃO PERANTE ÓRGÃOS COMPETENTES E COMISSIONAMENTO PARA MIGRAÇÃO DE 40 (QUARENTA) UNIDADES CONSUMIDORAS DE GRANDE PORTE.</t>
+  </si>
+  <si>
+    <t>PRESTAÇÃO DE SERVIÇOS DE LEILOEIRO OFICIAL PARA A REALIZAÇÃO DE LEILÃO DE BENS MÓVEIS INSERVIVEIS</t>
+  </si>
+  <si>
+    <t>ATUALIZAÇÃO DO PLANO MUNICIPAL DE SANEAMENTO BÁSICO E PLANO INTEGRADO DE RESÍDUOS SÓLIDOS; REGULAMENTO DA PRESTAÇÃO DE SERVIÇOS PÚBLICOS E GESTÃO DA QUALIDADE NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE REFORMA E AMPLIAÇÃO DA ESTAÇÃO DE TRATAMENTO DE ÁGUA - ETAPA II, LOCALIZADA NA AV. LIONS INTERNACIONAL, Nº 185, VILA AURORA III, NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t>PAC 2</t>
+  </si>
+  <si>
+    <t>TP 008/2023</t>
+  </si>
+  <si>
+    <t>TP 007/2023</t>
+  </si>
+  <si>
+    <t>COMPRA DIRETA</t>
+  </si>
+  <si>
+    <t>PE 026/2023</t>
+  </si>
+  <si>
+    <t>PE 030/2023</t>
+  </si>
+  <si>
+    <t>TP 013/2023</t>
+  </si>
+  <si>
+    <t>CP 005/2023</t>
+  </si>
+  <si>
+    <t>TP 001/2023</t>
+  </si>
+  <si>
+    <t>PE 005/2023</t>
+  </si>
+  <si>
+    <t>TP 013/2022</t>
+  </si>
+  <si>
+    <t>PE 020/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +356,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,11 +385,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +412,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,15 +737,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -669,7 +801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -859,129 +991,488 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45526</v>
+      </c>
+      <c r="G6">
+        <f>F6-E6</f>
+        <v>364</v>
+      </c>
+      <c r="H6">
+        <v>1902400</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45169</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45534</v>
+      </c>
+      <c r="G7" s="9">
+        <f>F7-E7</f>
+        <v>365</v>
+      </c>
+      <c r="H7" s="9">
+        <v>400996.1</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9">
+        <v>24</v>
+      </c>
+      <c r="M7" s="11">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45233</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45598</v>
+      </c>
+      <c r="G8" s="9">
+        <f>F8-E8</f>
+        <v>365</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4200</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="9">
+        <v>26</v>
+      </c>
+      <c r="M8" s="11">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45265</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45630</v>
+      </c>
+      <c r="G9" s="9">
+        <f>F9-E9</f>
+        <v>365</v>
+      </c>
+      <c r="H9" s="9">
+        <v>578376</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9">
+        <v>28</v>
+      </c>
+      <c r="M9" s="11">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45280</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45645</v>
+      </c>
+      <c r="G10" s="9">
+        <f>F10-E10</f>
+        <v>365</v>
+      </c>
+      <c r="H10" s="9">
+        <v>79817.73</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9">
+        <v>31</v>
+      </c>
+      <c r="M10" s="11">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45281</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45340</v>
+      </c>
+      <c r="G11" s="9">
+        <f>F11-E11</f>
+        <v>59</v>
+      </c>
+      <c r="H11" s="9">
+        <v>315752.32000000001</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9">
+        <v>32</v>
+      </c>
+      <c r="M11" s="11">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45281</v>
+      </c>
+      <c r="F12" s="11">
+        <v>46011</v>
+      </c>
+      <c r="G12" s="9">
+        <f>F12-E12</f>
+        <v>730</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4236574.88</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9">
+        <v>33</v>
+      </c>
+      <c r="M12" s="11">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45364</v>
+      </c>
+      <c r="G13" s="9">
+        <f>F13-E13</f>
+        <v>364</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1311577.5</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="9">
+        <v>9</v>
+      </c>
+      <c r="M13" s="11">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="11">
+        <v>45026</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45391</v>
+      </c>
+      <c r="G14" s="9">
+        <f>F14-E14</f>
+        <v>365</v>
+      </c>
+      <c r="H14" s="9">
+        <v>988060.58</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9">
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44881</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45330</v>
+      </c>
+      <c r="G15" s="9">
+        <f>F15-E15</f>
+        <v>449</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2328943.1</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="9">
+        <v>45</v>
+      </c>
+      <c r="M15" s="11">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="11">
+        <v>44893</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45257</v>
+      </c>
+      <c r="G16" s="9">
+        <f>F16-E16</f>
+        <v>364</v>
+      </c>
+      <c r="H16" s="9">
+        <v>415994.99</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9">
+        <v>51</v>
+      </c>
+      <c r="M16" s="11">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8">
+        <v>45054</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1496880</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="6">
+        <v>13</v>
+      </c>
+      <c r="M17" s="8">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -991,8 +1482,26 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H18">
+        <v>1943588.94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1002,8 +1511,26 @@
       <c r="C19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45328</v>
+      </c>
+      <c r="H19">
+        <v>3297283.23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1013,8 +1540,26 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45462</v>
+      </c>
+      <c r="H20">
+        <v>10004185.199999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1024,8 +1569,23 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45485</v>
+      </c>
+      <c r="H21">
+        <v>737000</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1035,8 +1595,20 @@
       <c r="C22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45503</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1046,8 +1618,23 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45425</v>
+      </c>
+      <c r="H23">
+        <v>180000</v>
+      </c>
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1056,6 +1643,21 @@
       </c>
       <c r="C24" t="s">
         <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45378</v>
+      </c>
+      <c r="H24">
+        <v>4149472.94</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24" s="1">
+        <v>45378</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C2352-DB53-4BA1-B378-61C8940C9E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B83CF8-D304-455D-BFB5-EC3AA888232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>contrato</t>
   </si>
@@ -329,6 +329,30 @@
   </si>
   <si>
     <t>PE 020/2022</t>
+  </si>
+  <si>
+    <t>TP 005/2023</t>
+  </si>
+  <si>
+    <t>TP 004/2023</t>
+  </si>
+  <si>
+    <t>CP 006/2023</t>
+  </si>
+  <si>
+    <t>ADESAO SRP</t>
+  </si>
+  <si>
+    <t>PE 006/2024</t>
+  </si>
+  <si>
+    <t>INEX 002/2024</t>
+  </si>
+  <si>
+    <t>TP 014/2023</t>
+  </si>
+  <si>
+    <t>cp 004/2023</t>
   </si>
 </sst>
 </file>
@@ -737,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +845,7 @@
         <v>45064</v>
       </c>
       <c r="G2">
-        <f>F2-E2</f>
+        <f t="shared" ref="G2:G24" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="2">
@@ -866,7 +890,7 @@
         <v>45426</v>
       </c>
       <c r="G3">
-        <f>F3-E3</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="H3">
@@ -911,7 +935,7 @@
         <v>45083</v>
       </c>
       <c r="G4">
-        <f>F4-E4</f>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H4">
@@ -956,7 +980,7 @@
         <v>45312</v>
       </c>
       <c r="G5">
-        <f>F5-E5</f>
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
       <c r="H5">
@@ -1001,7 +1025,7 @@
         <v>45526</v>
       </c>
       <c r="G6">
-        <f>F6-E6</f>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H6">
@@ -1023,510 +1047,549 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="1">
         <v>45169</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="1">
         <v>45534</v>
       </c>
-      <c r="G7" s="9">
-        <f>F7-E7</f>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>400996.1</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="1">
         <v>45195</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="1">
         <v>45233</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="1">
         <v>45598</v>
       </c>
-      <c r="G8" s="9">
-        <f>F8-E8</f>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <v>4200</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
         <v>26</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="1">
         <v>45257</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="1">
         <v>45265</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="1">
         <v>45630</v>
       </c>
-      <c r="G9" s="9">
-        <f>F9-E9</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <v>578376</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
         <v>28</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="1">
         <v>45279</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="1">
         <v>45280</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="1">
         <v>45645</v>
       </c>
-      <c r="G10" s="9">
-        <f>F10-E10</f>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10">
         <v>79817.73</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
         <v>31</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="1">
         <v>45280</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="1">
         <v>45281</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="1">
         <v>45340</v>
       </c>
-      <c r="G11" s="9">
-        <f>F11-E11</f>
+      <c r="G11">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11">
         <v>315752.32000000001</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
         <v>32</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="1">
         <v>45289</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="1">
         <v>45281</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="1">
         <v>46011</v>
       </c>
-      <c r="G12" s="9">
-        <f>F12-E12</f>
+      <c r="G12">
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>4236574.88</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
         <v>33</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="1">
         <v>45289</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="1">
         <v>45000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="1">
         <v>45364</v>
       </c>
-      <c r="G13" s="9">
-        <f>F13-E13</f>
+      <c r="G13">
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>1311577.5</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="1">
         <v>45026</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="1">
         <v>45026</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="1">
         <v>45391</v>
       </c>
-      <c r="G14" s="9">
-        <f>F14-E14</f>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14">
         <v>988060.58</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="1">
         <v>45033</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="1">
         <v>44881</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="1">
         <v>45330</v>
       </c>
-      <c r="G15" s="9">
-        <f>F15-E15</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>2328943.1</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
         <v>45</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="1">
         <v>44886</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="1">
         <v>44893</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="1">
         <v>45257</v>
       </c>
-      <c r="G16" s="9">
-        <f>F16-E16</f>
+      <c r="G16">
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16">
         <v>415994.99</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16">
         <v>51</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="1">
         <v>44900</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="11">
         <v>45054</v>
       </c>
-      <c r="H17" s="6">
+      <c r="F17" s="11">
+        <v>45418</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H17" s="9">
         <v>1496880</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="I17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="9">
         <v>13</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="11">
         <v>45077</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1">
-        <v>45055</v>
-      </c>
-      <c r="H18">
+      <c r="E18" s="11">
+        <v>45054</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45418</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H18" s="9">
         <v>1943588.94</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>14</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="11">
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>45328</v>
       </c>
-      <c r="H19">
+      <c r="F19" s="8">
+        <v>45693</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="H19" s="6">
         <v>3297283.23</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>7</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="8">
         <v>45350</v>
       </c>
     </row>
@@ -1546,8 +1609,21 @@
       <c r="E20" s="1">
         <v>45462</v>
       </c>
+      <c r="F20" s="1">
+        <v>45826</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
       <c r="H20">
         <v>10004185.199999999</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -1575,8 +1651,24 @@
       <c r="E21" s="1">
         <v>45485</v>
       </c>
+      <c r="F21" s="1">
+        <v>47310</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>1825</v>
+      </c>
       <c r="H21">
         <v>737000</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -1601,6 +1693,22 @@
       <c r="E22" s="1">
         <v>45503</v>
       </c>
+      <c r="F22" s="1">
+        <v>45868</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
       <c r="L22">
         <v>18</v>
       </c>
@@ -1624,8 +1732,24 @@
       <c r="E23" s="1">
         <v>45425</v>
       </c>
+      <c r="F23" s="1">
+        <v>45789</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
       <c r="H23">
         <v>180000</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
       </c>
       <c r="L23">
         <v>13</v>
@@ -1650,8 +1774,24 @@
       <c r="E24" s="1">
         <v>45378</v>
       </c>
+      <c r="F24" s="1">
+        <v>45742</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
       <c r="H24">
         <v>4149472.94</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
       </c>
       <c r="L24">
         <v>12</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B83CF8-D304-455D-BFB5-EC3AA888232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44C09B-8DEB-4BF1-93F7-8B957899A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>contrato</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>D A GARISTO LINS CONSULTORIA ME</t>
-  </si>
-  <si>
-    <t>TECNOBOMBAS – OBRA ETA</t>
   </si>
   <si>
     <t>010/2024</t>
@@ -428,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,9 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +756,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1010,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>45162</v>
@@ -1032,10 +1026,10 @@
         <v>1902400</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1058,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1074,7 +1068,7 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1100,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1116,7 +1110,7 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1142,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1158,7 +1152,7 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1184,7 +1178,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1200,7 +1194,7 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -1226,7 +1220,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1242,7 +1236,7 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1268,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <v>45281</v>
@@ -1284,7 +1278,7 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1310,7 +1304,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1">
         <v>45000</v>
@@ -1326,7 +1320,7 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1352,7 +1346,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1368,7 +1362,7 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1394,7 +1388,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>44881</v>
@@ -1410,7 +1404,7 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1436,7 +1430,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1452,7 +1446,7 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1467,87 +1461,87 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45054</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45418</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H17">
+        <v>1496880</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="1">
         <v>45054</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="1">
         <v>45418</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H17" s="9">
-        <v>1496880</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="H18">
+        <v>1943588.94</v>
+      </c>
+      <c r="I18" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="9">
-        <v>13</v>
-      </c>
-      <c r="M17" s="11">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="11">
-        <v>45054</v>
-      </c>
-      <c r="F18" s="11">
-        <v>45418</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1943588.94</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="L18">
         <v>14</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="1">
         <v>45077</v>
       </c>
     </row>
@@ -1562,7 +1556,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="8">
         <v>45328</v>
@@ -1578,13 +1572,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="6">
         <v>7</v>
@@ -1598,13 +1592,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -1612,17 +1606,17 @@
       <c r="F20" s="1">
         <v>45826</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H20">
         <v>10004185.199999999</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20" t="s">
@@ -1640,13 +1634,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1">
         <v>45485</v>
@@ -1654,17 +1648,17 @@
       <c r="F21" s="1">
         <v>47310</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
       <c r="H21">
         <v>737000</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" t="s">
@@ -1682,13 +1676,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1">
         <v>45503</v>
@@ -1696,14 +1690,14 @@
       <c r="F22" s="1">
         <v>45868</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
         <v>16</v>
       </c>
       <c r="K22" t="s">
@@ -1721,13 +1715,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1">
         <v>45425</v>
@@ -1735,17 +1729,17 @@
       <c r="F23" s="1">
         <v>45789</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H23">
         <v>180000</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="I23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" t="s">
@@ -1763,13 +1757,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1">
         <v>45378</v>
@@ -1777,17 +1771,17 @@
       <c r="F24" s="1">
         <v>45742</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H24">
         <v>4149472.94</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="K24" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44C09B-8DEB-4BF1-93F7-8B957899A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA03C5C-F092-4828-889E-07809FC0423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
   <si>
     <t>contrato</t>
   </si>
@@ -350,13 +350,40 @@
   </si>
   <si>
     <t>cp 004/2023</t>
+  </si>
+  <si>
+    <t>013/2024</t>
+  </si>
+  <si>
+    <t>CONCLUSÃO DE OBRA DO RESERVATÓRIO METÁLICO APOIADO YARA, COM CAPACIDADE DE 2.500M³ (ARMAZENAMENTO ÁGUA POTÁVEL), LOCALIZADO NO ANEL VIÁRIO CONRADO SALES BRITO</t>
+  </si>
+  <si>
+    <t>SPARTACUS CONSTRUCAO CIVIL E MONTAGEM INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>CP 002/2024</t>
+  </si>
+  <si>
+    <t>018/2024</t>
+  </si>
+  <si>
+    <t>PROPRIO/PAC2</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE ENGENHARIA PARA CONSTRUÇÃO DA NOVA SEDE DA AGÊNCIA COMERCIAL DO SANEAR VILA OPERÁRIA</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA MENEGUETI LTDA</t>
+  </si>
+  <si>
+    <t>CP 004/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +408,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -425,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,6 +472,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +875,7 @@
         <v>45064</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G24" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G26" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="2">
@@ -1792,6 +1828,90 @@
       </c>
       <c r="M24" s="1">
         <v>45378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45517</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45881</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H25" s="11">
+        <v>590000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25" s="1">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45560</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45924</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1357500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1">
+        <v>45569</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA03C5C-F092-4828-889E-07809FC0423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7878BD-8B60-490D-BD1F-EE60236F87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>contrato</t>
   </si>
@@ -377,6 +378,33 @@
   </si>
   <si>
     <t>CP 004/2024</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>NRO MEDICAO</t>
+  </si>
+  <si>
+    <t>DATA MEDICAO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>DATA PAGTO</t>
+  </si>
+  <si>
+    <t>DATA NF</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>SEGUNDO ADITIVO</t>
   </si>
 </sst>
 </file>
@@ -791,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,4 +1976,277 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45483</v>
+      </c>
+      <c r="D2">
+        <v>117383.14</v>
+      </c>
+      <c r="E2">
+        <v>5679</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45491</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45508</v>
+      </c>
+      <c r="D3">
+        <v>102223.16</v>
+      </c>
+      <c r="E3">
+        <v>5694</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45509</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D4">
+        <v>350615.03999999998</v>
+      </c>
+      <c r="E4">
+        <v>5740</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45558</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45580</v>
+      </c>
+      <c r="D5">
+        <v>282653.09999999998</v>
+      </c>
+      <c r="E5">
+        <v>5771</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45581</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45443</v>
+      </c>
+      <c r="D6">
+        <v>1175346.97</v>
+      </c>
+      <c r="E6">
+        <v>840</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45457</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45457</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45468</v>
+      </c>
+      <c r="D7">
+        <v>596398.11</v>
+      </c>
+      <c r="E7">
+        <v>848</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45474</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45475</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45510</v>
+      </c>
+      <c r="D8">
+        <v>735945.53</v>
+      </c>
+      <c r="E8">
+        <v>867</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45512</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45513</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D9">
+        <v>660910.39</v>
+      </c>
+      <c r="E9">
+        <v>880</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45547</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45552</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45567</v>
+      </c>
+      <c r="D10">
+        <v>556154.86</v>
+      </c>
+      <c r="E10">
+        <v>890</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45572</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45573</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7878BD-8B60-490D-BD1F-EE60236F87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED6259-69E8-471E-BD48-7D116E1F792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>contrato</t>
   </si>
@@ -1980,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,6 +2246,187 @@
         <v>124</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45403</v>
+      </c>
+      <c r="D11">
+        <v>71800.69</v>
+      </c>
+      <c r="E11">
+        <v>226</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45408</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45448</v>
+      </c>
+      <c r="D12">
+        <v>85665.23</v>
+      </c>
+      <c r="E12">
+        <v>234</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45456</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45474</v>
+      </c>
+      <c r="D13">
+        <v>221982.14</v>
+      </c>
+      <c r="E13">
+        <v>236</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45477</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45478</v>
+      </c>
+      <c r="D14">
+        <v>148631.12</v>
+      </c>
+      <c r="E14">
+        <v>241</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45511</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45566</v>
+      </c>
+      <c r="D15">
+        <v>53674.33</v>
+      </c>
+      <c r="E15">
+        <v>247</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45567</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45566</v>
+      </c>
+      <c r="D16">
+        <v>127264.43</v>
+      </c>
+      <c r="E16">
+        <v>248</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45567</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45580</v>
+      </c>
+      <c r="D17">
+        <v>255170.23</v>
+      </c>
+      <c r="E17">
+        <v>249</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45581</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D18">
+        <v>87298.82</v>
+      </c>
+      <c r="E18">
+        <v>252</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED6259-69E8-471E-BD48-7D116E1F792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E69AD-4B3D-494B-AB2A-9BB32AF24DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>contrato</t>
   </si>
@@ -1980,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,6 +2427,20 @@
         <v>45603</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45607</v>
+      </c>
+      <c r="D19">
+        <v>702486.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E69AD-4B3D-494B-AB2A-9BB32AF24DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C7F10B-5B4F-4380-8B39-F7C7B44D8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t>contrato</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>SEGUNDO ADITIVO</t>
+  </si>
+  <si>
+    <t>037/2022</t>
+  </si>
+  <si>
+    <t>PNEUAR COMERCIO DE PNEUS LTDA</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE PNEUS NOVOS PARA A FROTA DE VEÍCULOS OFICIAIS DO SANEAR.</t>
+  </si>
+  <si>
+    <t>PE 017/2022</t>
   </si>
 </sst>
 </file>
@@ -817,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +915,7 @@
         <v>45064</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G26" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G27" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="2">
@@ -1940,6 +1952,48 @@
       </c>
       <c r="M26" s="1">
         <v>45569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44893</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H27">
+        <v>235756.35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>49</v>
+      </c>
+      <c r="M27" s="1">
+        <v>44900</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C7F10B-5B4F-4380-8B39-F7C7B44D8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C40BF7-BCB9-4BB4-A3D7-A4014C247C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="134">
   <si>
     <t>contrato</t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>PE 017/2022</t>
+  </si>
+  <si>
+    <t>040/2022</t>
+  </si>
+  <si>
+    <t>ECO SYSTEM – PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE SERVIÇOS DE LABORATÓRIO ESPECIALIZADO, EM CARÁTER CONTINUADO, PARA REALIZAR ANÁLISES DE QUALIDADE DA ÁGUA DO ABASTECIMENTO PÚBLICO.</t>
+  </si>
+  <si>
+    <t>TP 014/2022</t>
+  </si>
+  <si>
+    <t>DENIZE MARIA SODRÉ DE OLIVEIRA</t>
   </si>
 </sst>
 </file>
@@ -829,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +930,7 @@
         <v>45064</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G27" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G28" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="2">
@@ -1993,6 +2008,45 @@
         <v>49</v>
       </c>
       <c r="M27" s="1">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44894</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45258</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H28">
+        <v>621000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28">
+        <v>52</v>
+      </c>
+      <c r="M28" s="1">
         <v>44900</v>
       </c>
     </row>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C40BF7-BCB9-4BB4-A3D7-A4014C247C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF65E13-6C4D-4090-BED4-B0AC7285E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,6 +2012,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>129</v>
       </c>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF65E13-6C4D-4090-BED4-B0AC7285E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A25D1BC-98C2-496C-B1EB-03AD7D28643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -422,9 +422,6 @@
     <t>040/2022</t>
   </si>
   <si>
-    <t>ECO SYSTEM – PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
-  </si>
-  <si>
     <t>CONTRATAÇÃO DE SERVIÇOS DE LABORATÓRIO ESPECIALIZADO, EM CARÁTER CONTINUADO, PARA REALIZAR ANÁLISES DE QUALIDADE DA ÁGUA DO ABASTECIMENTO PÚBLICO.</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>DENIZE MARIA SODRÉ DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ECO SYSTEM PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,10 +2019,10 @@
         <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2038,13 +2038,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>132</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
       </c>
       <c r="L28">
         <v>52</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A25D1BC-98C2-496C-B1EB-03AD7D28643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B43F10-12A8-45D7-BB18-61377513B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="134">
   <si>
     <t>contrato</t>
   </si>
@@ -846,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2091,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,6 +2552,351 @@
         <v>702486.5</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45019</v>
+      </c>
+      <c r="D20">
+        <v>101974.56</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45019</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45068</v>
+      </c>
+      <c r="D21">
+        <v>169979.49</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45068</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45112</v>
+      </c>
+      <c r="D22">
+        <v>72037.490000000005</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45112</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45112</v>
+      </c>
+      <c r="D23">
+        <v>292372.25</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45112</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45149</v>
+      </c>
+      <c r="D24">
+        <v>135171.87</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45149</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45208</v>
+      </c>
+      <c r="D25">
+        <v>143023.94</v>
+      </c>
+      <c r="E25">
+        <v>192</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45208</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45265</v>
+      </c>
+      <c r="D26">
+        <v>79318.429999999993</v>
+      </c>
+      <c r="E26">
+        <v>207</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45265</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D27">
+        <v>77427.960000000006</v>
+      </c>
+      <c r="E27">
+        <v>212</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45280</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45331</v>
+      </c>
+      <c r="D28">
+        <v>160874.38</v>
+      </c>
+      <c r="E28">
+        <v>215</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45331</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45391</v>
+      </c>
+      <c r="D29">
+        <v>27744.5</v>
+      </c>
+      <c r="E29">
+        <v>221</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45391</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45429</v>
+      </c>
+      <c r="D30">
+        <v>66838.66</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45429</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D31">
+        <v>32886.9</v>
+      </c>
+      <c r="E31">
+        <v>233</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45456</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D32">
+        <v>13510.04</v>
+      </c>
+      <c r="E32">
+        <v>246</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45540</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D33">
+        <v>13535.05</v>
+      </c>
+      <c r="E33">
+        <v>251</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45600</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D34">
+        <v>24631.27</v>
+      </c>
+      <c r="E34">
+        <v>258</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45631</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B43F10-12A8-45D7-BB18-61377513B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68C8E6-E6FF-46A4-9BE6-431BBF35E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>contrato</t>
   </si>
@@ -2091,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,6 +2897,52 @@
         <v>45632</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45622</v>
+      </c>
+      <c r="D35">
+        <v>386493</v>
+      </c>
+      <c r="E35">
+        <v>5794</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45622</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D36">
+        <v>575016.43000000005</v>
+      </c>
+      <c r="E36">
+        <v>5816</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45644</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68C8E6-E6FF-46A4-9BE6-431BBF35E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C306B-A0D2-4857-AD76-90C99578128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>contrato</t>
   </si>
@@ -2091,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,6 +2943,213 @@
         <v>45645</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45205</v>
+      </c>
+      <c r="D37">
+        <v>93264.18</v>
+      </c>
+      <c r="E37">
+        <v>5349</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45205</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="D38">
+        <v>89785.61</v>
+      </c>
+      <c r="E38">
+        <v>5406</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45265</v>
+      </c>
+      <c r="D39">
+        <v>143861.26999999999</v>
+      </c>
+      <c r="E39">
+        <v>5429</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45265</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D40">
+        <v>92502.67</v>
+      </c>
+      <c r="E40">
+        <v>5445</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45280</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45355</v>
+      </c>
+      <c r="D41">
+        <v>192910.6</v>
+      </c>
+      <c r="E41">
+        <v>5529</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45355</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45391</v>
+      </c>
+      <c r="D42">
+        <v>117159.87</v>
+      </c>
+      <c r="E42">
+        <v>5579</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45391</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45425</v>
+      </c>
+      <c r="D43">
+        <v>104736.9</v>
+      </c>
+      <c r="E43">
+        <v>5613</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45425</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45457</v>
+      </c>
+      <c r="D44">
+        <v>101971.78</v>
+      </c>
+      <c r="E44">
+        <v>5633</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45457</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45628</v>
+      </c>
+      <c r="D45">
+        <v>288086.99</v>
+      </c>
+      <c r="E45">
+        <v>5797</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45628</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C306B-A0D2-4857-AD76-90C99578128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C89FDB1-6151-419A-AA38-68021940B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t>contrato</t>
   </si>
@@ -71,9 +71,6 @@
     <t>data_portaria</t>
   </si>
   <si>
-    <t>data_relat_ref</t>
-  </si>
-  <si>
     <t>009/2022</t>
   </si>
   <si>
@@ -432,6 +429,54 @@
   </si>
   <si>
     <t>ECO SYSTEM PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
+  </si>
+  <si>
+    <t>UPX CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE LOCAÇÃO DE GUINDASTE MUNK CARGA MÁXIMA  DE 100 TONELADAS E CAMINHÃO MUNK CARGA MÁXIMA DE 5,7 TONELADAS</t>
+  </si>
+  <si>
+    <t>029/2024</t>
+  </si>
+  <si>
+    <t>028/2024</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS</t>
+  </si>
+  <si>
+    <t>GENTE SEGURADORA S.A</t>
+  </si>
+  <si>
+    <t>006/2020</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM ELABORAÇÃO DE PROJETO PARA OBTENÇÃO DE REGULARIZAÇÃO AMBIENTAL (OUTORGA) DOS POÇOS TUBULARES.</t>
+  </si>
+  <si>
+    <t>GEOPOCOS HIDROCONST. E COMERCIO LTDA.</t>
+  </si>
+  <si>
+    <t>058/2021</t>
+  </si>
+  <si>
+    <t>SERVIÇOS ESPECIALIZADOS DE MANUTENÇÃO COM O FORNECIMENTO DE PEÇAS ORIGINAIS PARA CONJUNTOS MOTOBOMBAS SUBMERSÍVEIS DA MARCA ABS, SULZER, COM TESTES DE CARGAS E FORNECIMENTO DOS LAUDOS TÉCNICOS, NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
+  </si>
+  <si>
+    <t>AJEL SERVICE LTDA.</t>
+  </si>
+  <si>
+    <t>CP 002/2021</t>
+  </si>
+  <si>
+    <t>PE 019/2024</t>
+  </si>
+  <si>
+    <t>TP 002/2020</t>
+  </si>
+  <si>
+    <t>CE 013/2024</t>
   </si>
 </sst>
 </file>
@@ -513,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,6 +575,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
@@ -915,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>44685</v>
@@ -930,20 +978,20 @@
         <v>45064</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G28" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G32" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="2">
         <v>5310660</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
       <c r="L2">
         <v>16</v>
@@ -952,7 +1000,7 @@
         <v>44705</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="264.75" x14ac:dyDescent="0.25">
@@ -960,13 +1008,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>45061</v>
@@ -982,13 +1030,13 @@
         <v>192000</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -997,7 +1045,7 @@
         <v>45077</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1005,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>44719</v>
@@ -1027,13 +1075,13 @@
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
       <c r="L4">
         <v>21</v>
@@ -1042,7 +1090,7 @@
         <v>44736</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1050,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>45133</v>
@@ -1072,13 +1120,13 @@
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -1087,7 +1135,7 @@
         <v>45135</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1095,13 +1143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1">
         <v>45162</v>
@@ -1117,13 +1165,13 @@
         <v>1902400</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>23</v>
@@ -1137,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1159,13 +1207,13 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -1179,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1201,13 +1249,13 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
       </c>
       <c r="L8">
         <v>26</v>
@@ -1221,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1243,13 +1291,13 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -1263,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1285,13 +1333,13 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1305,13 +1353,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1327,13 +1375,13 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
       </c>
       <c r="L11">
         <v>32</v>
@@ -1347,13 +1395,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>45281</v>
@@ -1369,13 +1417,13 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
         <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
       </c>
       <c r="L12">
         <v>33</v>
@@ -1389,13 +1437,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>45000</v>
@@ -1411,13 +1459,13 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1431,13 +1479,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1453,13 +1501,13 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
         <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1473,13 +1521,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1">
         <v>44881</v>
@@ -1495,13 +1543,13 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
         <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
       </c>
       <c r="L15">
         <v>45</v>
@@ -1515,13 +1563,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1537,13 +1585,13 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
         <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1557,13 +1605,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1">
         <v>45054</v>
@@ -1579,13 +1627,13 @@
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1599,13 +1647,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1621,13 +1669,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1641,13 +1689,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8">
         <v>45328</v>
@@ -1663,13 +1711,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="6">
         <v>7</v>
@@ -1683,13 +1731,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -1705,13 +1753,13 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
         <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1725,13 +1773,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1">
         <v>45485</v>
@@ -1747,13 +1795,13 @@
         <v>737000</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
         <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -1767,13 +1815,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
         <v>45503</v>
@@ -1786,13 +1834,13 @@
         <v>365</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
         <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
       </c>
       <c r="L22">
         <v>18</v>
@@ -1806,13 +1854,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
         <v>45425</v>
@@ -1828,13 +1876,13 @@
         <v>180000</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
         <v>16</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
       </c>
       <c r="L23">
         <v>13</v>
@@ -1848,13 +1896,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1">
         <v>45378</v>
@@ -1870,13 +1918,13 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
         <v>16</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
       </c>
       <c r="L24">
         <v>12</v>
@@ -1890,13 +1938,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="1">
         <v>45517</v>
@@ -1912,13 +1960,13 @@
         <v>590000</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25">
         <v>19</v>
@@ -1932,13 +1980,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1">
         <v>45560</v>
@@ -1954,13 +2002,13 @@
         <v>1357500</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
         <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -1974,13 +2022,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E27" s="1">
         <v>44893</v>
@@ -1996,13 +2044,13 @@
         <v>235756.35</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
         <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
       </c>
       <c r="L27">
         <v>49</v>
@@ -2016,13 +2064,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2038,19 +2086,187 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
         <v>131</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
       </c>
       <c r="L28">
         <v>52</v>
       </c>
       <c r="M28" s="1">
         <v>44900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F29" s="1">
+        <v>46007</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H29">
+        <v>705600</v>
+      </c>
+      <c r="I29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F30" s="1">
+        <v>46016</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H30">
+        <v>108303.03999999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43971</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44335</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H31">
+        <v>274770</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44552</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45098</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="H32">
+        <v>5076431.47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>45694</v>
       </c>
     </row>
   </sheetData>
@@ -2061,27 +2277,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
         <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45444</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -2111,33 +2636,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2160,7 +2685,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2183,7 +2708,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2206,7 +2731,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2229,7 +2754,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2250,12 +2775,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2276,12 +2801,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2302,12 +2827,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2328,12 +2853,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2354,12 +2879,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2382,7 +2907,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2405,7 +2930,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2428,7 +2953,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2451,7 +2976,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2474,7 +2999,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2497,7 +3022,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -2520,7 +3045,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2540,7 +3065,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -2554,7 +3079,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2577,7 +3102,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2600,7 +3125,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2623,7 +3148,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2646,7 +3171,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2669,7 +3194,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2692,7 +3217,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2715,7 +3240,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2738,7 +3263,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -2761,7 +3286,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -2784,7 +3309,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -2807,7 +3332,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -2830,7 +3355,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -2853,7 +3378,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -2876,7 +3401,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -2899,7 +3424,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -2922,7 +3447,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2945,7 +3470,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2968,7 +3493,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2991,7 +3516,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3014,7 +3539,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -3037,7 +3562,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -3060,7 +3585,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3083,7 +3608,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3106,7 +3631,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3129,7 +3654,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>9</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C89FDB1-6151-419A-AA38-68021940B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D88A9-1709-4BD3-99B3-613FBF69BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="9105" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2280,7 +2280,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2366,7 @@
         <v>45444</v>
       </c>
       <c r="D2" s="1">
-        <v>46189</v>
+        <v>45824</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D88A9-1709-4BD3-99B3-613FBF69BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE3A20-F646-40C6-8C8A-E28360775D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="9105" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
   <si>
     <t>contrato</t>
   </si>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2616,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,6 +3675,113 @@
         <v>45629</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45462</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45462</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>15000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>15000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="1">
+        <v>45646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE3A20-F646-40C6-8C8A-E28360775D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F941C3-A3D1-40B3-988D-C5418F1391C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
   <si>
     <t>contrato</t>
   </si>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2529,15 +2529,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2616,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,8 +3709,17 @@
       <c r="B47">
         <v>2</v>
       </c>
+      <c r="C47" s="1">
+        <v>45489</v>
+      </c>
       <c r="D47">
         <v>15000</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45489</v>
       </c>
       <c r="G47" s="1">
         <v>45492</v>
@@ -3719,8 +3732,17 @@
       <c r="B48">
         <v>3</v>
       </c>
+      <c r="C48" s="1">
+        <v>45525</v>
+      </c>
       <c r="D48">
         <v>15000</v>
+      </c>
+      <c r="E48">
+        <v>36</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45525</v>
       </c>
       <c r="G48" s="1">
         <v>45526</v>
@@ -3733,8 +3755,17 @@
       <c r="B49">
         <v>4</v>
       </c>
+      <c r="C49" s="1">
+        <v>45560</v>
+      </c>
       <c r="D49">
         <v>15000</v>
+      </c>
+      <c r="E49">
+        <v>39</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45560</v>
       </c>
       <c r="G49" s="1">
         <v>45560</v>
@@ -3747,8 +3778,17 @@
       <c r="B50">
         <v>5</v>
       </c>
+      <c r="C50" s="1">
+        <v>45587</v>
+      </c>
       <c r="D50">
         <v>15000</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45587</v>
       </c>
       <c r="G50" s="1">
         <v>45589</v>
@@ -3761,8 +3801,17 @@
       <c r="B51">
         <v>6</v>
       </c>
+      <c r="C51" s="1">
+        <v>45624</v>
+      </c>
       <c r="D51">
         <v>15000</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45624</v>
       </c>
       <c r="G51" s="1">
         <v>45624</v>
@@ -3775,11 +3824,158 @@
       <c r="B52">
         <v>7</v>
       </c>
+      <c r="C52" s="1">
+        <v>45644</v>
+      </c>
       <c r="D52">
         <v>15000</v>
       </c>
+      <c r="E52">
+        <v>46</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45644</v>
+      </c>
       <c r="G52" s="1">
         <v>45646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45506</v>
+      </c>
+      <c r="D53">
+        <v>285360</v>
+      </c>
+      <c r="E53">
+        <v>746</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45506</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45519</v>
+      </c>
+      <c r="D54">
+        <v>397268.18</v>
+      </c>
+      <c r="E54">
+        <v>757</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45519</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45538</v>
+      </c>
+      <c r="D55">
+        <v>78331.820000000007</v>
+      </c>
+      <c r="E55">
+        <v>779</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45538</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45538</v>
+      </c>
+      <c r="D56">
+        <v>146420.6</v>
+      </c>
+      <c r="E56">
+        <v>780</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45538</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45554</v>
+      </c>
+      <c r="D57">
+        <v>329179.40000000002</v>
+      </c>
+      <c r="E57">
+        <v>800</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45554</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D58">
+        <v>570720</v>
+      </c>
+      <c r="E58">
+        <v>818</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45568</v>
+      </c>
+      <c r="G58" s="1">
+        <v>45594</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F941C3-A3D1-40B3-988D-C5418F1391C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE178FB-B67D-47A2-9D6C-514EC843C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
   <si>
     <t>contrato</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>CE 013/2024</t>
+  </si>
+  <si>
+    <t>19/12/204</t>
   </si>
 </sst>
 </file>
@@ -2279,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2541,8 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>45444</v>
+        <f ca="1">TODAY()</f>
+        <v>45709</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,6 +2567,10 @@
       </c>
       <c r="B26" t="s">
         <v>110</v>
+      </c>
+      <c r="D26" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45709</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,6 +3986,29 @@
         <v>45594</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D59">
+        <v>108917.72</v>
+      </c>
+      <c r="E59">
+        <v>199</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="1">
+        <v>45649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE178FB-B67D-47A2-9D6C-514EC843C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A42AD-1B4C-4378-9FA9-F07C0C76C0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
   <si>
     <t>contrato</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>19/12/204</t>
+  </si>
+  <si>
+    <t>019/2024</t>
   </si>
 </sst>
 </file>
@@ -2542,7 +2545,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45709</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2573,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45709</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,6 +4012,227 @@
         <v>45649</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D60">
+        <v>25953.61</v>
+      </c>
+      <c r="E60">
+        <v>272</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45702</v>
+      </c>
+      <c r="G60" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45622</v>
+      </c>
+      <c r="D61">
+        <v>123290.86</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45622</v>
+      </c>
+      <c r="G61" s="1">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D62">
+        <v>64791.46</v>
+      </c>
+      <c r="E62">
+        <v>264</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45642</v>
+      </c>
+      <c r="G62" s="1">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D63">
+        <v>132598.66</v>
+      </c>
+      <c r="E63">
+        <v>263</v>
+      </c>
+      <c r="F63" s="1">
+        <v>45642</v>
+      </c>
+      <c r="G63" s="1">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D64">
+        <v>63397.61</v>
+      </c>
+      <c r="E64">
+        <v>265</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45645</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45652</v>
+      </c>
+      <c r="D65">
+        <v>68650.41</v>
+      </c>
+      <c r="E65">
+        <v>268</v>
+      </c>
+      <c r="F65" s="1">
+        <v>45652</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45652</v>
+      </c>
+      <c r="D66">
+        <v>49319.96</v>
+      </c>
+      <c r="E66">
+        <v>269</v>
+      </c>
+      <c r="F66" s="1">
+        <v>45652</v>
+      </c>
+      <c r="G66" s="1">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D67">
+        <v>45395.27</v>
+      </c>
+      <c r="E67">
+        <v>271</v>
+      </c>
+      <c r="F67" s="1">
+        <v>45702</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D68">
+        <v>24085.95</v>
+      </c>
+      <c r="E68">
+        <v>273</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45702</v>
+      </c>
+      <c r="G68" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D69">
+        <v>48464.800000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A42AD-1B4C-4378-9FA9-F07C0C76C0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60052F65-52B0-4577-8C3A-558E51C10144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
   <si>
     <t>contrato</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>019/2024</t>
+  </si>
+  <si>
+    <t>ordem de inicio</t>
   </si>
 </sst>
 </file>
@@ -898,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,9 +921,10 @@
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +967,11 @@
       <c r="N1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="264.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="264.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1522,7 +1529,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1606,7 +1613,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1897,7 +1904,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1939,7 +1946,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1981,7 +1988,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2022,8 +2029,11 @@
       <c r="M26" s="1">
         <v>45569</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2065,7 +2075,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2149,7 +2159,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2633,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60052F65-52B0-4577-8C3A-558E51C10144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1DAA2-4DDC-40DC-A3AE-8B994D4C6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,6 +1485,9 @@
       </c>
       <c r="M13" s="1">
         <v>45026</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44993</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1DAA2-4DDC-40DC-A3AE-8B994D4C6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEED765-4A97-49EA-8C25-56882D16048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,6 +1783,9 @@
       <c r="M20" s="1">
         <v>45495</v>
       </c>
+      <c r="O20" s="1">
+        <v>45544</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2299,14 +2302,14 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2474,6 +2477,15 @@
       </c>
       <c r="B13" t="s">
         <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45413</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45593</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45773</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEED765-4A97-49EA-8C25-56882D16048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492791F-63C9-4532-850D-74748E44D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>contrato</t>
   </si>
@@ -486,6 +487,15 @@
   </si>
   <si>
     <t>ordem de inicio</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>valor empenhado</t>
+  </si>
+  <si>
+    <t>construtora menegueti</t>
   </si>
 </sst>
 </file>
@@ -540,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -563,11 +573,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +612,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +2600,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2628,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,10 +2685,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA3E994-9545-4212-8670-0FA4F71B8272}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1248582.28</v>
+      </c>
+      <c r="D2" s="15">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492791F-63C9-4532-850D-74748E44D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AF163-4E18-48D8-B88F-72DE240DACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="157">
   <si>
     <t>contrato</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>construtora menegueti</t>
+  </si>
+  <si>
+    <t>024/2024</t>
+  </si>
+  <si>
+    <t>tecnobombas</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,11 +618,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2613,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45714</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,7 +2641,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45714</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,7 +2702,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2734,7 @@
       <c r="B2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>1248582.28</v>
       </c>
       <c r="D2" s="15">
@@ -2729,16 +2742,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="18">
+        <v>801220.45</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45659</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2335088.9700000002</v>
+      </c>
+      <c r="D4" s="15">
+        <v>45659</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
@@ -2885,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,6 +4516,106 @@
         <v>48464.800000000003</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45589</v>
+      </c>
+      <c r="D70">
+        <v>22686.63</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45650</v>
+      </c>
+      <c r="G70" s="1">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D72">
+        <v>240581.51</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1">
+        <v>45653</v>
+      </c>
+      <c r="G72" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45695</v>
+      </c>
+      <c r="D73">
+        <v>140953.65</v>
+      </c>
+      <c r="E73">
+        <v>24</v>
+      </c>
+      <c r="F73" s="1">
+        <v>45695</v>
+      </c>
+      <c r="G73" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D74">
+        <v>157414.34</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1">
+        <v>45631</v>
+      </c>
+      <c r="G74" s="1">
+        <v>45632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AF163-4E18-48D8-B88F-72DE240DACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF124454-7502-42C0-B7D2-09A86C49308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
   <si>
     <t>contrato</t>
   </si>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t>tecnobombas</t>
+  </si>
+  <si>
+    <t>america sat</t>
+  </si>
+  <si>
+    <t>situação</t>
+  </si>
+  <si>
+    <t>aditivo</t>
+  </si>
+  <si>
+    <t>encerrado</t>
   </si>
 </sst>
 </file>
@@ -944,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +979,7 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,11 @@
       <c r="O1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1058,8 +1073,11 @@
       <c r="N2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="264.75" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="264.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1103,8 +1121,11 @@
       <c r="N3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1148,8 +1169,11 @@
       <c r="N4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1179,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1193,8 +1217,14 @@
       <c r="N5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>45197</v>
+      </c>
+      <c r="P5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1236,7 +1266,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1278,7 +1308,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1362,7 +1392,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1446,7 +1476,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1488,7 +1518,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1533,7 +1563,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1575,7 +1605,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1617,7 +1647,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2344,15 +2374,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2441,6 +2471,9 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" s="1">
+        <v>45791</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2457,6 +2490,21 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5" s="1">
+        <v>45492</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45612</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45672</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45733</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2464,6 +2512,12 @@
       </c>
       <c r="B6" t="s">
         <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45706</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45886</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2701,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA3E994-9545-4212-8670-0FA4F71B8272}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,10 +2824,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="17">
+        <v>54500</v>
+      </c>
+      <c r="D5" s="15">
+        <v>45687</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -2916,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF124454-7502-42C0-B7D2-09A86C49308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595057F-3EA6-4AB4-A69B-EAD691DC2585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -610,10 +610,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -625,8 +624,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -642,6 +639,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1040,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1">
@@ -1052,7 +1053,7 @@
         <f t="shared" ref="G2:G32" si="0">F2-E2</f>
         <v>379</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="16">
         <v>5310660</v>
       </c>
       <c r="I2" t="s">
@@ -1087,7 +1088,7 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1">
@@ -1100,7 +1101,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="17">
         <v>192000</v>
       </c>
       <c r="I3" t="s">
@@ -1135,7 +1136,7 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1">
@@ -1148,7 +1149,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="17">
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" t="s">
@@ -1183,7 +1184,7 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="1">
@@ -1196,7 +1197,7 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="17">
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
@@ -1234,7 +1235,7 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="1">
@@ -1247,7 +1248,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="17">
         <v>1902400</v>
       </c>
       <c r="I6" t="s">
@@ -1276,7 +1277,7 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1">
@@ -1289,7 +1290,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="17">
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
@@ -1318,7 +1319,7 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="1">
@@ -1331,7 +1332,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="17">
         <v>4200</v>
       </c>
       <c r="I8" t="s">
@@ -1360,7 +1361,7 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="1">
@@ -1373,7 +1374,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="17">
         <v>578376</v>
       </c>
       <c r="I9" t="s">
@@ -1402,7 +1403,7 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="1">
@@ -1415,7 +1416,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="17">
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
@@ -1444,7 +1445,7 @@
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1">
@@ -1457,7 +1458,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="17">
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
@@ -1486,7 +1487,7 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="1">
@@ -1499,7 +1500,7 @@
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="17">
         <v>4236574.88</v>
       </c>
       <c r="I12" t="s">
@@ -1528,7 +1529,7 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="1">
@@ -1541,7 +1542,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="17">
         <v>1311577.5</v>
       </c>
       <c r="I13" t="s">
@@ -1573,7 +1574,7 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="1">
@@ -1586,7 +1587,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="17">
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
@@ -1615,7 +1616,7 @@
       <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="1">
@@ -1628,7 +1629,7 @@
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="17">
         <v>2328943.1</v>
       </c>
       <c r="I15" t="s">
@@ -1657,7 +1658,7 @@
       <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="1">
@@ -1670,7 +1671,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="17">
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
@@ -1699,7 +1700,7 @@
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="1">
@@ -1712,7 +1713,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="17">
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
@@ -1741,7 +1742,7 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="1">
@@ -1754,7 +1755,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="17">
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
@@ -1773,45 +1774,45 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>45328</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>45693</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="18">
         <v>3297283.23</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>7</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>45350</v>
       </c>
     </row>
@@ -1825,7 +1826,7 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="1">
@@ -1838,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="17">
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
@@ -1870,7 +1871,7 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="1">
@@ -1883,7 +1884,7 @@
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="17">
         <v>737000</v>
       </c>
       <c r="I21" t="s">
@@ -1912,7 +1913,7 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="1">
@@ -1925,6 +1926,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
+      <c r="H22" s="17"/>
       <c r="I22" t="s">
         <v>103</v>
       </c>
@@ -1951,7 +1953,7 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="1">
@@ -1964,7 +1966,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="17">
         <v>180000</v>
       </c>
       <c r="I23" t="s">
@@ -1993,7 +1995,7 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="1">
@@ -2006,7 +2008,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="17">
         <v>4149472.94</v>
       </c>
       <c r="I24" t="s">
@@ -2032,10 +2034,10 @@
       <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="1">
@@ -2048,7 +2050,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="19">
         <v>590000</v>
       </c>
       <c r="I25" t="s">
@@ -2074,10 +2076,10 @@
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="1">
@@ -2090,7 +2092,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="17">
         <v>1357500</v>
       </c>
       <c r="I26" t="s">
@@ -2119,10 +2121,10 @@
       <c r="B27" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="1">
@@ -2135,7 +2137,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="17">
         <v>235756.35</v>
       </c>
       <c r="I27" t="s">
@@ -2161,10 +2163,10 @@
       <c r="B28" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E28" s="1">
@@ -2177,7 +2179,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="17">
         <v>621000</v>
       </c>
       <c r="I28" t="s">
@@ -2206,7 +2208,7 @@
       <c r="C29" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="1">
@@ -2219,7 +2221,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="17">
         <v>705600</v>
       </c>
       <c r="I29" t="s">
@@ -2248,7 +2250,7 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="1">
@@ -2261,7 +2263,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="17">
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
@@ -2290,7 +2292,7 @@
       <c r="C31" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="1">
@@ -2303,7 +2305,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="17">
         <v>274770</v>
       </c>
       <c r="I31" t="s">
@@ -2332,7 +2334,7 @@
       <c r="C32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="1">
@@ -2345,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="17">
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
@@ -2374,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2626,10 +2628,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2667,7 +2669,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45716</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,7 +2697,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45716</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,206 +2770,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>1248582.28</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>45659</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>801220.45</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>45659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>2335088.9700000002</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>45659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>54500</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>45687</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595057F-3EA6-4AB4-A69B-EAD691DC2585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C27ECB-DAFA-4DFA-B5D6-0D7C57D74C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -610,15 +610,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -639,10 +636,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="88.140625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -1030,51 +1033,51 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>44685</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>45064</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G32" si="0">F2-E2</f>
         <v>379</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="19">
         <v>5310660</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>16</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>44705</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1101,7 +1104,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>192000</v>
       </c>
       <c r="I3" t="s">
@@ -1126,51 +1129,51 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>44719</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>45083</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>1300043.0900000001</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>21</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="6">
         <v>44736</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1197,7 +1200,7 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
@@ -1225,45 +1228,45 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>45162</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>45526</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>1902400</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>23</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <v>45189</v>
       </c>
     </row>
@@ -1290,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
@@ -1332,7 +1335,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>4200</v>
       </c>
       <c r="I8" t="s">
@@ -1374,7 +1377,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>578376</v>
       </c>
       <c r="I9" t="s">
@@ -1416,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
@@ -1458,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
@@ -1477,90 +1480,90 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>45281</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>46011</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>4236574.88</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>33</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <v>45289</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>45000</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>45364</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>1311577.5</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>9</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <v>45026</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="6">
         <v>44993</v>
       </c>
     </row>
@@ -1587,7 +1590,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
@@ -1606,45 +1609,45 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>44881</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>45330</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>2328943.1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>45</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="6">
         <v>44886</v>
       </c>
     </row>
@@ -1671,7 +1674,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
@@ -1713,7 +1716,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
@@ -1755,7 +1758,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
@@ -1774,45 +1777,45 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>45328</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>45693</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>3297283.23</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>7</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>45350</v>
       </c>
     </row>
@@ -1839,7 +1842,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
@@ -1861,85 +1864,85 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>45485</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>47310</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>737000</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>17</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
         <v>45510</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>45503</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>45868</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>18</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="6">
         <v>45519</v>
       </c>
     </row>
@@ -1966,7 +1969,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <v>180000</v>
       </c>
       <c r="I23" t="s">
@@ -2008,7 +2011,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>4149472.94</v>
       </c>
       <c r="I24" t="s">
@@ -2034,10 +2037,10 @@
       <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="1">
@@ -2050,7 +2053,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>590000</v>
       </c>
       <c r="I25" t="s">
@@ -2076,10 +2079,10 @@
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="1">
@@ -2092,7 +2095,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <v>1357500</v>
       </c>
       <c r="I26" t="s">
@@ -2137,7 +2140,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <v>235756.35</v>
       </c>
       <c r="I27" t="s">
@@ -2179,7 +2182,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <v>621000</v>
       </c>
       <c r="I28" t="s">
@@ -2221,7 +2224,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <v>705600</v>
       </c>
       <c r="I29" t="s">
@@ -2250,7 +2253,7 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="1">
@@ -2263,7 +2266,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
@@ -2292,7 +2295,7 @@
       <c r="C31" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="1">
@@ -2305,7 +2308,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>274770</v>
       </c>
       <c r="I31" t="s">
@@ -2334,7 +2337,7 @@
       <c r="C32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="1">
@@ -2347,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
@@ -2628,10 +2631,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2669,7 +2672,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,7 +2700,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,206 +2773,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>1248582.28</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45659</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>801220.45</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2335088.9700000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>54500</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45687</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C27ECB-DAFA-4DFA-B5D6-0D7C57D74C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC107776-3D48-489B-9E47-71F108FB9494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="264.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="240.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1946,45 +1946,45 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>45425</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>45789</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="16">
         <v>180000</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>13</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="6">
         <v>45456</v>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC107776-3D48-489B-9E47-71F108FB9494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB89BD-D774-4181-BB79-A7E46D8F6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
   <si>
     <t>contrato</t>
   </si>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -2981,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,6 +4683,20 @@
         <v>45632</v>
       </c>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45657</v>
+      </c>
+      <c r="D75">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB89BD-D774-4181-BB79-A7E46D8F6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD204DDB-86E2-4132-846F-057E6819E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,45 +1988,45 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>45378</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>45742</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="16">
         <v>4149472.94</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>12</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="6">
         <v>45378</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD204DDB-86E2-4132-846F-057E6819E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2887AC6-B258-440F-839A-0507D327D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -620,7 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -638,7 +643,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -646,6 +650,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1053,7 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="6">
@@ -1056,7 +1066,7 @@
         <f t="shared" ref="G2:G32" si="0">F2-E2</f>
         <v>379</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <v>5310660</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1104,7 +1114,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>192000</v>
       </c>
       <c r="I3" t="s">
@@ -1152,7 +1162,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1200,7 +1210,7 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
@@ -1251,7 +1261,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>1902400</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1293,7 +1303,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
@@ -1335,7 +1345,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>4200</v>
       </c>
       <c r="I8" t="s">
@@ -1377,7 +1387,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>578376</v>
       </c>
       <c r="I9" t="s">
@@ -1419,7 +1429,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
@@ -1461,7 +1471,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
@@ -1503,7 +1513,7 @@
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>4236574.88</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1545,7 +1555,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>1311577.5</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1590,7 +1600,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
@@ -1632,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>2328943.1</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1674,7 +1684,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
@@ -1716,7 +1726,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
@@ -1758,7 +1768,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
@@ -1800,7 +1810,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1842,7 +1852,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
@@ -1874,7 +1884,7 @@
       <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="6">
@@ -1887,7 +1897,7 @@
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -1929,7 +1939,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
         <v>103</v>
       </c>
@@ -1969,7 +1979,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -2011,7 +2021,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -2030,132 +2040,132 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>45517</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>45881</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="20">
         <v>590000</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>19</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="6">
         <v>45519</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>45560</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>45924</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H26" s="15">
         <v>1357500</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>25</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="6">
         <v>45569</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="6">
         <v>45568</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="23">
         <v>44893</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="23">
         <v>45257</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="24">
         <v>235756.35</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="21">
         <v>49</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="23">
         <v>44900</v>
       </c>
     </row>
@@ -2182,7 +2192,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>621000</v>
       </c>
       <c r="I28" t="s">
@@ -2201,45 +2211,45 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>45643</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>46007</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="H29" s="15">
         <v>705600</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>3</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="6">
         <v>45688</v>
       </c>
     </row>
@@ -2253,7 +2263,7 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="1">
@@ -2266,7 +2276,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
@@ -2295,7 +2305,7 @@
       <c r="C31" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="1">
@@ -2308,7 +2318,7 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>274770</v>
       </c>
       <c r="I31" t="s">
@@ -2337,7 +2347,7 @@
       <c r="C32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="1">
@@ -2350,7 +2360,7 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
@@ -2380,7 +2390,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,6 +2719,9 @@
       </c>
       <c r="B27" t="s">
         <v>124</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45623</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,206 +2786,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>1248582.28</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>45659</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>801220.45</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>45659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2335088.9700000002</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>45659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>54500</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>45687</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2887AC6-B258-440F-839A-0507D327D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14631989-5CE4-49CA-8E14-841B37A1C932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="162">
   <si>
     <t>contrato</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>encerrado</t>
+  </si>
+  <si>
+    <t>1 do 3</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2682,7 +2685,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45723</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,7 +2713,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45723</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,6 +3457,15 @@
       <c r="D19">
         <v>702486.5</v>
       </c>
+      <c r="E19">
+        <v>909</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45624</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4708,6 +4720,63 @@
       </c>
       <c r="D75">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D76">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D77">
+        <v>441818.34</v>
+      </c>
+      <c r="E77">
+        <v>918</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45645</v>
+      </c>
+      <c r="G77" s="1">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45687</v>
+      </c>
+      <c r="D78">
+        <v>586068.51</v>
+      </c>
+      <c r="E78">
+        <v>936</v>
+      </c>
+      <c r="F78" s="1">
+        <v>45721</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14631989-5CE4-49CA-8E14-841B37A1C932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851DA0E-A667-46B5-90A6-BFB6284E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3000,7 +3000,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4735,6 +4735,12 @@
       <c r="D76">
         <v>15000</v>
       </c>
+      <c r="E76">
+        <v>52</v>
+      </c>
+      <c r="F76" s="1">
+        <v>45723</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851DA0E-A667-46B5-90A6-BFB6284E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C4186-7CBD-4EC0-AD9E-F9201581232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="162">
   <si>
     <t>contrato</t>
   </si>
@@ -2393,7 +2393,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2685,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,6 +4785,29 @@
         <v>45721</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45694</v>
+      </c>
+      <c r="D79">
+        <v>84436.43</v>
+      </c>
+      <c r="E79">
+        <v>5877</v>
+      </c>
+      <c r="F79" s="1">
+        <v>45705</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C4186-7CBD-4EC0-AD9E-F9201581232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDA7A7-1DF3-43BF-B88F-E61FDF919DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="165">
   <si>
     <t>contrato</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>1 do 3</t>
+  </si>
+  <si>
+    <t>020/2024</t>
+  </si>
+  <si>
+    <t>021/2024</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS CONJUNTOS MOTOBOMBAS SUBMERSÍVEL DA MARCA SULZER.</t>
   </si>
 </sst>
 </file>
@@ -973,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1075,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G32" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G33" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2380,6 +2389,41 @@
       </c>
       <c r="M32" s="1">
         <v>45694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45576</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45940</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H33" s="14">
+        <v>3270384.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2390,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2635,7 +2679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2643,7 +2687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2651,7 +2695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2659,7 +2703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2667,7 +2711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2675,7 +2719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2688,7 +2732,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2696,7 +2740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2704,7 +2748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2716,7 +2760,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2727,7 +2771,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2735,7 +2779,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2743,7 +2787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2751,7 +2795,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2759,12 +2803,31 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>142</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,6 +4804,9 @@
       <c r="F76" s="1">
         <v>45723</v>
       </c>
+      <c r="G76" s="1">
+        <v>45727</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -4784,6 +4850,9 @@
       <c r="F78" s="1">
         <v>45721</v>
       </c>
+      <c r="G78" s="1">
+        <v>45723</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -4806,6 +4875,52 @@
       </c>
       <c r="G79" s="1">
         <v>45708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45723</v>
+      </c>
+      <c r="D80">
+        <v>168092.52</v>
+      </c>
+      <c r="E80">
+        <v>274</v>
+      </c>
+      <c r="F80" s="1">
+        <v>45723</v>
+      </c>
+      <c r="G80" s="1">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45723</v>
+      </c>
+      <c r="D81">
+        <v>21409.3</v>
+      </c>
+      <c r="E81">
+        <v>275</v>
+      </c>
+      <c r="F81" s="1">
+        <v>45723</v>
+      </c>
+      <c r="G81" s="1">
+        <v>45727</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDA7A7-1DF3-43BF-B88F-E61FDF919DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71E3CC7-83C8-4682-8453-BDBADD9E3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="165">
   <si>
     <t>contrato</t>
   </si>
@@ -2729,7 +2729,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,6 +4923,43 @@
         <v>45727</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44522</v>
+      </c>
+      <c r="D82">
+        <v>167567</v>
+      </c>
+      <c r="E82">
+        <v>1672</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44522</v>
+      </c>
+      <c r="G82" s="1">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45722</v>
+      </c>
+      <c r="D83">
+        <v>28320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71E3CC7-83C8-4682-8453-BDBADD9E3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A788A-549B-46AB-8C8D-8FCF1A3B4761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -4957,7 +4957,7 @@
         <v>45722</v>
       </c>
       <c r="D83">
-        <v>28320</v>
+        <v>28195.5</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A788A-549B-46AB-8C8D-8FCF1A3B4761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255A17-1B18-4359-BECD-733F85FCED94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
   <si>
     <t>contrato</t>
   </si>
@@ -2729,7 +2729,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45729</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45729</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,6 +4959,26 @@
       <c r="D83">
         <v>28195.5</v>
       </c>
+      <c r="E83">
+        <v>276</v>
+      </c>
+      <c r="F83" s="1">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D84">
+        <v>119152.41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255A17-1B18-4359-BECD-733F85FCED94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE66307-AF65-49E0-854C-63206A8108D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
   <si>
     <t>contrato</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS CONJUNTOS MOTOBOMBAS SUBMERSÍVEL DA MARCA SULZER.</t>
+  </si>
+  <si>
+    <t>2 do 3</t>
   </si>
 </sst>
 </file>
@@ -3060,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,6 +4983,20 @@
         <v>119152.41</v>
       </c>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D85">
+        <v>587059.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE66307-AF65-49E0-854C-63206A8108D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4AA29-BE3A-4EEF-96ED-A1B971C99F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">valor </t>
-  </si>
-  <si>
     <t>licitacao</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
   </si>
   <si>
     <t>2 do 3</t>
+  </si>
+  <si>
+    <t>valor</t>
   </si>
 </sst>
 </file>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,31 +1031,31 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
         <v>44685</v>
@@ -1085,13 +1085,13 @@
         <v>5310660</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="4">
         <v>16</v>
@@ -1100,10 +1100,10 @@
         <v>44705</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="240.75" x14ac:dyDescent="0.25">
@@ -1111,13 +1111,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>45061</v>
@@ -1133,13 +1133,13 @@
         <v>192000</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -1148,10 +1148,10 @@
         <v>45077</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1159,13 +1159,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="6">
         <v>44719</v>
@@ -1181,13 +1181,13 @@
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="4">
         <v>21</v>
@@ -1196,10 +1196,10 @@
         <v>44736</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>45133</v>
@@ -1229,13 +1229,13 @@
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -1244,13 +1244,13 @@
         <v>45135</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1">
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1258,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6">
         <v>45162</v>
@@ -1280,13 +1280,13 @@
         <v>1902400</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="4">
         <v>23</v>
@@ -1300,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1322,13 +1322,13 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -1342,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1364,13 +1364,13 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
       </c>
       <c r="L8">
         <v>26</v>
@@ -1384,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1406,13 +1406,13 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -1426,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1448,13 +1448,13 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1468,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1490,13 +1490,13 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
       <c r="L11">
         <v>32</v>
@@ -1510,13 +1510,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6">
         <v>45281</v>
@@ -1532,13 +1532,13 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L12" s="4">
         <v>33</v>
@@ -1552,13 +1552,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6">
         <v>45000</v>
@@ -1574,13 +1574,13 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L13" s="4">
         <v>9</v>
@@ -1597,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1619,13 +1619,13 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1639,13 +1639,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6">
         <v>44881</v>
@@ -1661,13 +1661,13 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L15" s="4">
         <v>45</v>
@@ -1681,13 +1681,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1703,13 +1703,13 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1723,13 +1723,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1">
         <v>45054</v>
@@ -1745,13 +1745,13 @@
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1765,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1787,13 +1787,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1807,13 +1807,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -1829,13 +1829,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -1849,13 +1849,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -1871,13 +1871,13 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1894,13 +1894,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -1916,13 +1916,13 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L21" s="4">
         <v>17</v>
@@ -1936,13 +1936,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -1956,13 +1956,13 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L22" s="4">
         <v>18</v>
@@ -1976,13 +1976,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -1998,13 +1998,13 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L23" s="4">
         <v>13</v>
@@ -2018,13 +2018,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2040,13 +2040,13 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L24" s="4">
         <v>12</v>
@@ -2060,13 +2060,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2082,13 +2082,13 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="4">
         <v>19</v>
@@ -2102,13 +2102,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2124,13 +2124,13 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L26" s="4">
         <v>25</v>
@@ -2147,13 +2147,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2169,13 +2169,13 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>16</v>
       </c>
       <c r="L27" s="21">
         <v>49</v>
@@ -2189,13 +2189,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2211,13 +2211,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
         <v>130</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>131</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2231,13 +2231,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2253,13 +2253,13 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L29" s="4">
         <v>3</v>
@@ -2273,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2295,13 +2295,13 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
         <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2315,13 +2315,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2337,13 +2337,13 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
         <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
       </c>
       <c r="L31">
         <v>6</v>
@@ -2357,13 +2357,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2379,13 +2379,13 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
         <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2399,13 +2399,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2426,7 +2426,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>45444</v>
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>45791</v>
@@ -2545,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>45492</v>
@@ -2576,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>45706</v>
@@ -2590,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>45413</v>
@@ -2655,7 +2655,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -2740,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
@@ -2768,7 +2768,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -2779,7 +2779,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -2822,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2862,18 +2862,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -3065,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -3083,33 +3083,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3222,12 +3222,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3248,12 +3248,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3274,12 +3274,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3300,12 +3300,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3326,12 +3326,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4AA29-BE3A-4EEF-96ED-A1B971C99F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B951C4D-11F0-46BB-9980-E8C163B40126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3065,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A788A-549B-46AB-8C8D-8FCF1A3B4761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B951C4D-11F0-46BB-9980-E8C163B40126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
   <si>
     <t>contrato</t>
   </si>
@@ -54,9 +54,6 @@
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">valor </t>
-  </si>
-  <si>
     <t>licitacao</t>
   </si>
   <si>
@@ -526,6 +523,12 @@
   </si>
   <si>
     <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS CONJUNTOS MOTOBOMBAS SUBMERSÍVEL DA MARCA SULZER.</t>
+  </si>
+  <si>
+    <t>2 do 3</t>
+  </si>
+  <si>
+    <t>valor</t>
   </si>
 </sst>
 </file>
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,31 +1031,31 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
@@ -1060,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
         <v>44685</v>
@@ -1082,13 +1085,13 @@
         <v>5310660</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="4">
         <v>16</v>
@@ -1097,10 +1100,10 @@
         <v>44705</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="240.75" x14ac:dyDescent="0.25">
@@ -1108,13 +1111,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>45061</v>
@@ -1130,13 +1133,13 @@
         <v>192000</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -1145,10 +1148,10 @@
         <v>45077</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,13 +1159,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="6">
         <v>44719</v>
@@ -1178,13 +1181,13 @@
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="4">
         <v>21</v>
@@ -1193,10 +1196,10 @@
         <v>44736</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1204,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>45133</v>
@@ -1226,13 +1229,13 @@
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -1241,13 +1244,13 @@
         <v>45135</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1">
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1255,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6">
         <v>45162</v>
@@ -1277,13 +1280,13 @@
         <v>1902400</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="4">
         <v>23</v>
@@ -1297,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1319,13 +1322,13 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -1339,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1361,13 +1364,13 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
       </c>
       <c r="L8">
         <v>26</v>
@@ -1381,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1403,13 +1406,13 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -1423,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1445,13 +1448,13 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1465,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1487,13 +1490,13 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
       <c r="L11">
         <v>32</v>
@@ -1507,13 +1510,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6">
         <v>45281</v>
@@ -1529,13 +1532,13 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L12" s="4">
         <v>33</v>
@@ -1549,13 +1552,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6">
         <v>45000</v>
@@ -1571,13 +1574,13 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L13" s="4">
         <v>9</v>
@@ -1594,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1616,13 +1619,13 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1636,13 +1639,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6">
         <v>44881</v>
@@ -1658,13 +1661,13 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L15" s="4">
         <v>45</v>
@@ -1678,13 +1681,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1700,13 +1703,13 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1720,13 +1723,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1">
         <v>45054</v>
@@ -1742,13 +1745,13 @@
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1762,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1784,13 +1787,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1804,13 +1807,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -1826,13 +1829,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -1846,13 +1849,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -1868,13 +1871,13 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1891,13 +1894,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -1913,13 +1916,13 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L21" s="4">
         <v>17</v>
@@ -1933,13 +1936,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -1953,13 +1956,13 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L22" s="4">
         <v>18</v>
@@ -1973,13 +1976,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -1995,13 +1998,13 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L23" s="4">
         <v>13</v>
@@ -2015,13 +2018,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2037,13 +2040,13 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L24" s="4">
         <v>12</v>
@@ -2057,13 +2060,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2079,13 +2082,13 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="4">
         <v>19</v>
@@ -2099,13 +2102,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2121,13 +2124,13 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L26" s="4">
         <v>25</v>
@@ -2144,13 +2147,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2166,13 +2169,13 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>16</v>
       </c>
       <c r="L27" s="21">
         <v>49</v>
@@ -2186,13 +2189,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2208,13 +2211,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
         <v>130</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>131</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2228,13 +2231,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2250,13 +2253,13 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L29" s="4">
         <v>3</v>
@@ -2270,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2292,13 +2295,13 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
         <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2312,13 +2315,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2334,13 +2337,13 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
         <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
       </c>
       <c r="L31">
         <v>6</v>
@@ -2354,13 +2357,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2376,13 +2379,13 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
         <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2396,13 +2399,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2423,7 +2426,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>45444</v>
@@ -2531,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>45791</v>
@@ -2542,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2550,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>45492</v>
@@ -2573,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>45706</v>
@@ -2587,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2595,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2603,7 +2606,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2611,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2619,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2627,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2635,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>45413</v>
@@ -2652,7 +2655,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2660,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2668,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,12 +2727,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45729</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,11 +2756,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45729</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,7 +2768,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -2776,7 +2779,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,7 +2795,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,7 +2803,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -2819,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2859,18 +2862,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -2881,10 +2884,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -2895,10 +2898,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -2909,10 +2912,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -3060,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,33 +3083,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3129,7 +3132,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3175,7 +3178,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3219,12 +3222,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3245,12 +3248,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3271,12 +3274,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3297,12 +3300,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3323,12 +3326,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3397,7 +3400,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3466,7 +3469,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -3509,7 +3512,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3532,7 +3535,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3670,7 +3673,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -3739,7 +3742,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -3762,7 +3765,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -3831,7 +3834,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3946,7 +3949,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4015,7 +4018,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -4291,7 +4294,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4314,7 +4317,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4337,7 +4340,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -4429,7 +4432,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4444,7 +4447,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -4475,7 +4478,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -4567,7 +4570,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -4590,7 +4593,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4613,7 +4616,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -4636,7 +4639,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4696,7 +4699,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4750,7 +4753,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -4787,7 +4790,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4833,10 +4836,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -4856,7 +4859,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -4879,7 +4882,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -4925,7 +4928,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4948,7 +4951,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -4958,6 +4961,40 @@
       </c>
       <c r="D83">
         <v>28195.5</v>
+      </c>
+      <c r="E83">
+        <v>276</v>
+      </c>
+      <c r="F83" s="1">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D84">
+        <v>119152.41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D85">
+        <v>587059.26</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B951C4D-11F0-46BB-9980-E8C163B40126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA27D11-A21A-4CE5-8DD1-AFEBBAD48E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="166">
   <si>
     <t>contrato</t>
   </si>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2732,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45733</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45733</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,6 +4997,104 @@
         <v>587059.26</v>
       </c>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>900</v>
+      </c>
+      <c r="G86" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>18000</v>
+      </c>
+      <c r="G87" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>17100</v>
+      </c>
+      <c r="G88" s="1">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>12000</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>6000</v>
+      </c>
+      <c r="G90" s="1">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>6000</v>
+      </c>
+      <c r="G91" s="1">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>1200</v>
+      </c>
+      <c r="G92" s="1">
+        <v>45733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA27D11-A21A-4CE5-8DD1-AFEBBAD48E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA53811-6D17-4C52-A23F-F99959DE2BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
   <si>
     <t>contrato</t>
   </si>
@@ -3063,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,6 +5095,26 @@
         <v>45733</v>
       </c>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45729</v>
+      </c>
+      <c r="D93">
+        <v>15000</v>
+      </c>
+      <c r="E93">
+        <v>53</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA53811-6D17-4C52-A23F-F99959DE2BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5D49E-F901-4556-840D-1DC6482A1395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="168">
   <si>
     <t>contrato</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>TOSCANA</t>
+  </si>
+  <si>
+    <t>ALMOXARIFADO</t>
   </si>
 </sst>
 </file>
@@ -987,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2738,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45735</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,7 +2766,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45735</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3084,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4903,7 +4909,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>119152.41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>587059.26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -5053,7 +5059,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -5113,6 +5119,127 @@
       </c>
       <c r="F93" s="1">
         <v>45733</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45204</v>
+      </c>
+      <c r="D94">
+        <v>802404.07</v>
+      </c>
+      <c r="E94">
+        <v>86</v>
+      </c>
+      <c r="F94" s="1">
+        <v>45209</v>
+      </c>
+      <c r="G94" s="1">
+        <v>45216</v>
+      </c>
+      <c r="H94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45281</v>
+      </c>
+      <c r="D95">
+        <v>141894.66</v>
+      </c>
+      <c r="E95">
+        <v>95</v>
+      </c>
+      <c r="F95" s="1">
+        <v>45286</v>
+      </c>
+      <c r="G95" s="1">
+        <v>45281</v>
+      </c>
+      <c r="H95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45281</v>
+      </c>
+      <c r="D96">
+        <v>229504</v>
+      </c>
+      <c r="E96">
+        <v>96</v>
+      </c>
+      <c r="F96" s="1">
+        <v>45286</v>
+      </c>
+      <c r="G96" s="1">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45444</v>
+      </c>
+      <c r="D97">
+        <v>74844</v>
+      </c>
+      <c r="E97">
+        <v>109</v>
+      </c>
+      <c r="F97" s="1">
+        <v>45447</v>
+      </c>
+      <c r="G97" s="1">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45444</v>
+      </c>
+      <c r="D98">
+        <v>256987.75</v>
+      </c>
+      <c r="E98">
+        <v>108</v>
+      </c>
+      <c r="F98" s="1">
+        <v>45447</v>
+      </c>
+      <c r="G98" s="1">
+        <v>45457</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5D49E-F901-4556-840D-1DC6482A1395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CDDA5-FC31-4639-9331-0ABD36100A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="182">
   <si>
     <t>contrato</t>
   </si>
@@ -535,6 +535,48 @@
   </si>
   <si>
     <t>ALMOXARIFADO</t>
+  </si>
+  <si>
+    <t>HELIBOMBAS INDÚSTRIA E COMÉRCIO DE EQUIPAMENTOS HIDRÁULICOS LTDA.</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS AERADORES E BOMBAS ANFÍBIAS DA MARCA HELIBOMBAS.</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO, COM APLICAÇÃO DE MATERIAIS, DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO RESIDENCIAL ALFREDO DE CASTRO III.</t>
+  </si>
+  <si>
+    <t>DENIZE M. S. DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>COOMSER – COOP. DE TRABALHO E SERVIÇOS DE RONDONÓPOLIS</t>
+  </si>
+  <si>
+    <t>026/2022</t>
+  </si>
+  <si>
+    <t>OBRAS DE AMPLIAÇÃO DO SISTEMA DE ABASTECIMENTO DE ÁGUA A SEREM IMPLANTADAS NO MUNICÍPIO DE RONDONÓPOLIS – MT</t>
+  </si>
+  <si>
+    <t>026/2024</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO DE 20 (VINTE) ESTAÇÕES ELEVATÓRIAS DE ESGOTO (EEE) DE TANQUE SECO COM SISTEMA DE BOMBEAMENTO EM LINHA (SBL) E SERVIÇOS CORRELATOS EM MICROBACIAS DESPROVIDAS DE REDES DE ESGOTO.</t>
+  </si>
+  <si>
+    <t>DIM BEL CONSTRUTORA, EQUIPAMENTOS E SERVIÇOS LTDA.</t>
+  </si>
+  <si>
+    <t>CE 006/2024</t>
+  </si>
+  <si>
+    <t>CE 008/2024</t>
+  </si>
+  <si>
+    <t>CE 007/2024</t>
+  </si>
+  <si>
+    <t>TP 011/2022</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1126,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G33" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G37" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2400,7 +2442,7 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2426,13 +2468,179 @@
       <c r="H33" s="14">
         <v>3270384.36</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45576</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45940</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1747000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34" s="1">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45560</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45739</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2179039.14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35" s="1">
+        <v>45569</v>
+      </c>
+      <c r="O35" s="1">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44819</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45183</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1133476.3400000001</v>
+      </c>
+      <c r="I36" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36">
+        <v>36</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45628</v>
+      </c>
+      <c r="F37" s="1">
+        <v>46357</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="H37" s="14">
+        <v>10101000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45657</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2946,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,7 +2974,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,6 +3045,30 @@
       </c>
       <c r="B34" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3069,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5242,6 +5474,43 @@
         <v>45457</v>
       </c>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45734</v>
+      </c>
+      <c r="D99">
+        <v>61212.97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44522</v>
+      </c>
+      <c r="D100">
+        <v>167567</v>
+      </c>
+      <c r="E100">
+        <v>1672</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44522</v>
+      </c>
+      <c r="G100" s="1">
+        <v>44523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CDDA5-FC31-4639-9331-0ABD36100A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4D388C-3B55-44B4-8B92-EA8B9C4302BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
   <si>
     <t>contrato</t>
   </si>
@@ -45,9 +45,6 @@
     <t>inicio</t>
   </si>
   <si>
-    <t xml:space="preserve">fim </t>
-  </si>
-  <si>
     <t>prazo</t>
   </si>
   <si>
@@ -577,6 +574,24 @@
   </si>
   <si>
     <t>TP 011/2022</t>
+  </si>
+  <si>
+    <t>005/2019</t>
+  </si>
+  <si>
+    <t>COOPERATIVA DE CATADORES E CATADORAS DE MATERIAL RECICLAVEL DE RONDONÓPOLIS – NOVA ESPERANÇA</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE COOPERATIVA PARA EXECUÇÃO DE SERVIÇOS RECICLAGEM NO MUNICIPIO DE RONDONÓPOLIS/MT</t>
+  </si>
+  <si>
+    <t>DL 001/2019</t>
+  </si>
+  <si>
+    <t>JAMAL BADIE DAUD</t>
+  </si>
+  <si>
+    <t>fim</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1073,37 +1088,37 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
@@ -1111,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6">
         <v>44685</v>
@@ -1126,20 +1141,20 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G37" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G38" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
         <v>5310660</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="4">
         <v>16</v>
@@ -1148,10 +1163,10 @@
         <v>44705</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="240.75" x14ac:dyDescent="0.25">
@@ -1159,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>45061</v>
@@ -1181,13 +1196,13 @@
         <v>192000</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -1196,10 +1211,10 @@
         <v>45077</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1207,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>44719</v>
@@ -1229,13 +1244,13 @@
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L4" s="4">
         <v>21</v>
@@ -1244,10 +1259,10 @@
         <v>44736</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1255,13 +1270,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>45133</v>
@@ -1277,13 +1292,13 @@
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -1292,13 +1307,13 @@
         <v>45135</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" s="1">
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6">
         <v>45162</v>
@@ -1328,13 +1343,13 @@
         <v>1902400</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="4">
         <v>23</v>
@@ -1348,13 +1363,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1370,13 +1385,13 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -1390,13 +1405,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1412,13 +1427,13 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
       <c r="L8">
         <v>26</v>
@@ -1432,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1454,13 +1469,13 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -1474,13 +1489,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1496,13 +1511,13 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1516,13 +1531,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1538,13 +1553,13 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
       <c r="L11">
         <v>32</v>
@@ -1558,13 +1573,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6">
         <v>45281</v>
@@ -1580,13 +1595,13 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L12" s="4">
         <v>33</v>
@@ -1600,13 +1615,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6">
         <v>45000</v>
@@ -1622,13 +1637,13 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L13" s="4">
         <v>9</v>
@@ -1645,13 +1660,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1667,13 +1682,13 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
         <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1687,13 +1702,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="6">
         <v>44881</v>
@@ -1709,13 +1724,13 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L15" s="4">
         <v>45</v>
@@ -1729,13 +1744,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1751,13 +1766,13 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
         <v>14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1771,13 +1786,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
         <v>45054</v>
@@ -1793,13 +1808,13 @@
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1813,13 +1828,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1835,13 +1850,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1855,13 +1870,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -1877,13 +1892,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -1897,13 +1912,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -1919,13 +1934,13 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
         <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1942,13 +1957,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -1964,13 +1979,13 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L21" s="4">
         <v>17</v>
@@ -1984,13 +1999,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -2004,13 +2019,13 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L22" s="4">
         <v>18</v>
@@ -2024,13 +2039,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -2046,13 +2061,13 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L23" s="4">
         <v>13</v>
@@ -2066,13 +2081,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2088,13 +2103,13 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L24" s="4">
         <v>12</v>
@@ -2108,13 +2123,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2130,13 +2145,13 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="4">
         <v>19</v>
@@ -2150,13 +2165,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2172,13 +2187,13 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L26" s="4">
         <v>25</v>
@@ -2195,13 +2210,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2217,13 +2232,13 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="L27" s="21">
         <v>49</v>
@@ -2237,13 +2252,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2259,13 +2274,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
         <v>129</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s">
-        <v>130</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2279,13 +2294,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2301,13 +2316,13 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L29" s="4">
         <v>3</v>
@@ -2321,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2343,13 +2358,13 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
         <v>14</v>
-      </c>
-      <c r="K30" t="s">
-        <v>15</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2363,13 +2378,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2385,13 +2400,13 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
         <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>15</v>
       </c>
       <c r="L31">
         <v>6</v>
@@ -2405,13 +2420,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2427,13 +2442,13 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
         <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>15</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2447,13 +2462,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2469,7 +2484,7 @@
         <v>3270384.36</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -2477,13 +2492,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="E34" s="1">
         <v>45576</v>
@@ -2499,13 +2514,13 @@
         <v>1747000</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
         <v>14</v>
-      </c>
-      <c r="K34" t="s">
-        <v>15</v>
       </c>
       <c r="L34">
         <v>28</v>
@@ -2519,13 +2534,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1">
         <v>45560</v>
@@ -2541,13 +2556,13 @@
         <v>2179039.14</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -2564,13 +2579,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="E36" s="1">
         <v>44819</v>
@@ -2586,13 +2601,13 @@
         <v>1133476.3400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L36">
         <v>36</v>
@@ -2606,13 +2621,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="E37" s="1">
         <v>45628</v>
@@ -2628,19 +2643,61 @@
         <v>10101000</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L37">
         <v>36</v>
       </c>
       <c r="M37" s="1">
         <v>45657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43509</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H38" s="14">
+        <v>164927.88</v>
+      </c>
+      <c r="I38" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38" s="1">
+        <v>43517</v>
       </c>
     </row>
   </sheetData>
@@ -2651,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,7 +2723,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2734,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>45444</v>
@@ -2748,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>45791</v>
@@ -2759,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2767,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>45492</v>
@@ -2790,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>45706</v>
@@ -2804,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2812,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2820,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2828,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2836,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2844,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2852,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>45413</v>
@@ -2869,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2877,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2885,7 +2942,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,7 +2958,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,7 +2966,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +2982,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2933,7 +2990,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,12 +2998,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45740</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,7 +3011,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2962,7 +3019,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,11 +3027,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45740</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,7 +3039,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -2993,7 +3050,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3058,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,7 +3066,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,50 +3082,73 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44239</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44604</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44969</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45334</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45700</v>
       </c>
     </row>
   </sheetData>
@@ -3100,18 +3180,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -3122,10 +3202,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -3136,10 +3216,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -3150,10 +3230,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -3303,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
@@ -3321,33 +3401,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3370,7 +3450,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3393,7 +3473,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3416,7 +3496,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3439,7 +3519,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3460,12 +3540,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3486,12 +3566,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3512,12 +3592,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3538,12 +3618,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3564,12 +3644,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3592,7 +3672,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3615,7 +3695,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3638,7 +3718,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3661,7 +3741,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3684,7 +3764,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3707,7 +3787,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -3730,7 +3810,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -3750,7 +3830,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3773,7 +3853,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3796,7 +3876,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3819,7 +3899,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3842,7 +3922,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3865,7 +3945,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3888,7 +3968,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3911,7 +3991,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -3934,7 +4014,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -3957,7 +4037,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -3980,7 +4060,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -4003,7 +4083,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -4026,7 +4106,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -4049,7 +4129,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -4072,7 +4152,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -4095,7 +4175,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -4118,7 +4198,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -4141,7 +4221,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -4164,7 +4244,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4187,7 +4267,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -4210,7 +4290,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4233,7 +4313,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4256,7 +4336,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -4279,7 +4359,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -4302,7 +4382,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -4325,7 +4405,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -4348,7 +4428,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -4371,7 +4451,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4394,7 +4474,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4417,7 +4497,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4440,7 +4520,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -4463,7 +4543,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -4486,7 +4566,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -4509,7 +4589,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -4532,7 +4612,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4555,7 +4635,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4578,7 +4658,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -4601,7 +4681,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4624,7 +4704,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4647,7 +4727,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -4670,7 +4750,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4685,7 +4765,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -4693,7 +4773,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -4716,7 +4796,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4739,7 +4819,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4762,7 +4842,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4785,7 +4865,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -4808,7 +4888,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -4831,7 +4911,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4854,7 +4934,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -4877,7 +4957,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -4900,7 +4980,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4914,7 +4994,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4937,7 +5017,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4945,7 +5025,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4968,7 +5048,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4991,7 +5071,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5014,7 +5094,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5028,7 +5108,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -5051,7 +5131,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -5074,10 +5154,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -5097,7 +5177,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -5120,7 +5200,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -5143,7 +5223,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -5166,7 +5246,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5189,7 +5269,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -5209,7 +5289,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -5223,10 +5303,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>
@@ -5237,7 +5317,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5251,7 +5331,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -5265,7 +5345,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -5279,7 +5359,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -5293,7 +5373,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -5307,7 +5387,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5321,7 +5401,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -5335,7 +5415,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -5355,7 +5435,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5376,12 +5456,12 @@
         <v>45216</v>
       </c>
       <c r="H94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -5402,12 +5482,12 @@
         <v>45281</v>
       </c>
       <c r="H95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5430,7 +5510,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -5453,7 +5533,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -5476,7 +5556,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5490,7 +5570,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>1</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4D388C-3B55-44B4-8B92-EA8B9C4302BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064EEA9F-C886-42A5-8533-3087164831AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3003,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064EEA9F-C886-42A5-8533-3087164831AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80066194-C67A-4E3B-AEF5-8C6E30F3F5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="188">
   <si>
     <t>contrato</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>fim</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE DIAGNÓSTICO SITUACIONAL INTERNO, ESTUDOS HIDROGEOLÓGICOS, SERVIÇOS DE LIMPEZA E MANUTENÇÃO DE POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS.</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G38" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G39" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2457,7 +2460,7 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2698,6 +2701,54 @@
       </c>
       <c r="M38" s="1">
         <v>43517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45054</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45508</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1496880</v>
+      </c>
+      <c r="I39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>185</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1">
+        <v>45077</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45068</v>
+      </c>
+      <c r="P39" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2708,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,6 +3200,17 @@
       </c>
       <c r="G38" s="1">
         <v>45700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45873</v>
       </c>
     </row>
   </sheetData>
@@ -3381,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,6 +5653,50 @@
         <v>44523</v>
       </c>
     </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>229504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>74844</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>67232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>67232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80066194-C67A-4E3B-AEF5-8C6E30F3F5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A0A13E-E878-42FB-8E66-20CAA4848020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
   <si>
     <t>contrato</t>
   </si>
@@ -3443,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,10 +5658,10 @@
         <v>50</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>229504</v>
+        <v>67232</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5669,31 +5669,9 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>74844</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="D103">
-        <v>67232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="D104">
         <v>67232</v>
       </c>
     </row>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A0A13E-E878-42FB-8E66-20CAA4848020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD7343-AB53-4CD4-96CA-6206F545B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="188">
   <si>
     <t>contrato</t>
   </si>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,6 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3443,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,6 +5676,98 @@
         <v>67232</v>
       </c>
     </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45294</v>
+      </c>
+      <c r="D103" s="25">
+        <v>150372.26999999999</v>
+      </c>
+      <c r="E103">
+        <v>536</v>
+      </c>
+      <c r="F103" s="1">
+        <v>45359</v>
+      </c>
+      <c r="G103" s="1">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D104" s="25">
+        <v>130489.02</v>
+      </c>
+      <c r="E104">
+        <v>553</v>
+      </c>
+      <c r="F104" s="1">
+        <v>45462</v>
+      </c>
+      <c r="G104" s="1">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D105" s="25">
+        <v>201425.79</v>
+      </c>
+      <c r="E105">
+        <v>580</v>
+      </c>
+      <c r="F105" s="1">
+        <v>45572</v>
+      </c>
+      <c r="G105" s="1">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45621</v>
+      </c>
+      <c r="D106" s="25">
+        <v>292348.59999999998</v>
+      </c>
+      <c r="E106">
+        <v>601</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45653</v>
+      </c>
+      <c r="G106" s="1">
+        <v>45656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD7343-AB53-4CD4-96CA-6206F545B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA48F92-B669-47EE-83EA-FC728AFC5E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="188">
   <si>
     <t>contrato</t>
   </si>
@@ -3444,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,7 +3455,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
@@ -5768,6 +5768,39 @@
         <v>45656</v>
       </c>
     </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="25">
+        <v>1200005.94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="D108" s="25">
+        <v>998356.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="D109" s="25">
+        <v>110704.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA48F92-B669-47EE-83EA-FC728AFC5E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CED340-4085-4D80-ABCD-CF63C3AE9B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="195">
   <si>
     <t>contrato</t>
   </si>
@@ -594,7 +594,28 @@
     <t>fim</t>
   </si>
   <si>
-    <t>SERVIÇO DE DIAGNÓSTICO SITUACIONAL INTERNO, ESTUDOS HIDROGEOLÓGICOS, SERVIÇOS DE LIMPEZA E MANUTENÇÃO DE POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS.</t>
+    <t>encerrado com termo definitivo</t>
+  </si>
+  <si>
+    <t>017/2024</t>
+  </si>
+  <si>
+    <t>CE 005/2024</t>
+  </si>
+  <si>
+    <t>023/2024</t>
+  </si>
+  <si>
+    <t>CE 010/2024</t>
+  </si>
+  <si>
+    <t>MARCIO SOUZA FARIA LTDA</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO CPA – CENTRO POLÍTICO ADMINISTRATIVO.</t>
+  </si>
+  <si>
+    <t>PERFURAÇÃO DE 06 (SEIS) POÇOS TUBULARES PROFUNDOS, COM APLICAÇÃO DE MATERIAIS, LOCALIZADOS NO VALE ENCANTADO-CARIMÃ, ALTO DA FÉ, BANANAL, CABECEIRA DO ALMOÇO, ÁGUA FRIA E PINGUELA.</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1094,7 @@
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1145,7 +1167,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G39" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G40" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -1317,7 +1339,7 @@
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,34 +2726,34 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1">
-        <v>45054</v>
+        <v>45555</v>
       </c>
       <c r="F39" s="1">
-        <v>45508</v>
+        <v>45919</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="H39" s="14">
-        <v>1496880</v>
+        <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -2740,16 +2762,58 @@
         <v>185</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M39" s="1">
-        <v>45077</v>
+        <v>45569</v>
       </c>
       <c r="O39" s="1">
-        <v>45068</v>
+        <v>45555</v>
       </c>
       <c r="P39" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45614</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45978</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1711000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45617</v>
       </c>
     </row>
   </sheetData>
@@ -2762,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,10 +3508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5801,6 +5865,17 @@
         <v>110704.87</v>
       </c>
     </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="25">
+        <v>2994149.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CED340-4085-4D80-ABCD-CF63C3AE9B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05EFE0-C2F5-4D28-9760-7C25130B00CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="198">
   <si>
     <t>contrato</t>
   </si>
@@ -616,6 +616,15 @@
   </si>
   <si>
     <t>PERFURAÇÃO DE 06 (SEIS) POÇOS TUBULARES PROFUNDOS, COM APLICAÇÃO DE MATERIAIS, LOCALIZADOS NO VALE ENCANTADO-CARIMÃ, ALTO DA FÉ, BANANAL, CABECEIRA DO ALMOÇO, ÁGUA FRIA E PINGUELA.</t>
+  </si>
+  <si>
+    <t>CE 011/2024</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO DE TANQUE METÁLICO E INTERLIGAÇÃO DA SAÍDA DO NOVO DESARENADOR ATÉ A ADUTORA EXISTENTE NA CAPTAÇÃO DE ÁGUA BRUTA.</t>
+  </si>
+  <si>
+    <t>SPARTACUS CONSTRUÇÃO CIVIL E MONTAGEM INDUSTRIAL LTDA.</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1176,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G40" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G41" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2814,6 +2823,51 @@
       </c>
       <c r="M40" s="1">
         <v>45617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45614</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45794</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H41" s="14">
+        <v>354000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>195</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1">
+        <v>45617</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45614</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3173,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45743</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,7 +3201,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45743</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05EFE0-C2F5-4D28-9760-7C25130B00CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39AB2A-61C0-475F-AAE5-4C143FA10F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$110</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1084,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2880,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3174,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45744</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,7 +3202,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45744</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,6 +5496,12 @@
       <c r="D85">
         <v>587059.26</v>
       </c>
+      <c r="E85">
+        <v>943</v>
+      </c>
+      <c r="F85" s="1">
+        <v>45744</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -5931,6 +5938,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39AB2A-61C0-475F-AAE5-4C143FA10F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C0998D-9745-4817-A213-9FB06DFFCC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,10 +3563,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,7 +3700,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>48464.800000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>119152.41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>61212.97</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>1200005.94</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>998356.07</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>110704.87</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -5938,7 +5939,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="007/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C0998D-9745-4817-A213-9FB06DFFCC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38233D5E-BF2C-4560-83BD-AE882FE909E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3174,7 +3174,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45747</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45747</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3700,7 +3699,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4632,7 +4631,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>48464.800000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>119152.41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>61212.97</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>1200005.94</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>998356.07</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>110704.87</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -5939,13 +5938,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="007/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38233D5E-BF2C-4560-83BD-AE882FE909E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBCF92-2BED-4497-83DF-02012187BF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$112</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
   <si>
     <t>contrato</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>SPARTACUS CONSTRUÇÃO CIVIL E MONTAGEM INDUSTRIAL LTDA.</t>
+  </si>
+  <si>
+    <t>NF 53 cancelada</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3174,7 +3177,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45748</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,7 +3205,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45748</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5615,10 +5618,16 @@
         <v>15000</v>
       </c>
       <c r="E93">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93" s="1">
-        <v>45733</v>
+        <v>45740</v>
+      </c>
+      <c r="G93" s="1">
+        <v>45742</v>
+      </c>
+      <c r="H93" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5937,8 +5946,36 @@
         <v>2994149.07</v>
       </c>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45747</v>
+      </c>
+      <c r="D111" s="25">
+        <v>115541.23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45744</v>
+      </c>
+      <c r="D112" s="25">
+        <v>26921.29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A110" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A112" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBCF92-2BED-4497-83DF-02012187BF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C7F23E-6E39-4D6B-AA00-141E8E55FAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
   <si>
     <t>contrato</t>
   </si>
@@ -1088,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D31" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3177,7 +3177,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,6 +5974,20 @@
         <v>26921.29</v>
       </c>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45750</v>
+      </c>
+      <c r="D113" s="25">
+        <v>62667.54</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A112" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C7F23E-6E39-4D6B-AA00-141E8E55FAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E794E0-995C-440C-9758-8BA2D61717B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="201">
   <si>
     <t>contrato</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t>NF 53 cancelada</t>
+  </si>
+  <si>
+    <t>3 do 3</t>
+  </si>
+  <si>
+    <t>protocolo</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3183,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,7 +3211,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,9 +3588,10 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -3609,8 +3616,11 @@
       <c r="H1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3679,7 +3689,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3728,7 +3738,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3878,7 +3888,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3947,7 +3957,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5959,6 +5969,15 @@
       <c r="D111" s="25">
         <v>115541.23</v>
       </c>
+      <c r="E111">
+        <v>278</v>
+      </c>
+      <c r="F111" s="1">
+        <v>45750</v>
+      </c>
+      <c r="G111" s="1">
+        <v>45750</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -5973,8 +5992,17 @@
       <c r="D112" s="25">
         <v>26921.29</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>277</v>
+      </c>
+      <c r="F112" s="1">
+        <v>45750</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -5986,6 +6014,23 @@
       </c>
       <c r="D113" s="25">
         <v>62667.54</v>
+      </c>
+      <c r="I113">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45749</v>
+      </c>
+      <c r="D114" s="25">
+        <v>783481.71</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E794E0-995C-440C-9758-8BA2D61717B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139FCFA-F196-4951-B4B4-D91138F8DDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$115</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="201">
   <si>
     <t>contrato</t>
   </si>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,6 +5526,12 @@
       <c r="D86">
         <v>900</v>
       </c>
+      <c r="E86">
+        <v>275</v>
+      </c>
+      <c r="F86" s="1">
+        <v>45678</v>
+      </c>
       <c r="G86" s="1">
         <v>45678</v>
       </c>
@@ -5540,6 +5546,12 @@
       <c r="D87">
         <v>18000</v>
       </c>
+      <c r="E87">
+        <v>274</v>
+      </c>
+      <c r="F87" s="1">
+        <v>45670</v>
+      </c>
       <c r="G87" s="1">
         <v>45678</v>
       </c>
@@ -5554,6 +5566,12 @@
       <c r="D88">
         <v>17100</v>
       </c>
+      <c r="E88">
+        <v>275</v>
+      </c>
+      <c r="F88" s="1">
+        <v>45678</v>
+      </c>
       <c r="G88" s="1">
         <v>45684</v>
       </c>
@@ -5568,6 +5586,12 @@
       <c r="D89">
         <v>12000</v>
       </c>
+      <c r="E89">
+        <v>276</v>
+      </c>
+      <c r="F89" s="1">
+        <v>45709</v>
+      </c>
       <c r="G89" s="1">
         <v>45716</v>
       </c>
@@ -5582,6 +5606,12 @@
       <c r="D90">
         <v>6000</v>
       </c>
+      <c r="E90">
+        <v>279</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45722</v>
+      </c>
       <c r="G90" s="1">
         <v>45728</v>
       </c>
@@ -5596,6 +5626,12 @@
       <c r="D91">
         <v>6000</v>
       </c>
+      <c r="E91">
+        <v>280</v>
+      </c>
+      <c r="F91" s="1">
+        <v>45722</v>
+      </c>
       <c r="G91" s="1">
         <v>45728</v>
       </c>
@@ -5608,10 +5644,16 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>1200</v>
+        <v>24000</v>
+      </c>
+      <c r="E92">
+        <v>281</v>
+      </c>
+      <c r="F92" s="1">
+        <v>45727</v>
       </c>
       <c r="G92" s="1">
-        <v>45733</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,8 +6075,25 @@
         <v>783481.71</v>
       </c>
     </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="D115" s="25">
+        <v>28800</v>
+      </c>
+      <c r="E115">
+        <v>283</v>
+      </c>
+      <c r="F115" s="1">
+        <v>45748</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A112" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A115" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139FCFA-F196-4951-B4B4-D91138F8DDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FFCE4-7537-47BC-8775-AD4108FD1C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="206">
   <si>
     <t>contrato</t>
   </si>
@@ -635,6 +635,21 @@
   </si>
   <si>
     <t>protocolo</t>
+  </si>
+  <si>
+    <t>004/2022</t>
+  </si>
+  <si>
+    <t>DIEFRA ENGENHARIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE SERVIÇOS DE GERENCIAMENTO, SUPERVISÃO E FISCALIZAÇÃO DE OBRAS DE SANEAMENTO.</t>
+  </si>
+  <si>
+    <t>GRAZIELA DIAS DEGIACOMETI</t>
+  </si>
+  <si>
+    <t>TP 005/2021</t>
   </si>
 </sst>
 </file>
@@ -737,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,6 +793,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1204,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G41" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G42" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2878,6 +2896,48 @@
       </c>
       <c r="O41" s="1">
         <v>45614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44655</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45019</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1826305.08</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42" s="1">
+        <v>44692</v>
       </c>
     </row>
   </sheetData>
@@ -2888,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,61 +2968,61 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="26">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="26">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="26">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="26">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="26">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="26">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="26">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="26">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="26">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="26">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="26">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="26">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="26">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="26">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="26">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="26">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="26">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="26">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="26">
         <v>19</v>
       </c>
     </row>
@@ -3336,10 +3396,44 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45873</v>
+        <v>188</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45385</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45385</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45750</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45750</v>
       </c>
     </row>
   </sheetData>
@@ -3574,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FFCE4-7537-47BC-8775-AD4108FD1C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283804B-8EB9-412E-BEB2-91A294BBB5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3243,7 +3243,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,6 +6168,12 @@
       <c r="D114" s="25">
         <v>783481.71</v>
       </c>
+      <c r="E114">
+        <v>945</v>
+      </c>
+      <c r="F114" s="1">
+        <v>45755</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283804B-8EB9-412E-BEB2-91A294BBB5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E73AE8-8444-4AE3-84E7-C2D8057F50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,6 +3253,9 @@
       <c r="B24" t="s">
         <v>63</v>
       </c>
+      <c r="C24" s="1">
+        <v>46107</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3350,6 +3353,9 @@
       </c>
       <c r="B35" t="s">
         <v>148</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45919</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,7 +3674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E73AE8-8444-4AE3-84E7-C2D8057F50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3513E-38C2-4151-825F-F5731D4CDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,6 +3168,9 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
+      <c r="C14" s="1">
+        <v>45756</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3243,7 +3246,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45756</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3277,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45756</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3513E-38C2-4151-825F-F5731D4CDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956571E-0CAD-4DC4-B901-8D3A9F01F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$116</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="206">
   <si>
     <t>contrato</t>
   </si>
@@ -2950,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3675,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,8 +6201,22 @@
         <v>45748</v>
       </c>
     </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D116" s="25">
+        <v>142830.01999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A115" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A116" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956571E-0CAD-4DC4-B901-8D3A9F01F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05692BCD-82F7-4CEF-9876-67EC68166907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5289,6 +5289,15 @@
       <c r="D69">
         <v>48464.800000000003</v>
       </c>
+      <c r="E69">
+        <v>207</v>
+      </c>
+      <c r="F69" s="1">
+        <v>45705</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45708</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05692BCD-82F7-4CEF-9876-67EC68166907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EF6BD-EF69-4E1A-97EE-CFAB51B94E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$117</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="206">
   <si>
     <t>contrato</t>
   </si>
@@ -3246,7 +3246,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6224,8 +6224,25 @@
         <v>142830.01999999999</v>
       </c>
     </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="D117" s="25">
+        <v>26767.08</v>
+      </c>
+      <c r="E117">
+        <v>26</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45761</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A116" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A117" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EF6BD-EF69-4E1A-97EE-CFAB51B94E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DADFF7-B390-499C-BAEC-CB33F45451EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6169,6 +6169,15 @@
       <c r="D113" s="25">
         <v>62667.54</v>
       </c>
+      <c r="E113">
+        <v>279</v>
+      </c>
+      <c r="F113" s="1">
+        <v>45755</v>
+      </c>
+      <c r="G113" s="1">
+        <v>45757</v>
+      </c>
       <c r="I113">
         <v>12400</v>
       </c>
@@ -6192,6 +6201,9 @@
       <c r="F114" s="1">
         <v>45755</v>
       </c>
+      <c r="G114" s="1">
+        <v>45757</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -6230,6 +6242,9 @@
       </c>
       <c r="B117">
         <v>2</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45750</v>
       </c>
       <c r="D117" s="25">
         <v>26767.08</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DADFF7-B390-499C-BAEC-CB33F45451EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE3CC8-24A5-47C8-8F67-5BCB89654DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3246,7 +3246,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,6 +5607,15 @@
       <c r="D84">
         <v>119152.41</v>
       </c>
+      <c r="E84">
+        <v>5895</v>
+      </c>
+      <c r="F84" s="1">
+        <v>45747</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45748</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE3CC8-24A5-47C8-8F67-5BCB89654DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3F0AE7-DD6C-4D5C-8352-E3A83F5D31C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$118</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
   <si>
     <t>contrato</t>
   </si>
@@ -3675,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,8 +6265,22 @@
         <v>45761</v>
       </c>
     </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45763</v>
+      </c>
+      <c r="D118" s="25">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A117" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
+  <autoFilter ref="A1:A118" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3F0AE7-DD6C-4D5C-8352-E3A83F5D31C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DFFBF-C0FA-4F54-A50E-A28BF8036B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3246,7 +3246,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,6 +5593,9 @@
       <c r="F83" s="1">
         <v>45730</v>
       </c>
+      <c r="G83" s="1">
+        <v>45734</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6263,6 +6266,9 @@
       </c>
       <c r="F117" s="1">
         <v>45761</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45762</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DFFBF-C0FA-4F54-A50E-A28BF8036B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64618F3-195C-46FE-AA5F-A298FF4C8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -3246,7 +3246,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6284,6 +6284,15 @@
       <c r="D118" s="25">
         <v>15000</v>
       </c>
+      <c r="E118">
+        <v>56</v>
+      </c>
+      <c r="F118" s="1">
+        <v>45775</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45775</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A118" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64618F3-195C-46FE-AA5F-A298FF4C8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7165569-9D15-44B5-88B6-E1E96ABB08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="210">
   <si>
     <t>contrato</t>
   </si>
@@ -580,9 +580,6 @@
     <t>005/2019</t>
   </si>
   <si>
-    <t>COOPERATIVA DE CATADORES E CATADORAS DE MATERIAL RECICLAVEL DE RONDONÓPOLIS – NOVA ESPERANÇA</t>
-  </si>
-  <si>
     <t>CONTRATAÇÃO DE COOPERATIVA PARA EXECUÇÃO DE SERVIÇOS RECICLAGEM NO MUNICIPIO DE RONDONÓPOLIS/MT</t>
   </si>
   <si>
@@ -650,6 +647,21 @@
   </si>
   <si>
     <t>TP 005/2021</t>
+  </si>
+  <si>
+    <t>COOP. DE CATADORES E CATADORAS DE MAT. REC. DE ROND. NOVA ESPERANÇA</t>
+  </si>
+  <si>
+    <t>014/2024</t>
+  </si>
+  <si>
+    <t>COOPERATIVA DE RECICLAGEM DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS-COOPERCICLA</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
+  </si>
+  <si>
+    <t>DL 001/2024</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1204,7 +1216,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G42" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G43" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -1376,7 +1388,7 @@
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2729,10 +2741,10 @@
         <v>181</v>
       </c>
       <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E38" s="1">
         <v>43509</v>
@@ -2748,13 +2760,13 @@
         <v>164927.88</v>
       </c>
       <c r="I38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2768,13 +2780,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="1">
         <v>45555</v>
@@ -2790,13 +2802,13 @@
         <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L39">
         <v>24</v>
@@ -2816,13 +2828,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="E40" s="1">
         <v>45614</v>
@@ -2838,7 +2850,7 @@
         <v>1711000</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
@@ -2861,10 +2873,10 @@
         <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E41" s="1">
         <v>45614</v>
@@ -2880,7 +2892,7 @@
         <v>354000</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
@@ -2903,13 +2915,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
         <v>201</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="E42" s="1">
         <v>44655</v>
@@ -2925,19 +2937,61 @@
         <v>1826305.08</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L42">
         <v>11</v>
       </c>
       <c r="M42" s="1">
         <v>44692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45531</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45895</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H43" s="14">
+        <v>241560</v>
+      </c>
+      <c r="I43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3300,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3331,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,7 +3459,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -3414,7 +3468,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1">
         <v>45385</v>
@@ -3677,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
@@ -3720,7 +3774,7 @@
         <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,7 +5857,7 @@
         <v>45742</v>
       </c>
       <c r="H93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6113,7 +6167,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6199,7 +6253,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" s="1">
         <v>45749</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7165569-9D15-44B5-88B6-E1E96ABB08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC57AE-F3CE-48D0-A00A-C228D23DB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -655,13 +655,13 @@
     <t>014/2024</t>
   </si>
   <si>
-    <t>COOPERATIVA DE RECICLAGEM DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS-COOPERCICLA</t>
-  </si>
-  <si>
     <t>CONTRATAÇÃO DE COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
   </si>
   <si>
     <t>DL 001/2024</t>
+  </si>
+  <si>
+    <t>COOP. DE RECICLAGEM DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS-COOPERCICLA</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,10 +2960,10 @@
         <v>206</v>
       </c>
       <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="E43" s="1">
         <v>45531</v>
@@ -2979,7 +2979,7 @@
         <v>241560</v>
       </c>
       <c r="I43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC57AE-F3CE-48D0-A00A-C228D23DB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917290D6-0D66-4948-990D-96113CE9C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
@@ -661,7 +661,7 @@
     <t>DL 001/2024</t>
   </si>
   <si>
-    <t>COOP. DE RECICLAGEM DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS-COOPERCICLA</t>
+    <t>COOP. DE REC. DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS COOPERCICLA</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917290D6-0D66-4948-990D-96113CE9C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549F578-8226-4E13-BB9B-B5858F7C9923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="211">
   <si>
     <t>contrato</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>COOP. DE REC. DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS COOPERCICLA</t>
+  </si>
+  <si>
+    <t>4 do 3</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -3002,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3303,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,7 +3334,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,6 +3500,14 @@
       </c>
       <c r="F42" s="1">
         <v>45750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3729,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6348,6 +6359,20 @@
         <v>45775</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D119" s="25">
+        <v>251355.96</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A118" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549F578-8226-4E13-BB9B-B5858F7C9923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6A47C-DFBB-4A5A-9A0E-A1786F4891A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="214">
   <si>
     <t>contrato</t>
   </si>
@@ -665,6 +665,15 @@
   </si>
   <si>
     <t>4 do 3</t>
+  </si>
+  <si>
+    <t>001/2025</t>
+  </si>
+  <si>
+    <t>COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
+  </si>
+  <si>
+    <t>DL 001/2025</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1228,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G43" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G44" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -2994,6 +3003,48 @@
         <v>27</v>
       </c>
       <c r="M43" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45701</v>
+      </c>
+      <c r="F44" s="1">
+        <v>46065</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H44" s="14">
+        <v>250866</v>
+      </c>
+      <c r="I44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44" s="1">
         <v>45758</v>
       </c>
     </row>
@@ -3005,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604FC4-2EC6-4750-B71E-A2F0B1736194}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3354,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45785</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3385,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45785</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,6 +3559,14 @@
       </c>
       <c r="B43" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6A47C-DFBB-4A5A-9A0E-A1786F4891A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF38A244-1929-4DED-8BEE-084AF2EDAC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69252D4F-963D-40D0-AFC8-11A95A5E7884}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="214">
   <si>
     <t>contrato</t>
   </si>
@@ -1136,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E09F5-C9B9-4248-BBB0-94A8B67E6C2C}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -3799,10 +3799,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,6 +6432,20 @@
         <v>251355.96</v>
       </c>
     </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120">
+        <v>18</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D120" s="25">
+        <v>12028.32</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A118" xr:uid="{D4B4E85D-A963-4CFA-BEB2-23D2756A771B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BCE24D-A8C1-41FE-BEA0-26AEB8029A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF8AC1-DA20-48A6-94A8-7CC219A02F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$117</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -675,9 +675,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,7 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3353,7 +3349,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45789</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3380,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45789</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3798,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6004,7 +6000,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -6050,7 +6046,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -6064,202 +6060,202 @@
         <v>61212.97</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1">
-        <v>44522</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>167567</v>
-      </c>
-      <c r="E100">
-        <v>1672</v>
-      </c>
-      <c r="F100" s="1">
-        <v>44522</v>
-      </c>
-      <c r="G100" s="1">
-        <v>44523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>81</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
         <v>67232</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>67232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45294</v>
+      </c>
+      <c r="D102" s="25">
+        <v>150372.26999999999</v>
+      </c>
+      <c r="E102">
+        <v>536</v>
+      </c>
+      <c r="F102" s="1">
+        <v>45359</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>155</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1">
-        <v>45294</v>
+        <v>45397</v>
       </c>
       <c r="D103" s="25">
-        <v>150372.26999999999</v>
+        <v>130489.02</v>
       </c>
       <c r="E103">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="F103" s="1">
-        <v>45359</v>
+        <v>45462</v>
       </c>
       <c r="G103" s="1">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>155</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
-        <v>45397</v>
+        <v>45534</v>
       </c>
       <c r="D104" s="25">
-        <v>130489.02</v>
+        <v>201425.79</v>
       </c>
       <c r="E104">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="F104" s="1">
-        <v>45462</v>
+        <v>45572</v>
       </c>
       <c r="G104" s="1">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>155</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="1">
-        <v>45534</v>
+        <v>45621</v>
       </c>
       <c r="D105" s="25">
-        <v>201425.79</v>
+        <v>292348.59999999998</v>
       </c>
       <c r="E105">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F105" s="1">
-        <v>45572</v>
+        <v>45653</v>
       </c>
       <c r="G105" s="1">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" s="1">
-        <v>45621</v>
+        <v>1</v>
       </c>
       <c r="D106" s="25">
-        <v>292348.59999999998</v>
-      </c>
-      <c r="E106">
-        <v>601</v>
-      </c>
-      <c r="F106" s="1">
-        <v>45653</v>
-      </c>
-      <c r="G106" s="1">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1200005.94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>89</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="25">
-        <v>1200005.94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>998356.07</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>89</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" s="25">
-        <v>998356.07</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110704.87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" s="25">
-        <v>110704.87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2994149.07</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45747</v>
       </c>
       <c r="D110" s="25">
-        <v>2994149.07</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115541.23</v>
+      </c>
+      <c r="E110">
+        <v>278</v>
+      </c>
+      <c r="F110" s="1">
+        <v>45750</v>
+      </c>
+      <c r="G110" s="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>151</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="D111" s="25">
-        <v>115541.23</v>
+        <v>26921.29</v>
       </c>
       <c r="E111">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F111" s="1">
         <v>45750</v>
@@ -6268,44 +6264,47 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="D112" s="25">
-        <v>26921.29</v>
+        <v>62667.54</v>
       </c>
       <c r="E112">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F112" s="1">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="G112" s="1">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45757</v>
+      </c>
+      <c r="I112">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>212</v>
       </c>
       <c r="C113" s="1">
-        <v>45750</v>
+        <v>45749</v>
       </c>
       <c r="D113" s="25">
-        <v>62667.54</v>
+        <v>783481.71</v>
       </c>
       <c r="E113">
-        <v>279</v>
+        <v>945</v>
       </c>
       <c r="F113" s="1">
         <v>45755</v>
@@ -6313,143 +6312,134 @@
       <c r="G113" s="1">
         <v>45757</v>
       </c>
-      <c r="I113">
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="D114" s="25">
+        <v>28800</v>
+      </c>
+      <c r="E114">
+        <v>283</v>
+      </c>
+      <c r="F114" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D115" s="25">
+        <v>142830.01999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45750</v>
+      </c>
+      <c r="D116" s="25">
+        <v>26767.08</v>
+      </c>
+      <c r="E116">
+        <v>26</v>
+      </c>
+      <c r="F116" s="1">
+        <v>45761</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45763</v>
+      </c>
+      <c r="D117" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E117">
+        <v>56</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45775</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B114" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" s="1">
-        <v>45749</v>
-      </c>
-      <c r="D114" s="25">
-        <v>783481.71</v>
-      </c>
-      <c r="E114">
-        <v>945</v>
-      </c>
-      <c r="F114" s="1">
-        <v>45755</v>
-      </c>
-      <c r="G114" s="1">
-        <v>45757</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115">
-        <v>8</v>
-      </c>
-      <c r="D115" s="25">
-        <v>28800</v>
-      </c>
-      <c r="E115">
-        <v>283</v>
-      </c>
-      <c r="F115" s="1">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" s="1">
-        <v>45757</v>
-      </c>
-      <c r="D116" s="25">
-        <v>142830.01999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>175</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" s="1">
-        <v>45750</v>
-      </c>
-      <c r="D117" s="25">
-        <v>26767.08</v>
-      </c>
-      <c r="E117">
-        <v>26</v>
-      </c>
-      <c r="F117" s="1">
-        <v>45761</v>
-      </c>
-      <c r="G117" s="1">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D118" s="25">
+        <v>251355.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119">
+        <v>18</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D119" s="25">
+        <v>12028.32</v>
+      </c>
+      <c r="E119">
+        <v>282</v>
+      </c>
+      <c r="F119" s="1">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>104</v>
       </c>
-      <c r="B118">
-        <v>11</v>
-      </c>
-      <c r="C118" s="1">
-        <v>45763</v>
-      </c>
-      <c r="D118" s="25">
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45790</v>
+      </c>
+      <c r="D120" s="14">
         <v>15000</v>
       </c>
-      <c r="E118">
-        <v>56</v>
-      </c>
-      <c r="F118" s="1">
-        <v>45775</v>
-      </c>
-      <c r="G118" s="1">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" t="s">
-        <v>213</v>
-      </c>
-      <c r="C119" s="1">
-        <v>45784</v>
-      </c>
-      <c r="D119" s="25">
-        <v>251355.96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120">
-        <v>18</v>
-      </c>
-      <c r="C120" s="1">
-        <v>45786</v>
-      </c>
-      <c r="D120" s="25">
-        <v>12028.32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A118" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A117" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF8AC1-DA20-48A6-94A8-7CC219A02F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06632DE-77EA-4B7A-87BD-8BD389E84467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$124</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -3349,7 +3349,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45792</v>
+        <v>45793</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45792</v>
+        <v>45793</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6290,7 +6290,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>142830.01999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>175</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>251355.96</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>74</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -6438,8 +6438,88 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45775</v>
+      </c>
+      <c r="D121" s="25">
+        <v>223035.93</v>
+      </c>
+      <c r="E121">
+        <v>280</v>
+      </c>
+      <c r="F121" s="1">
+        <v>45414</v>
+      </c>
+      <c r="G121" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45775</v>
+      </c>
+      <c r="D122" s="25">
+        <v>21871</v>
+      </c>
+      <c r="E122">
+        <v>281</v>
+      </c>
+      <c r="F122" s="1">
+        <v>45418</v>
+      </c>
+      <c r="G122" s="1">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45792</v>
+      </c>
+      <c r="D123" s="25">
+        <v>422057.01</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="D124" s="25">
+        <v>947316.34</v>
+      </c>
+      <c r="E124">
+        <v>145</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45785</v>
+      </c>
+      <c r="I124">
+        <v>12854</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A117" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A124" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06632DE-77EA-4B7A-87BD-8BD389E84467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D97387-7536-4343-98A1-E4DDC27C72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3349,7 +3349,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6343,6 +6343,12 @@
       <c r="D115" s="25">
         <v>142830.01999999999</v>
       </c>
+      <c r="E115">
+        <v>247</v>
+      </c>
+      <c r="F115" s="1">
+        <v>45796</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D97387-7536-4343-98A1-E4DDC27C72FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF1C0B-E678-4398-A5F8-1748E0C92191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3349,7 +3349,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,6 +6443,12 @@
       <c r="D120" s="14">
         <v>15000</v>
       </c>
+      <c r="E120">
+        <v>57</v>
+      </c>
+      <c r="F120" s="1">
+        <v>45797</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF1C0B-E678-4398-A5F8-1748E0C92191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC4CCE-EDC5-4978-835E-5668383AB92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3349,7 +3349,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45798</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45798</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,19 +5426,19 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>45589</v>
+        <v>45554</v>
       </c>
       <c r="D70">
-        <v>22686.63</v>
+        <v>87288.95</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1">
-        <v>45650</v>
+        <v>45555</v>
       </c>
       <c r="G70" s="1">
-        <v>45595</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5448,6 +5448,21 @@
       <c r="B71">
         <v>2</v>
       </c>
+      <c r="C71" s="1">
+        <v>45583</v>
+      </c>
+      <c r="D71">
+        <v>22686.63</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45589</v>
+      </c>
+      <c r="G71" s="1">
+        <v>45595</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -5457,7 +5472,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="1">
-        <v>45653</v>
+        <v>45621</v>
       </c>
       <c r="D72">
         <v>240581.51</v>
@@ -5480,7 +5495,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>45695</v>
+        <v>45671</v>
       </c>
       <c r="D73">
         <v>140953.65</v>
@@ -6058,6 +6073,15 @@
       </c>
       <c r="D99">
         <v>61212.97</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99" s="1">
+        <v>45783</v>
+      </c>
+      <c r="G99" s="1">
+        <v>45792</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,712 +1,748 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF1C0B-E678-4398-A5F8-1748E0C92191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha4" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Planilha3" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Planilha5" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$124</definedName>
-    <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha3!$A$1:$A$124</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="m_1087001192843892000__Hlk166070319" vbProcedure="false">Planilha1!$C$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>contrato</t>
-  </si>
-  <si>
-    <t>empresa</t>
-  </si>
-  <si>
-    <t>objeto</t>
-  </si>
-  <si>
-    <t>inicio</t>
-  </si>
-  <si>
-    <t>fim</t>
-  </si>
-  <si>
-    <t>prazo</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>licitacao</t>
-  </si>
-  <si>
-    <t>recurso</t>
-  </si>
-  <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>portaria</t>
-  </si>
-  <si>
-    <t>data_portaria</t>
-  </si>
-  <si>
-    <t>relatorio</t>
-  </si>
-  <si>
-    <t>ordem de inicio</t>
-  </si>
-  <si>
-    <t>situação</t>
-  </si>
-  <si>
-    <t>009/2022</t>
-  </si>
-  <si>
-    <t>ALPHA CONSTRUTORA EIRELI</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE RECOMPOSIÇÃO DE ASFALTO EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ) EM VALAS ABERTAS PARA A MANUTENÇÃO DAS REDES DE ÁGUA E ESGOTO.</t>
-  </si>
-  <si>
-    <t>CP 002/2022</t>
-  </si>
-  <si>
-    <t>PROPRIO</t>
-  </si>
-  <si>
-    <t>MARCOS BRUMATTI</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>aditivo</t>
-  </si>
-  <si>
-    <t>011/2023</t>
-  </si>
-  <si>
-    <t>AMÉRICA SAT MONITORAMENTO EIRELI</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE PRESTAÇÃO DE SERVIÇOS ESPECIALIZADO EM RASTREAMENTO VEICULAR, ABRANGENDO MONITORAMENTO VIA INTERNET, IMPLANTAÇÃO DE SISTEMA DE ACOMPANHAMENTO, LOCALIZAÇÃO E IMOBILIZAÇÃO AUTOMÁTICA DE VEÍCULOS, PRESTAÇÃO DE SERVIÇO DE POSICIONAMENTO POR SATÉLITE (GPS), EM TEMPO REAL E ININTERRUPTO, PARA O CONTROLE DE VEÍCULOS, INCLUINDO O FORNECIMENTO DE EQUIPAMENTOS, COMPONENTES E LICENÇA DE USO DE SOFTWARE, E OS RESPECTIVOS SERVIÇOS DE INSTALAÇÃO, CONFIGURAÇÃO, CAPACITAÇÃO E SUPORTE TÉCNICO E GARANTIA DE FUNCIONAMENTO PARA MANUTENÇÃO DOS VEÍCULOS DA FROTA DO SANEAR E PRESTAÇÃO DE SERVIÇO DE LOCAÇÃO DE SOFTWARE PARA USO NA GESTÃO DE FROTAS E CONTROLE DE ROTAS DE VEÍCULOS DO SANEAR</t>
-  </si>
-  <si>
-    <t>PE 010/2023</t>
-  </si>
-  <si>
-    <t>013/2022</t>
-  </si>
-  <si>
-    <t>GOLD MÁQUINAS ELÉTRICAS E INDÚSTRIAIS LTDA-ME</t>
-  </si>
-  <si>
-    <t>MANUTENÇÃO PREVENTIVA E CORRETIVA DE MOTORES ELÉTRICOS WEG, GE, SEW, BONFILGLID E DRIVER COM FORNECIMENTO DE MATERIAL.</t>
-  </si>
-  <si>
-    <t>TP 005/2022</t>
-  </si>
-  <si>
-    <t>encerrado</t>
-  </si>
-  <si>
-    <t>014/2023</t>
-  </si>
-  <si>
-    <t>RST ENGENHARIA E MONTAGENS LTDA</t>
-  </si>
-  <si>
-    <t>PARA SERVIÇOS DE MONTAGENS DE ESTRUTURAS ELÉTRICAS E PAINÉIS DE AUTOMAÇÃO PARA ATENDER AS ESTAÇÕES ELEVATÓRIAS DE ÁGUA TRATADA RC1 (OTAVIANO MUNIZ) E RC2 (VILA TOSCANA).</t>
-  </si>
-  <si>
-    <t>TP 006/2023</t>
-  </si>
-  <si>
-    <t>PAC 2</t>
-  </si>
-  <si>
-    <t>encerrado com termo definitivo</t>
-  </si>
-  <si>
-    <t>018/2023</t>
-  </si>
-  <si>
-    <t>SM7 ENGENHARIA, TECNOLOGIA E IMPORTAÇÃO LTDA</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO DE RESERVATÓRIO DE CHAPA DE AÇO PARAFUSADA PARA COMPLEMENTAR AS OBRAS DO SISTEMA DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS-MT.</t>
-  </si>
-  <si>
-    <t>TP 008/2023</t>
-  </si>
-  <si>
-    <t>019/2023</t>
-  </si>
-  <si>
-    <t>H.P. REDLINSKI</t>
-  </si>
-  <si>
-    <t>LOCAÇÃO DE ESCAVADEIRA HIDRÁULICA SOBRE ESTEIRAS, CAMINHÃO BASCULANTE CAPACIDADE DE 12M³ E PÁ CARREGADEIRA SOBRE RODAS</t>
-  </si>
-  <si>
-    <t>TP 007/2023</t>
-  </si>
-  <si>
-    <t>021/2023</t>
-  </si>
-  <si>
-    <t>D+C PARTS ELEVADORES LTDA</t>
-  </si>
-  <si>
-    <t>SERVIÇO DE MANUTENÇÃO PREVENTIVA PERIÓDICA DO ELEVADOR INSTALADO NA AGÊNCIA COMERCIAL DO SANEAR.</t>
-  </si>
-  <si>
-    <t>COMPRA DIRETA</t>
-  </si>
-  <si>
-    <t>023/2023</t>
-  </si>
-  <si>
-    <t>TOTAL DYNAMICS SUPPLY SYSTEMS LTDA</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE GEORADAR CAPAZ DE DETECTAR QUALQUER TIPO DE TUBULAÇÃO, CABOS OU ESTRUTURAS ENTERRADAS, METÁLICA OU NÃO METÁLICAS, NO INTUITO DE AUXILIAR NO MAPEAMENTO E CADASTROS DE REDES EXISTENTES.</t>
-  </si>
-  <si>
-    <t>PE 026/2023</t>
-  </si>
-  <si>
-    <t>026/2023</t>
-  </si>
-  <si>
-    <t>GENTE SEGURADORA S.A.</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS.</t>
-  </si>
-  <si>
-    <t>PE 030/2023</t>
-  </si>
-  <si>
-    <t>027/2023</t>
-  </si>
-  <si>
-    <t>MASTER EMPREENDIMENTOS</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DOS SERVIÇOS DE PAVIMENTAÇÃO ASFÁLTICA EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ), REGULARIZAÇÃO E COMPACTAÇÃO DE LEITO EXISTENTE NA VIA QUE DE ACESSO A ESTAÇÃO ELEVATÓRIA DE ESGOTO “BACIA B”.</t>
-  </si>
-  <si>
-    <t>TP 013/2023</t>
-  </si>
-  <si>
-    <t>028/2023</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE OBRAS DE AMPLIAÇÃO DO SISTEMA DE ESGOTAMENTO SANITÁRIO A SEREM IMPLANTADAS PARA ATENDIMENTO DE ALGUMAS QUADRAS EM DIVERSOS BAIRROS NO MUNICÍPIO DE RONDONÓPOLIS.</t>
-  </si>
-  <si>
-    <t>CP 005/2023</t>
-  </si>
-  <si>
-    <t>004/2023</t>
-  </si>
-  <si>
-    <t>TECNOBOMBAS BOMBAS MOTORES E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO, AMPLIAÇÃO, REFORMA E URBANIZAÇÃO DA CAPTAÇÃO DE ÁGUA BRUTA DO SANEAR, LOCALIZADA ÀS MARGENS DO RIO VERMELHO COM ACESSO PELA COLINA VERDE</t>
-  </si>
-  <si>
-    <t>TP 001/2023</t>
-  </si>
-  <si>
-    <t>005/2023</t>
-  </si>
-  <si>
-    <t>PROMINAS BRASIL EQUIPAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE MATERIAIS E SERVIÇOS PARA MANUTENÇÃO EM 2 (DOIS) EQUIPAMENTOS COMBINADOS DE HIDROJATEAMENTO E SUCÇÃO MODELO SRV 200 – MARCA PROMINAS.</t>
-  </si>
-  <si>
-    <t>PE 005/2023</t>
-  </si>
-  <si>
-    <t>034/2022</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE EXTENSÃO DE REDES DE ABASTECIEMNTO DE ÁGUA, INSTALAÇÃO DE VÁLVULAS REDUTORAS DE PRESSÃO, VENTOSAS E REGISTROS EM GERAL, CAPEAMENTO DE REDE, INTERLIGAÇÕES E OBRAS CIVIS CORRELACIONADAS COMO CONFECÇÃO DE CAIXAS E RECOMPOSIÇÃO ASFÁLTICA.</t>
-  </si>
-  <si>
-    <t>TP 013/2022</t>
-  </si>
-  <si>
-    <t>039/2022</t>
-  </si>
-  <si>
-    <t>SAGATEC LTDA.</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO - INFRAESTRUTURA DE TRANSMISSÃO DE DADOS, ATRAVÉS DE RÁDIO LORA PARA TELEMETRIA DE VAZÃO ATRAVÉS DE SAÍDA PULSADA E ARMAZENAMENTO EM SERVIDOR WEB COM FORNECIMENTO DE RÁDIO TRANSMISSOR LORA E HIDRÔMETRO ACOPLADO.</t>
-  </si>
-  <si>
-    <t>PE 020/2022</t>
-  </si>
-  <si>
-    <t>008/2023</t>
-  </si>
-  <si>
-    <t>MILLENIUM INDÚSTRIA COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO DE ARTEFATOS DE CIMENTO LTDA</t>
-  </si>
-  <si>
-    <t>SERVIÇO DE DIAGNÓSTICO SITUACIONAL INTERNO, ESTUDOS HIDROGEOLÓGICOS, SERVIÇOS DE LIMPEZA E MANUTENÇÃO DE POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS</t>
-  </si>
-  <si>
-    <t>TP 005/2023</t>
-  </si>
-  <si>
-    <t>JAMAL</t>
-  </si>
-  <si>
-    <t>009/2023</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
-  </si>
-  <si>
-    <t>TP 004/2023</t>
-  </si>
-  <si>
-    <t>003/2024</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT,</t>
-  </si>
-  <si>
-    <t>CP 006/2023</t>
-  </si>
-  <si>
-    <t>010/2024</t>
-  </si>
-  <si>
-    <t>ENERGY SYSTEM DO BRASIL IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA NO FORNECIMENTO DE SISTEMAS DE GERAÇÃO DE ENERGIA, INCLUINDO ESTUDOS, IMPLANTAÇÃO, INSTALAÇÃO, TREINAMENTO E MANUTENÇÃO.</t>
-  </si>
-  <si>
-    <t>ADESAO SRP</t>
-  </si>
-  <si>
-    <t>011/2024</t>
-  </si>
-  <si>
-    <t>ELECTRIC CONSULTORIA E SERVIÇOS SOCIEDADE SIMPLES</t>
-  </si>
-  <si>
-    <t>SERVIÇO ESPECIALIZADO DE ASSESSORIA E GESTÃO PERANTE A CÂMARA DE COMERCIALIZAÇÃO DE ENERGIA ELÉTRICA (CCEE) E ADEQUAÇÕES DO SISTEMA DE MEDIÇÃO PARA FATURAMENTO (SMF) E O QUE MAIS SEJA NECESSÁRIO E EXIGIDO PELA DISTRIBUIDORA, INCLUINDO PROJETO, MATERIAIS E EQUIPAMENTOS, IMPLANTAÇÃO, APROVAÇÃO PERANTE ÓRGÃOS COMPETENTES E COMISSIONAMENTO PARA MIGRAÇÃO DE 40 (QUARENTA) UNIDADES CONSUMIDORAS DE GRANDE PORTE.</t>
-  </si>
-  <si>
-    <t>PE 006/2024</t>
-  </si>
-  <si>
-    <t>012/2024</t>
-  </si>
-  <si>
-    <t>MARIANGELA BELLISSIMO UEBARA</t>
-  </si>
-  <si>
-    <t>PRESTAÇÃO DE SERVIÇOS DE LEILOEIRO OFICIAL PARA A REALIZAÇÃO DE LEILÃO DE BENS MÓVEIS INSERVIVEIS</t>
-  </si>
-  <si>
-    <t>INEX 002/2024</t>
-  </si>
-  <si>
-    <t>009/2024</t>
-  </si>
-  <si>
-    <t>D A GARISTO LINS CONSULTORIA ME</t>
-  </si>
-  <si>
-    <t>ATUALIZAÇÃO DO PLANO MUNICIPAL DE SANEAMENTO BÁSICO E PLANO INTEGRADO DE RESÍDUOS SÓLIDOS; REGULAMENTO DA PRESTAÇÃO DE SERVIÇOS PÚBLICOS E GESTÃO DA QUALIDADE NO MUNICÍPIO DE RONDONÓPOLIS.</t>
-  </si>
-  <si>
-    <t>TP 014/2023</t>
-  </si>
-  <si>
-    <t>007/2024</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE REFORMA E AMPLIAÇÃO DA ESTAÇÃO DE TRATAMENTO DE ÁGUA - ETAPA II, LOCALIZADA NA AV. LIONS INTERNACIONAL, Nº 185, VILA AURORA III, NO MUNICÍPIO DE RONDONÓPOLIS.</t>
-  </si>
-  <si>
-    <t>cp 004/2023</t>
-  </si>
-  <si>
-    <t>013/2024</t>
-  </si>
-  <si>
-    <t>SPARTACUS CONSTRUCAO CIVIL E MONTAGEM INDUSTRIAL LTDA</t>
-  </si>
-  <si>
-    <t>CONCLUSÃO DE OBRA DO RESERVATÓRIO METÁLICO APOIADO YARA, COM CAPACIDADE DE 2.500M³ (ARMAZENAMENTO ÁGUA POTÁVEL), LOCALIZADO NO ANEL VIÁRIO CONRADO SALES BRITO</t>
-  </si>
-  <si>
-    <t>CP 002/2024</t>
-  </si>
-  <si>
-    <t>PROPRIO/PAC2</t>
-  </si>
-  <si>
-    <t>018/2024</t>
-  </si>
-  <si>
-    <t>CONSTRUTORA MENEGUETI LTDA</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE ENGENHARIA PARA CONSTRUÇÃO DA NOVA SEDE DA AGÊNCIA COMERCIAL DO SANEAR VILA OPERÁRIA</t>
-  </si>
-  <si>
-    <t>CP 004/2024</t>
-  </si>
-  <si>
-    <t>037/2022</t>
-  </si>
-  <si>
-    <t>PNEUAR COMERCIO DE PNEUS LTDA</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE PNEUS NOVOS PARA A FROTA DE VEÍCULOS OFICIAIS DO SANEAR.</t>
-  </si>
-  <si>
-    <t>PE 017/2022</t>
-  </si>
-  <si>
-    <t>040/2022</t>
-  </si>
-  <si>
-    <t>ECO SYSTEM PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE SERVIÇOS DE LABORATÓRIO ESPECIALIZADO, EM CARÁTER CONTINUADO, PARA REALIZAR ANÁLISES DE QUALIDADE DA ÁGUA DO ABASTECIMENTO PÚBLICO.</t>
-  </si>
-  <si>
-    <t>TP 014/2022</t>
-  </si>
-  <si>
-    <t>DENIZE MARIA SODRÉ DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>028/2024</t>
-  </si>
-  <si>
-    <t>UPX CONSTRUTORA LTDA</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE LOCAÇÃO DE GUINDASTE MUNK CARGA MÁXIMA  DE 100 TONELADAS E CAMINHÃO MUNK CARGA MÁXIMA DE 5,7 TONELADAS</t>
-  </si>
-  <si>
-    <t>CE 013/2024</t>
-  </si>
-  <si>
-    <t>029/2024</t>
-  </si>
-  <si>
-    <t>GENTE SEGURADORA S.A</t>
-  </si>
-  <si>
-    <t>AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS</t>
-  </si>
-  <si>
-    <t>PE 019/2024</t>
-  </si>
-  <si>
-    <t>006/2020</t>
-  </si>
-  <si>
-    <t>GEOPOCOS HIDROCONST. E COMERCIO LTDA.</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM ELABORAÇÃO DE PROJETO PARA OBTENÇÃO DE REGULARIZAÇÃO AMBIENTAL (OUTORGA) DOS POÇOS TUBULARES.</t>
-  </si>
-  <si>
-    <t>TP 002/2020</t>
-  </si>
-  <si>
-    <t>058/2021</t>
-  </si>
-  <si>
-    <t>AJEL SERVICE LTDA.</t>
-  </si>
-  <si>
-    <t>SERVIÇOS ESPECIALIZADOS DE MANUTENÇÃO COM O FORNECIMENTO DE PEÇAS ORIGINAIS PARA CONJUNTOS MOTOBOMBAS SUBMERSÍVEIS DA MARCA ABS, SULZER, COM TESTES DE CARGAS E FORNECIMENTO DOS LAUDOS TÉCNICOS, NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
-  </si>
-  <si>
-    <t>CP 002/2021</t>
-  </si>
-  <si>
-    <t>020/2024</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS CONJUNTOS MOTOBOMBAS SUBMERSÍVEL DA MARCA SULZER.</t>
-  </si>
-  <si>
-    <t>CE 006/2024</t>
-  </si>
-  <si>
-    <t>021/2024</t>
-  </si>
-  <si>
-    <t>HELIBOMBAS INDÚSTRIA E COMÉRCIO DE EQUIPAMENTOS HIDRÁULICOS LTDA.</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS AERADORES E BOMBAS ANFÍBIAS DA MARCA HELIBOMBAS.</t>
-  </si>
-  <si>
-    <t>019/2024</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO, COM APLICAÇÃO DE MATERIAIS, DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO RESIDENCIAL ALFREDO DE CASTRO III.</t>
-  </si>
-  <si>
-    <t>CE 008/2024</t>
-  </si>
-  <si>
-    <t>DENIZE M. S. DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>026/2022</t>
-  </si>
-  <si>
-    <t>COOMSER – COOP. DE TRABALHO E SERVIÇOS DE RONDONÓPOLIS</t>
-  </si>
-  <si>
-    <t>OBRAS DE AMPLIAÇÃO DO SISTEMA DE ABASTECIMENTO DE ÁGUA A SEREM IMPLANTADAS NO MUNICÍPIO DE RONDONÓPOLIS – MT</t>
-  </si>
-  <si>
-    <t>TP 011/2022</t>
-  </si>
-  <si>
-    <t>026/2024</t>
-  </si>
-  <si>
-    <t>DIM BEL CONSTRUTORA, EQUIPAMENTOS E SERVIÇOS LTDA.</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO DE 20 (VINTE) ESTAÇÕES ELEVATÓRIAS DE ESGOTO (EEE) DE TANQUE SECO COM SISTEMA DE BOMBEAMENTO EM LINHA (SBL) E SERVIÇOS CORRELATOS EM MICROBACIAS DESPROVIDAS DE REDES DE ESGOTO.</t>
-  </si>
-  <si>
-    <t>CE 007/2024</t>
-  </si>
-  <si>
-    <t>005/2019</t>
-  </si>
-  <si>
-    <t>COOP. DE CATADORES E CATADORAS DE MAT. REC. DE ROND. NOVA ESPERANÇA</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE COOPERATIVA PARA EXECUÇÃO DE SERVIÇOS RECICLAGEM NO MUNICIPIO DE RONDONÓPOLIS/MT</t>
-  </si>
-  <si>
-    <t>DL 001/2019</t>
-  </si>
-  <si>
-    <t>JAMAL BADIE DAUD</t>
-  </si>
-  <si>
-    <t>017/2024</t>
-  </si>
-  <si>
-    <t>PERFURAÇÃO DE 06 (SEIS) POÇOS TUBULARES PROFUNDOS, COM APLICAÇÃO DE MATERIAIS, LOCALIZADOS NO VALE ENCANTADO-CARIMÃ, ALTO DA FÉ, BANANAL, CABECEIRA DO ALMOÇO, ÁGUA FRIA E PINGUELA.</t>
-  </si>
-  <si>
-    <t>CE 005/2024</t>
-  </si>
-  <si>
-    <t>023/2024</t>
-  </si>
-  <si>
-    <t>MARCIO SOUZA FARIA LTDA</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO CPA – CENTRO POLÍTICO ADMINISTRATIVO.</t>
-  </si>
-  <si>
-    <t>CE 010/2024</t>
-  </si>
-  <si>
-    <t>024/2024</t>
-  </si>
-  <si>
-    <t>SPARTACUS CONSTRUÇÃO CIVIL E MONTAGEM INDUSTRIAL LTDA.</t>
-  </si>
-  <si>
-    <t>CONSTRUÇÃO DE TANQUE METÁLICO E INTERLIGAÇÃO DA SAÍDA DO NOVO DESARENADOR ATÉ A ADUTORA EXISTENTE NA CAPTAÇÃO DE ÁGUA BRUTA.</t>
-  </si>
-  <si>
-    <t>CE 011/2024</t>
-  </si>
-  <si>
-    <t>004/2022</t>
-  </si>
-  <si>
-    <t>DIEFRA ENGENHARIA E CONSULTORIA LTDA</t>
-  </si>
-  <si>
-    <t>EXECUÇÃO DE SERVIÇOS DE GERENCIAMENTO, SUPERVISÃO E FISCALIZAÇÃO DE OBRAS DE SANEAMENTO.</t>
-  </si>
-  <si>
-    <t>TP 005/2021</t>
-  </si>
-  <si>
-    <t>GRAZIELA DIAS DEGIACOMETI</t>
-  </si>
-  <si>
-    <t>014/2024</t>
-  </si>
-  <si>
-    <t>COOP. DE REC. DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS COOPERCICLA</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
-  </si>
-  <si>
-    <t>DL 001/2024</t>
-  </si>
-  <si>
-    <t>001/2025</t>
-  </si>
-  <si>
-    <t>COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
-  </si>
-  <si>
-    <t>DL 001/2025</t>
-  </si>
-  <si>
-    <t>valor empenhado</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>construtora menegueti</t>
-  </si>
-  <si>
-    <t>tecnobombas</t>
-  </si>
-  <si>
-    <t>america sat</t>
-  </si>
-  <si>
-    <t>CONTRATO</t>
-  </si>
-  <si>
-    <t>NRO MEDICAO</t>
-  </si>
-  <si>
-    <t>DATA MEDICAO</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>DATA NF</t>
-  </si>
-  <si>
-    <t>DATA PAGTO</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>protocolo</t>
-  </si>
-  <si>
-    <t>SEGUNDO ADITIVO</t>
-  </si>
-  <si>
-    <t>19/12/204</t>
-  </si>
-  <si>
-    <t>1 do 3</t>
-  </si>
-  <si>
-    <t>2 do 3</t>
-  </si>
-  <si>
-    <t>NF 53 cancelada</t>
-  </si>
-  <si>
-    <t>TOSCANA</t>
-  </si>
-  <si>
-    <t>ALMOXARIFADO</t>
-  </si>
-  <si>
-    <t>3 do 3</t>
-  </si>
-  <si>
-    <t>4 do 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licitacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_portaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordem de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">situação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPHA CONSTRUTORA EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇOS DE RECOMPOSIÇÃO DE ASFALTO EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ) EM VALAS ABERTAS PARA A MANUTENÇÃO DAS REDES DE ÁGUA E ESGOTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 002/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPRIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS BRUMATTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMÉRICA SAT MONITORAMENTO EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE PRESTAÇÃO DE SERVIÇOS ESPECIALIZADO EM RASTREAMENTO VEICULAR, ABRANGENDO MONITORAMENTO VIA INTERNET, IMPLANTAÇÃO DE SISTEMA DE ACOMPANHAMENTO, LOCALIZAÇÃO E IMOBILIZAÇÃO AUTOMÁTICA DE VEÍCULOS, PRESTAÇÃO DE SERVIÇO DE POSICIONAMENTO POR SATÉLITE (GPS), EM TEMPO REAL E ININTERRUPTO, PARA O CONTROLE DE VEÍCULOS, INCLUINDO O FORNECIMENTO DE EQUIPAMENTOS, COMPONENTES E LICENÇA DE USO DE SOFTWARE, E OS RESPECTIVOS SERVIÇOS DE INSTALAÇÃO, CONFIGURAÇÃO, CAPACITAÇÃO E SUPORTE TÉCNICO E GARANTIA DE FUNCIONAMENTO PARA MANUTENÇÃO DOS VEÍCULOS DA FROTA DO SANEAR E PRESTAÇÃO DE SERVIÇO DE LOCAÇÃO DE SOFTWARE PARA USO NA GESTÃO DE FROTAS E CONTROLE DE ROTAS DE VEÍCULOS DO SANEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 010/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">013/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD MÁQUINAS ELÉTRICAS E INDÚSTRIAIS LTDA-ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUTENÇÃO PREVENTIVA E CORRETIVA DE MOTORES ELÉTRICOS WEG, GE, SEW, BONFILGLID E DRIVER COM FORNECIMENTO DE MATERIAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 005/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encerrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RST ENGENHARIA E MONTAGENS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA SERVIÇOS DE MONTAGENS DE ESTRUTURAS ELÉTRICAS E PAINÉIS DE AUTOMAÇÃO PARA ATENDER AS ESTAÇÕES ELEVATÓRIAS DE ÁGUA TRATADA RC1 (OTAVIANO MUNIZ) E RC2 (VILA TOSCANA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 006/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encerrado com termo definitivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM7 ENGENHARIA, TECNOLOGIA E IMPORTAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUÇÃO DE RESERVATÓRIO DE CHAPA DE AÇO PARAFUSADA PARA COMPLEMENTAR AS OBRAS DO SISTEMA DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS-MT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 008/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.P. REDLINSKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAÇÃO DE ESCAVADEIRA HIDRÁULICA SOBRE ESTEIRAS, CAMINHÃO BASCULANTE CAPACIDADE DE 12M³ E PÁ CARREGADEIRA SOBRE RODAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 007/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+C PARTS ELEVADORES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇO DE MANUTENÇÃO PREVENTIVA PERIÓDICA DO ELEVADOR INSTALADO NA AGÊNCIA COMERCIAL DO SANEAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRA DIRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">023/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DYNAMICS SUPPLY SYSTEMS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUISIÇÃO DE GEORADAR CAPAZ DE DETECTAR QUALQUER TIPO DE TUBULAÇÃO, CABOS OU ESTRUTURAS ENTERRADAS, METÁLICA OU NÃO METÁLICAS, NO INTUITO DE AUXILIAR NO MAPEAMENTO E CADASTROS DE REDES EXISTENTES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 026/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">026/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENTE SEGURADORA S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 030/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER EMPREENDIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DOS SERVIÇOS DE PAVIMENTAÇÃO ASFÁLTICA EM CONCRETO BETUMINOSO USINADO A QUENTE (CBUQ), REGULARIZAÇÃO E COMPACTAÇÃO DE LEITO EXISTENTE NA VIA QUE DE ACESSO A ESTAÇÃO ELEVATÓRIA DE ESGOTO “BACIA B”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 013/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE OBRAS DE AMPLIAÇÃO DO SISTEMA DE ESGOTAMENTO SANITÁRIO A SEREM IMPLANTADAS PARA ATENDIMENTO DE ALGUMAS QUADRAS EM DIVERSOS BAIRROS NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 005/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECNOBOMBAS BOMBAS MOTORES E SERVIÇOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUÇÃO, AMPLIAÇÃO, REFORMA E URBANIZAÇÃO DA CAPTAÇÃO DE ÁGUA BRUTA DO SANEAR, LOCALIZADA ÀS MARGENS DO RIO VERMELHO COM ACESSO PELA COLINA VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 001/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROMINAS BRASIL EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUISIÇÃO DE MATERIAIS E SERVIÇOS PARA MANUTENÇÃO EM 2 (DOIS) EQUIPAMENTOS COMBINADOS DE HIDROJATEAMENTO E SUCÇÃO MODELO SRV 200 – MARCA PROMINAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 005/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">034/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE EXTENSÃO DE REDES DE ABASTECIEMNTO DE ÁGUA, INSTALAÇÃO DE VÁLVULAS REDUTORAS DE PRESSÃO, VENTOSAS E REGISTROS EM GERAL, CAPEAMENTO DE REDE, INTERLIGAÇÕES E OBRAS CIVIS CORRELACIONADAS COMO CONFECÇÃO DE CAIXAS E RECOMPOSIÇÃO ASFÁLTICA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 013/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">039/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGATEC LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLANTAÇÃO - INFRAESTRUTURA DE TRANSMISSÃO DE DADOS, ATRAVÉS DE RÁDIO LORA PARA TELEMETRIA DE VAZÃO ATRAVÉS DE SAÍDA PULSADA E ARMAZENAMENTO EM SERVIDOR WEB COM FORNECIMENTO DE RÁDIO TRANSMISSOR LORA E HIDRÔMETRO ACOPLADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 020/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLENIUM INDÚSTRIA COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO DE ARTEFATOS DE CIMENTO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇO DE DIAGNÓSTICO SITUACIONAL INTERNO, ESTUDOS HIDROGEOLÓGICOS, SERVIÇOS DE LIMPEZA E MANUTENÇÃO DE POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 005/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 004/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 006/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGY SYSTEM DO BRASIL IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA NO FORNECIMENTO DE SISTEMAS DE GERAÇÃO DE ENERGIA, INCLUINDO ESTUDOS, IMPLANTAÇÃO, INSTALAÇÃO, TREINAMENTO E MANUTENÇÃO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESAO SRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRIC CONSULTORIA E SERVIÇOS SOCIEDADE SIMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇO ESPECIALIZADO DE ASSESSORIA E GESTÃO PERANTE A CÂMARA DE COMERCIALIZAÇÃO DE ENERGIA ELÉTRICA (CCEE) E ADEQUAÇÕES DO SISTEMA DE MEDIÇÃO PARA FATURAMENTO (SMF) E O QUE MAIS SEJA NECESSÁRIO E EXIGIDO PELA DISTRIBUIDORA, INCLUINDO PROJETO, MATERIAIS E EQUIPAMENTOS, IMPLANTAÇÃO, APROVAÇÃO PERANTE ÓRGÃOS COMPETENTES E COMISSIONAMENTO PARA MIGRAÇÃO DE 40 (QUARENTA) UNIDADES CONSUMIDORAS DE GRANDE PORTE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 006/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANGELA BELLISSIMO UEBARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAÇÃO DE SERVIÇOS DE LEILOEIRO OFICIAL PARA A REALIZAÇÃO DE LEILÃO DE BENS MÓVEIS INSERVIVEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEX 002/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D A GARISTO LINS CONSULTORIA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATUALIZAÇÃO DO PLANO MUNICIPAL DE SANEAMENTO BÁSICO E PLANO INTEGRADO DE RESÍDUOS SÓLIDOS; REGULAMENTO DA PRESTAÇÃO DE SERVIÇOS PÚBLICOS E GESTÃO DA QUALIDADE NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 014/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE REFORMA E AMPLIAÇÃO DA ESTAÇÃO DE TRATAMENTO DE ÁGUA - ETAPA II, LOCALIZADA NA AV. LIONS INTERNACIONAL, Nº 185, VILA AURORA III, NO MUNICÍPIO DE RONDONÓPOLIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp 004/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">013/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARTACUS CONSTRUCAO CIVIL E MONTAGEM INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCLUSÃO DE OBRA DO RESERVATÓRIO METÁLICO APOIADO YARA, COM CAPACIDADE DE 2.500M³ (ARMAZENAMENTO ÁGUA POTÁVEL), LOCALIZADO NO ANEL VIÁRIO CONRADO SALES BRITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 002/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPRIO/PAC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUTORA MENEGUETI LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE ENGENHARIA PARA CONSTRUÇÃO DA NOVA SEDE DA AGÊNCIA COMERCIAL DO SANEAR VILA OPERÁRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 004/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">037/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEUAR COMERCIO DE PNEUS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUISIÇÃO DE PNEUS NOVOS PARA A FROTA DE VEÍCULOS OFICIAIS DO SANEAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 017/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECO SYSTEM PRESERVAÇÃO DO MEIO AMBIENTE LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE SERVIÇOS DE LABORATÓRIO ESPECIALIZADO, EM CARÁTER CONTINUADO, PARA REALIZAR ANÁLISES DE QUALIDADE DA ÁGUA DO ABASTECIMENTO PÚBLICO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 014/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIZE MARIA SODRÉ DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPX CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇOS DE LOCAÇÃO DE GUINDASTE MUNK CARGA MÁXIMA  DE 100 TONELADAS E CAMINHÃO MUNK CARGA MÁXIMA DE 5,7 TONELADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 013/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">029/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENTE SEGURADORA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUISIÇÃO DE SEGURO TOTAL, PELO PERÍODO DE 1 (UM) ANO PARA OS VEÍCULOS PERTENCENTES À FROTA DO SANEAR, COM COBERTURA CONTRA ACIDENTES E DANOS CAUSADOS PELA NATUREZA E ASSISTÊNCIA 24 (VINTE E QUATRO) HORAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 019/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOPOCOS HIDROCONST. E COMERCIO LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM ELABORAÇÃO DE PROJETO PARA OBTENÇÃO DE REGULARIZAÇÃO AMBIENTAL (OUTORGA) DOS POÇOS TUBULARES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 002/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">058/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJEL SERVICE LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇOS ESPECIALIZADOS DE MANUTENÇÃO COM O FORNECIMENTO DE PEÇAS ORIGINAIS PARA CONJUNTOS MOTOBOMBAS SUBMERSÍVEIS DA MARCA ABS, SULZER, COM TESTES DE CARGAS E FORNECIMENTO DOS LAUDOS TÉCNICOS, NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP 002/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS CONJUNTOS MOTOBOMBAS SUBMERSÍVEL DA MARCA SULZER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 006/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELIBOMBAS INDÚSTRIA E COMÉRCIO DE EQUIPAMENTOS HIDRÁULICOS LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVIÇOS DE MANUTENÇÃO, COM O FORNECIMENTO DE PEÇAS ORIGINAIS, REALIZAÇÃO DE TESTES DE CARGAS E FORNECIMENTO DE LAUDOS TÉCNICOS PARA OS AERADORES E BOMBAS ANFÍBIAS DA MARCA HELIBOMBAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO, COM APLICAÇÃO DE MATERIAIS, DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO RESIDENCIAL ALFREDO DE CASTRO III.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 008/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIZE M. S. DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">026/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOMSER – COOP. DE TRABALHO E SERVIÇOS DE RONDONÓPOLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRAS DE AMPLIAÇÃO DO SISTEMA DE ABASTECIMENTO DE ÁGUA A SEREM IMPLANTADAS NO MUNICÍPIO DE RONDONÓPOLIS – MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 011/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">026/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM BEL CONSTRUTORA, EQUIPAMENTOS E SERVIÇOS LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUÇÃO DE 20 (VINTE) ESTAÇÕES ELEVATÓRIAS DE ESGOTO (EEE) DE TANQUE SECO COM SISTEMA DE BOMBEAMENTO EM LINHA (SBL) E SERVIÇOS CORRELATOS EM MICROBACIAS DESPROVIDAS DE REDES DE ESGOTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 007/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOP. DE CATADORES E CATADORAS DE MAT. REC. DE ROND. NOVA ESPERANÇA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE COOPERATIVA PARA EXECUÇÃO DE SERVIÇOS RECICLAGEM NO MUNICIPIO DE RONDONÓPOLIS/MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL 001/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMAL BADIE DAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">017/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFURAÇÃO DE 06 (SEIS) POÇOS TUBULARES PROFUNDOS, COM APLICAÇÃO DE MATERIAIS, LOCALIZADOS NO VALE ENCANTADO-CARIMÃ, ALTO DA FÉ, BANANAL, CABECEIRA DO ALMOÇO, ÁGUA FRIA E PINGUELA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 005/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">023/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCIO SOUZA FARIA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE REDES DE ABASTECIMENTO DE ÁGUA E REDES DE ESGOTAMENTO SANITÁRIO NO CPA – CENTRO POLÍTICO ADMINISTRATIVO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 010/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">024/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARTACUS CONSTRUÇÃO CIVIL E MONTAGEM INDUSTRIAL LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUÇÃO DE TANQUE METÁLICO E INTERLIGAÇÃO DA SAÍDA DO NOVO DESARENADOR ATÉ A ADUTORA EXISTENTE NA CAPTAÇÃO DE ÁGUA BRUTA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 011/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEFRA ENGENHARIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUÇÃO DE SERVIÇOS DE GERENCIAMENTO, SUPERVISÃO E FISCALIZAÇÃO DE OBRAS DE SANEAMENTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 005/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAZIELA DIAS DEGIACOMETI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOP. DE REC. DE LIXO UNIÃO CIDADÃ RECICLA RONDONÓPOLIS COOPERCICLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATAÇÃO DE COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL 001/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOPERATIVA DE CATADORES DE MATERIAIS RECICLÁVEIS, EM CARÁTER CONTINUADO, PARA A OPERACIONALIZAÇÃO DO PROCESSO DE SEPARAÇÃO E COMERCIALIZAÇÃO DOS RESÍDUOS RECICLÁVEIS ORIUNDOS DA COLETA SELETIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL 001/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor empenhado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construtora menegueti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnobombas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">america sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRO MEDICAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA MEDICAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA PAGTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDO ADITIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/12/204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 do 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 do 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF 53 cancelada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOSCANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMOXARIFADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 do 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 do 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vigencia_inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vigencia_final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indice de apostilament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiece de adicao/supressao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apostilamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -719,309 +755,362 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1F1F1F"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1029,33 +1118,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1068,13 +1148,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1084,15 +1158,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1100,7 +1172,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1108,5430 +1179,5560 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="88.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" s="1" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3" t="n">
         <v>45064</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G44" si="0">F2-E2</f>
+      <c r="G2" s="1" t="n">
+        <f aca="false">F2-E2</f>
         <v>379</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4" t="n">
         <v>5310660</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3" t="n">
         <v>44705</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6" t="n">
         <v>45426</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
+      <c r="G3" s="0" t="n">
+        <f aca="false">F3-E3</f>
         <v>365</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="7" t="n">
         <v>192000</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3" t="n">
         <v>45083</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
+      <c r="G4" s="1" t="n">
+        <f aca="false">F4-E4</f>
         <v>364</v>
       </c>
-      <c r="H4" s="15">
-        <v>1300043.0900000001</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="9" t="n">
+        <v>1300043.09</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3" t="n">
         <v>44736</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6" t="n">
         <v>45133</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6" t="n">
         <v>45312</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5-E5</f>
         <v>179</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="7" t="n">
         <v>848743.93</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6" t="n">
         <v>45135</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="6" t="n">
         <v>45197</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3" t="n">
         <v>45162</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3" t="n">
         <v>45526</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1" t="n">
+        <f aca="false">F6-E6</f>
         <v>364</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="9" t="n">
         <v>1902400</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3" t="n">
         <v>45189</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6" t="n">
         <v>45169</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6" t="n">
         <v>45534</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F7-E7</f>
         <v>365</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="7" t="n">
         <v>400996.1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="6" t="n">
         <v>45195</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6" t="n">
         <v>45233</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6" t="n">
         <v>45598</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8-E8</f>
         <v>365</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="7" t="n">
         <v>4200</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6" t="n">
         <v>45257</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6" t="n">
         <v>45630</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9-E9</f>
         <v>365</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="7" t="n">
         <v>578376</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6" t="n">
         <v>45279</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10-E10</f>
         <v>365</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="7" t="n">
         <v>79817.73</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6" t="n">
         <v>45280</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6" t="n">
         <v>45281</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6" t="n">
         <v>45340</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11-E11</f>
         <v>59</v>
       </c>
-      <c r="H11" s="14">
-        <v>315752.32000000001</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="7" t="n">
+        <v>315752.32</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6" t="n">
         <v>45289</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3" t="n">
         <v>45281</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3" t="n">
         <v>46011</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
+      <c r="G12" s="1" t="n">
+        <f aca="false">F12-E12</f>
         <v>730</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9" t="n">
         <v>4236574.88</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3" t="n">
         <v>45289</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3" t="n">
         <v>45000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3" t="n">
         <v>45364</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
+      <c r="G13" s="1" t="n">
+        <f aca="false">F13-E13</f>
         <v>364</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9" t="n">
         <v>1311577.5</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3" t="n">
         <v>45026</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3" t="n">
         <v>44993</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6" t="n">
         <v>45026</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="G14" s="0" t="n">
+        <f aca="false">F14-E14</f>
         <v>365</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="7" t="n">
         <v>988060.58</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6" t="n">
         <v>45033</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3" t="n">
         <v>44881</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3" t="n">
         <v>45330</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
+      <c r="G15" s="1" t="n">
+        <f aca="false">F15-E15</f>
         <v>449</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="9" t="n">
         <v>2328943.1</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3" t="n">
         <v>44886</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6" t="n">
         <v>44893</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="0" t="n">
+        <f aca="false">F16-E16</f>
         <v>364</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="7" t="n">
         <v>415994.99</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="6" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="G17" s="0" t="n">
+        <f aca="false">F17-E17</f>
         <v>364</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="7" t="n">
         <v>1496880</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="6" t="n">
         <v>45077</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="G18" s="0" t="n">
+        <f aca="false">F18-E18</f>
         <v>364</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="7" t="n">
         <v>1943588.94</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="6" t="n">
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3" t="n">
         <v>45328</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
+      <c r="G19" s="1" t="n">
+        <f aca="false">F19-E19</f>
         <v>365</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="9" t="n">
         <v>3297283.23</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3" t="n">
         <v>45350</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6" t="n">
         <v>45826</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
+      <c r="G20" s="0" t="n">
+        <f aca="false">F20-E20</f>
         <v>364</v>
       </c>
-      <c r="H20" s="14">
-        <v>10004185.199999999</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="7" t="n">
+        <v>10004185.2</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="6" t="n">
         <v>45544</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" s="1" customFormat="true" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3" t="n">
         <v>45485</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3" t="n">
         <v>47310</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
+      <c r="G21" s="1" t="n">
+        <f aca="false">F21-E21</f>
         <v>1825</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="9" t="n">
         <v>737000</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3" t="n">
         <v>45510</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3" t="n">
         <v>45503</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3" t="n">
         <v>45868</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
+      <c r="G22" s="1" t="n">
+        <f aca="false">F22-E22</f>
         <v>365</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="4" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3" t="n">
         <v>45519</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3" t="n">
         <v>45425</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3" t="n">
         <v>45789</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="0"/>
+      <c r="G23" s="1" t="n">
+        <f aca="false">F23-E23</f>
         <v>364</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="9" t="n">
         <v>180000</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3" t="n">
         <v>45456</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3" t="n">
         <v>45378</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3" t="n">
         <v>45742</v>
       </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
+      <c r="G24" s="1" t="n">
+        <f aca="false">F24-E24</f>
         <v>364</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="9" t="n">
         <v>4149472.94</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3" t="n">
         <v>45378</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3" t="n">
         <v>45517</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3" t="n">
         <v>45881</v>
       </c>
-      <c r="G25" s="4">
-        <f t="shared" si="0"/>
+      <c r="G25" s="1" t="n">
+        <f aca="false">F25-E25</f>
         <v>364</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="13" t="n">
         <v>590000</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="3" t="n">
         <v>45519</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3" t="n">
         <v>45560</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
+      <c r="G26" s="1" t="n">
+        <f aca="false">F26-E26</f>
         <v>364</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="9" t="n">
         <v>1357500</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3" t="n">
         <v>45569</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="3" t="n">
         <v>45568</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+    <row r="27" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="16" t="n">
         <v>44893</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="16" t="n">
         <v>45257</v>
       </c>
-      <c r="G27" s="21">
-        <f t="shared" si="0"/>
+      <c r="G27" s="14" t="n">
+        <f aca="false">F27-E27</f>
         <v>364</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="17" t="n">
         <v>235756.35</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="16" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6" t="n">
         <v>44894</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
+      <c r="G28" s="0" t="n">
+        <f aca="false">F28-E28</f>
         <v>364</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="7" t="n">
         <v>621000</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="6" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" s="1" customFormat="true" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3" t="n">
         <v>45643</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3" t="n">
         <v>46007</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" si="0"/>
+      <c r="G29" s="1" t="n">
+        <f aca="false">F29-E29</f>
         <v>364</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="9" t="n">
         <v>705600</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="3" t="n">
         <v>45688</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6" t="n">
         <v>46016</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
+      <c r="G30" s="0" t="n">
+        <f aca="false">F30-E30</f>
         <v>364</v>
       </c>
-      <c r="H30" s="14">
-        <v>108303.03999999999</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="7" t="n">
+        <v>108303.04</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="6" t="n">
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6" t="n">
         <v>43971</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6" t="n">
         <v>44335</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
+      <c r="G31" s="0" t="n">
+        <f aca="false">F31-E31</f>
         <v>364</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="7" t="n">
         <v>274770</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="6" t="n">
         <v>45694</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6" t="n">
         <v>44552</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6" t="n">
         <v>45098</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
+      <c r="G32" s="0" t="n">
+        <f aca="false">F32-E32</f>
         <v>546</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="7" t="n">
         <v>5076431.47</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="6" t="n">
         <v>45694</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6" t="n">
         <v>45576</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
+      <c r="G33" s="0" t="n">
+        <f aca="false">F33-E33</f>
         <v>364</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="7" t="n">
         <v>3270384.36</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="0" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6" t="n">
         <v>45576</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
+      <c r="G34" s="0" t="n">
+        <f aca="false">F34-E34</f>
         <v>364</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="7" t="n">
         <v>1747000</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="6" t="n">
         <v>45578</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6" t="n">
         <v>45560</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="6" t="n">
         <v>45739</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
+      <c r="G35" s="0" t="n">
+        <f aca="false">F35-E35</f>
         <v>179</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="7" t="n">
         <v>2179039.14</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="6" t="n">
         <v>45569</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="6" t="n">
         <v>45560</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6" t="n">
         <v>44819</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6" t="n">
         <v>45183</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
+      <c r="G36" s="0" t="n">
+        <f aca="false">F36-E36</f>
         <v>364</v>
       </c>
-      <c r="H36" s="14">
-        <v>1133476.3400000001</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="7" t="n">
+        <v>1133476.34</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="6" t="n">
         <v>44823</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="6" t="n">
         <v>46357</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
+      <c r="G37" s="0" t="n">
+        <f aca="false">F37-E37</f>
         <v>729</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="7" t="n">
         <v>10101000</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="6" t="n">
         <v>45657</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6" t="n">
         <v>43509</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6" t="n">
         <v>43873</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
+      <c r="G38" s="0" t="n">
+        <f aca="false">F38-E38</f>
         <v>364</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="7" t="n">
         <v>164927.88</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="6" t="n">
         <v>43517</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6" t="n">
         <v>45555</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="6" t="n">
         <v>45919</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
+      <c r="G39" s="0" t="n">
+        <f aca="false">F39-E39</f>
         <v>364</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="7" t="n">
         <v>6000000</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="6" t="n">
         <v>45569</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="6" t="n">
         <v>45555</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="6" t="n">
         <v>45614</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6" t="n">
         <v>45978</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
+      <c r="G40" s="0" t="n">
+        <f aca="false">F40-E40</f>
         <v>364</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="7" t="n">
         <v>1711000</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="6" t="n">
         <v>45617</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6" t="n">
         <v>45614</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6" t="n">
         <v>45794</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
+      <c r="G41" s="0" t="n">
+        <f aca="false">F41-E41</f>
         <v>180</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="7" t="n">
         <v>354000</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="6" t="n">
         <v>45617</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="6" t="n">
         <v>45614</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6" t="n">
         <v>44655</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6" t="n">
         <v>45019</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
+      <c r="G42" s="0" t="n">
+        <f aca="false">F42-E42</f>
         <v>364</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="7" t="n">
         <v>1826305.08</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="6" t="n">
         <v>44692</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="6" t="n">
         <v>45531</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="6" t="n">
         <v>45895</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
+      <c r="G43" s="0" t="n">
+        <f aca="false">F43-E43</f>
         <v>364</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="7" t="n">
         <v>241560</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="6" t="n">
         <v>45758</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6" t="n">
         <v>45701</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="6" t="n">
         <v>46065</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
+      <c r="G44" s="0" t="n">
+        <f aca="false">F44-E44</f>
         <v>364</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="7" t="n">
         <v>250866</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="6" t="n">
         <v>45758</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="26">
+      <c r="S1" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="26">
+      <c r="T1" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="26">
+      <c r="U1" s="19" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6" t="n">
         <v>45444</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6" t="n">
         <v>45824</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6" t="n">
         <v>45791</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6" t="n">
         <v>45492</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6" t="n">
         <v>45552</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6" t="n">
         <v>45612</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6" t="n">
         <v>45672</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6" t="n">
         <v>45733</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6" t="n">
         <v>45706</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6" t="n">
         <v>45886</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6" t="n">
         <v>45413</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6" t="n">
         <v>45593</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6" t="n">
         <v>45773</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6" t="n">
         <v>45756</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6" t="n">
         <v>46107</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="D26" s="6" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6" t="n">
         <v>45623</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6" t="n">
         <v>45829</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6" t="n">
         <v>45919</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6" t="n">
         <v>44239</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="6" t="n">
         <v>44604</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6" t="n">
         <v>44969</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6" t="n">
         <v>45334</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="6" t="n">
         <v>45700</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6" t="n">
         <v>45385</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="6" t="n">
         <v>45385</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6" t="n">
         <v>45750</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6" t="n">
         <v>45750</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22" t="n">
         <v>1248582.28</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="23" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="24" t="n">
         <v>801220.45</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="23" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="12">
-        <v>2335088.9700000002</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="25" t="n">
+        <v>2335088.97</v>
+      </c>
+      <c r="D4" s="23" t="n">
         <v>45659</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="25" t="n">
         <v>54500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="23" t="n">
         <v>45687</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G120" activeCellId="0" sqref="G120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>117383.14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>5679</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6" t="n">
         <v>45491</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6" t="n">
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6" t="n">
         <v>45508</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>102223.16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>5694</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6" t="n">
         <v>45509</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6" t="n">
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6" t="n">
         <v>45550</v>
       </c>
-      <c r="D4">
-        <v>350615.03999999998</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="0" t="n">
+        <v>350615.04</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>5740</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6" t="n">
         <v>45558</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6" t="n">
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6" t="n">
         <v>45580</v>
       </c>
-      <c r="D5">
-        <v>282653.09999999998</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="0" t="n">
+        <v>282653.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>5771</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6" t="n">
         <v>45581</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6" t="n">
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>1175346.97</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>840</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>596398.11</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>848</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6" t="n">
         <v>45475</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6" t="n">
         <v>45510</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>735945.53</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>867</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6" t="n">
         <v>45512</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6" t="n">
         <v>45513</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6" t="n">
         <v>45541</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>660910.39</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>880</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6" t="n">
         <v>45547</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6" t="n">
         <v>45552</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6" t="n">
         <v>45567</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>556154.86</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>890</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6" t="n">
         <v>45572</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6" t="n">
         <v>45573</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6" t="n">
         <v>45403</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>71800.69</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6" t="n">
         <v>45408</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6" t="n">
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6" t="n">
         <v>45448</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>85665.23</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6" t="n">
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>221982.14</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6" t="n">
         <v>45477</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6" t="n">
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>148631.12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6" t="n">
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6" t="n">
         <v>45566</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>53674.33</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6" t="n">
         <v>45567</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6" t="n">
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6" t="n">
         <v>45566</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>127264.43</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6" t="n">
         <v>45567</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6" t="n">
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6" t="n">
         <v>45580</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>255170.23</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6" t="n">
         <v>45581</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6" t="n">
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>87298.82</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6" t="n">
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6" t="n">
         <v>45607</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>702486.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>909</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6" t="n">
         <v>45623</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6" t="n">
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6" t="n">
         <v>45019</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>101974.56</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6" t="n">
         <v>45019</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6" t="n">
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>169979.49</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6" t="n">
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6" t="n">
         <v>45112</v>
       </c>
-      <c r="D22">
-        <v>72037.490000000005</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="0" t="n">
+        <v>72037.49</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6" t="n">
         <v>45112</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6" t="n">
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6" t="n">
         <v>45112</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>292372.25</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6" t="n">
         <v>45112</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6" t="n">
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6" t="n">
         <v>45149</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>135171.87</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6" t="n">
         <v>45149</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="6" t="n">
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>143023.94</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="6" t="n">
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="D26">
-        <v>79318.429999999993</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="0" t="n">
+        <v>79318.43</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="6" t="n">
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="D27">
-        <v>77427.960000000006</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="0" t="n">
+        <v>77427.96</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6" t="n">
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6" t="n">
         <v>45331</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>160874.38</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6" t="n">
         <v>45331</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6" t="n">
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>27744.5</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="6" t="n">
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6" t="n">
         <v>45429</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>66838.66</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6" t="n">
         <v>45429</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="6" t="n">
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>32886.9</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="6" t="n">
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6" t="n">
         <v>45550</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>13510.04</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6" t="n">
         <v>45540</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="6" t="n">
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="6" t="n">
         <v>45600</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>13535.05</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6" t="n">
         <v>45600</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="6" t="n">
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="6" t="n">
         <v>45631</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>24631.27</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6" t="n">
         <v>45631</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="6" t="n">
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>386493</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>5794</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="6" t="n">
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="D36">
-        <v>575016.43000000005</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="0" t="n">
+        <v>575016.43</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>5816</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="6" t="n">
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6" t="n">
         <v>45205</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>93264.18</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>5349</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="6" t="n">
         <v>45205</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="6" t="n">
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>89785.61</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>5406</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="6" t="n">
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="D39">
-        <v>143861.26999999999</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="0" t="n">
+        <v>143861.27</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>5429</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="6" t="n">
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>92502.67</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>5445</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="6" t="n">
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6" t="n">
         <v>45355</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>192910.6</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>5529</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6" t="n">
         <v>45355</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="6" t="n">
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>117159.87</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>5579</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6" t="n">
         <v>45391</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="6" t="n">
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>104736.9</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>5613</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="6" t="n">
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>101971.78</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5633</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="6" t="n">
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>288086.99</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>5797</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="6" t="n">
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="6" t="n">
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6" t="n">
         <v>45489</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="6" t="n">
         <v>45489</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="6" t="n">
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6" t="n">
         <v>45525</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="6" t="n">
         <v>45525</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="6" t="n">
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6" t="n">
         <v>45560</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="6" t="n">
         <v>45560</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="6" t="n">
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6" t="n">
         <v>45587</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="6" t="n">
         <v>45587</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="6" t="n">
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6" t="n">
         <v>45624</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="6" t="n">
         <v>45624</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="6" t="n">
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="6" t="n">
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="6" t="n">
         <v>45506</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>285360</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>746</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="6" t="n">
         <v>45506</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="6" t="n">
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>397268.18</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>757</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="6" t="n">
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="6" t="n">
         <v>45538</v>
       </c>
-      <c r="D55">
-        <v>78331.820000000007</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="0" t="n">
+        <v>78331.82</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="6" t="n">
         <v>45538</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="6" t="n">
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="6" t="n">
         <v>45538</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>146420.6</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>780</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="6" t="n">
         <v>45538</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="6" t="n">
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="6" t="n">
         <v>45554</v>
       </c>
-      <c r="D57">
-        <v>329179.40000000002</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="0" t="n">
+        <v>329179.4</v>
+      </c>
+      <c r="E57" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="6" t="n">
         <v>45554</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="6" t="n">
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="6" t="n">
         <v>45568</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>570720</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>818</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="6" t="n">
         <v>45568</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="6" t="n">
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>108917.72</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="6" t="n">
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>25953.61</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="6" t="n">
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>123290.86</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="6" t="n">
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="6" t="n">
         <v>45642</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>64791.46</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="6" t="n">
         <v>45642</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="6" t="n">
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="6" t="n">
         <v>45642</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>132598.66</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="6" t="n">
         <v>45642</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="6" t="n">
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>63397.61</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="6" t="n">
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>68650.41</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="6" t="n">
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>49319.96</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="6" t="n">
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>45395.27</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="6" t="n">
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>24085.95</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="6" t="n">
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="6" t="n">
         <v>45705</v>
       </c>
-      <c r="D69">
-        <v>48464.800000000003</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="0" t="n">
+        <v>48464.8</v>
+      </c>
+      <c r="E69" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="6" t="n">
         <v>45705</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="6" t="n">
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="6" t="n">
         <v>45589</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>22686.63</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="6" t="n">
         <v>45650</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="6" t="n">
         <v>45595</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>240581.51</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="6" t="n">
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="6" t="n">
         <v>45695</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>140953.65</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="6" t="n">
         <v>45695</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="6" t="n">
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="6" t="n">
         <v>45631</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>157414.34</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="6" t="n">
         <v>45631</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="6" t="n">
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="6" t="n">
         <v>45657</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="6" t="n">
         <v>45705</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="6" t="n">
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>441818.34</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>918</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="6" t="n">
         <v>45645</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="6" t="n">
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="6" t="n">
         <v>45687</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>586068.51</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>936</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="6" t="n">
         <v>45721</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="6" t="n">
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="6" t="n">
         <v>45694</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>84436.43</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>5877</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="6" t="n">
         <v>45705</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="6" t="n">
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>168092.52</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="6" t="n">
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>21409.3</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="6" t="n">
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>167567</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>1672</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="6" t="n">
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="6" t="n">
         <v>45722</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>28195.5</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="6" t="n">
         <v>45730</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="6" t="n">
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="6" t="n">
         <v>45726</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>119152.41</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>5895</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="6" t="n">
         <v>45747</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="6" t="n">
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="6" t="n">
         <v>45726</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>587059.26</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>943</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="6" t="n">
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="6" t="n">
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>18000</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="6" t="n">
         <v>45670</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="6" t="n">
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>17100</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="6" t="n">
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>12000</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="6" t="n">
         <v>45709</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="6" t="n">
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="6" t="n">
         <v>45722</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="6" t="n">
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="6" t="n">
         <v>45722</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="6" t="n">
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>24000</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="6" t="n">
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="6" t="n">
         <v>45729</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="6" t="n">
         <v>45740</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="6" t="n">
         <v>45204</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>802404.07</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="6" t="n">
         <v>45209</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="6" t="n">
         <v>45281</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>141894.66</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="6" t="n">
         <v>45281</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="0" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="6" t="n">
         <v>45281</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>229504</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="6" t="n">
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="6" t="n">
         <v>45444</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>74844</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="6" t="n">
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="6" t="n">
         <v>45444</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>256987.75</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="6" t="n">
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="6" t="n">
         <v>45734</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>61212.97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>67232</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>67232</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="D102" s="25">
-        <v>150372.26999999999</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="27" t="n">
+        <v>150372.27</v>
+      </c>
+      <c r="E102" s="0" t="n">
         <v>536</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="6" t="n">
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="6" t="n">
         <v>45397</v>
       </c>
-      <c r="D103" s="25">
+      <c r="D103" s="27" t="n">
         <v>130489.02</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>553</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="6" t="n">
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="6" t="n">
         <v>45534</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="27" t="n">
         <v>201425.79</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>580</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="6" t="n">
         <v>45572</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="6" t="n">
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="6" t="n">
         <v>45621</v>
       </c>
-      <c r="D105" s="25">
-        <v>292348.59999999998</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="27" t="n">
+        <v>292348.6</v>
+      </c>
+      <c r="E105" s="0" t="n">
         <v>601</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="6" t="n">
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="27" t="n">
         <v>1200005.94</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D107" s="25">
+      <c r="D107" s="27" t="n">
         <v>998356.07</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="27" t="n">
         <v>110704.87</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="27" t="n">
         <v>2994149.07</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="6" t="n">
         <v>45747</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="27" t="n">
         <v>115541.23</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="6" t="n">
         <v>45750</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="6" t="n">
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="6" t="n">
         <v>45744</v>
       </c>
-      <c r="D111" s="25">
+      <c r="D111" s="27" t="n">
         <v>26921.29</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="6" t="n">
         <v>45750</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="6" t="n">
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="6" t="n">
         <v>45750</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="27" t="n">
         <v>62667.54</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="6" t="n">
         <v>45757</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="0" t="n">
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="6" t="n">
         <v>45749</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="27" t="n">
         <v>783481.71</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0" t="n">
         <v>945</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="6" t="n">
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="27" t="n">
         <v>28800</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="6" t="n">
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="6" t="n">
         <v>45757</v>
       </c>
-      <c r="D115" s="25">
-        <v>142830.01999999999</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="27" t="n">
+        <v>142830.02</v>
+      </c>
+      <c r="E115" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="6" t="n">
         <v>45796</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="6" t="n">
         <v>45750</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="27" t="n">
         <v>26767.08</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="6" t="n">
         <v>45761</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="6" t="n">
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="6" t="n">
         <v>45763</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="27" t="n">
         <v>15000</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="6" t="n">
         <v>45775</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="6" t="n">
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="6" t="n">
         <v>45784</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="27" t="n">
         <v>251355.96</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="6" t="n">
         <v>45786</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="27" t="n">
         <v>12028.32</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="6" t="n">
         <v>45791</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="6" t="n">
         <v>45790</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="6" t="n">
         <v>45797</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="6" t="n">
         <v>45775</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="27" t="n">
         <v>223035.93</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="6" t="n">
         <v>45414</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="6" t="n">
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="6" t="n">
         <v>45775</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="27" t="n">
         <v>21871</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="6" t="n">
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="6" t="n">
         <v>45792</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D123" s="27" t="n">
         <v>422057.01</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D124" s="25">
+      <c r="D124" s="27" t="n">
         <v>947316.34</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="6" t="n">
         <v>45785</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="0" t="n">
         <v>12854</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A124" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <autoFilter ref="A1:A124"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Planilha4" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Planilha3" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Planilha5" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha3!$A$1:$A$124</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -670,24 +669,6 @@
   </si>
   <si>
     <t xml:space="preserve">4 do 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigencia_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigencia_final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indice de apostilament</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indiece de adicao/supressao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apostilamento</t>
   </si>
 </sst>
 </file>
@@ -813,116 +794,120 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,1909 +1189,1909 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="88.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" s="2" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>44685</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>45064</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <f aca="false">F2-E2</f>
         <v>379</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>5310660</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="4" t="n">
         <v>44705</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>45426</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
         <v>365</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="8" t="n">
         <v>192000</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <v>45077</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>44719</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>45083</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <f aca="false">F4-E4</f>
         <v>364</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <v>1300043.09</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>44736</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>45133</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>45312</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
         <v>179</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="8" t="n">
         <v>848743.93</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>45135</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>45162</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>45526</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <f aca="false">F6-E6</f>
         <v>364</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <v>1902400</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>45189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>45169</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
         <v>365</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="8" t="n">
         <v>400996.1</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>45195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>45598</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
         <v>365</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="8" t="n">
         <v>4200</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="7" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
         <v>365</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="8" t="n">
         <v>578376</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>45279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">F10-E10</f>
         <v>365</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="8" t="n">
         <v>79817.73</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="7" t="n">
         <v>45280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>45281</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="7" t="n">
         <v>45340</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">F11-E11</f>
         <v>59</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="8" t="n">
         <v>315752.32</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <v>45289</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>45281</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>46011</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false">F12-E12</f>
         <v>730</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="10" t="n">
         <v>4236574.88</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>45289</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>45000</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>45364</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false">F13-E13</f>
         <v>364</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="10" t="n">
         <v>1311577.5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="4" t="n">
         <v>45026</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="4" t="n">
         <v>44993</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>45026</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="7" t="n">
         <v>45391</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">F14-E14</f>
         <v>365</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="8" t="n">
         <v>988060.58</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>45033</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>44881</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>45330</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <f aca="false">F15-E15</f>
         <v>449</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="10" t="n">
         <v>2328943.1</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>44886</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>44893</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>45257</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">F16-E16</f>
         <v>364</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="8" t="n">
         <v>415994.99</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="7" t="n">
         <v>44900</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>45418</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">F17-E17</f>
         <v>364</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="8" t="n">
         <v>1496880</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <v>45077</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>45418</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">F18-E18</f>
         <v>364</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="8" t="n">
         <v>1943588.94</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <v>45077</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>45328</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>45693</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <f aca="false">F19-E19</f>
         <v>365</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="10" t="n">
         <v>3297283.23</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>45350</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="7" t="n">
         <v>45826</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">F20-E20</f>
         <v>364</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="8" t="n">
         <v>10004185.2</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>45544</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" s="2" customFormat="true" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>45485</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>47310</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <f aca="false">F21-E21</f>
         <v>1825</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="10" t="n">
         <v>737000</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>45510</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>45503</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>45868</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <f aca="false">F22-E22</f>
         <v>365</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>45519</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>45425</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>45789</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <f aca="false">F23-E23</f>
         <v>364</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="10" t="n">
         <v>180000</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>45456</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>45742</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <f aca="false">F24-E24</f>
         <v>364</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="10" t="n">
         <v>4149472.94</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>45378</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>45517</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>45881</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <f aca="false">F25-E25</f>
         <v>364</v>
       </c>
-      <c r="H25" s="13" t="n">
+      <c r="H25" s="14" t="n">
         <v>590000</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="M25" s="4" t="n">
         <v>45519</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>45560</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>45924</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <f aca="false">F26-E26</f>
         <v>364</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="10" t="n">
         <v>1357500</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="M26" s="4" t="n">
         <v>45569</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="O26" s="4" t="n">
         <v>45568</v>
       </c>
     </row>
-    <row r="27" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+    <row r="27" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="17" t="n">
         <v>44893</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="17" t="n">
         <v>45257</v>
       </c>
-      <c r="G27" s="14" t="n">
+      <c r="G27" s="15" t="n">
         <f aca="false">F27-E27</f>
         <v>364</v>
       </c>
-      <c r="H27" s="17" t="n">
+      <c r="H27" s="18" t="n">
         <v>235756.35</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="14" t="n">
+      <c r="L27" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="M27" s="16" t="n">
+      <c r="M27" s="17" t="n">
         <v>44900</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>44894</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>45258</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <f aca="false">F28-E28</f>
         <v>364</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="8" t="n">
         <v>621000</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="true" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" s="2" customFormat="true" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>45643</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>46007</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <f aca="false">F29-E29</f>
         <v>364</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="10" t="n">
         <v>705600</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="L29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="M29" s="4" t="n">
         <v>45688</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="7" t="n">
         <v>46016</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <f aca="false">F30-E30</f>
         <v>364</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="8" t="n">
         <v>108303.04</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="7" t="n">
         <v>45688</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>43971</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>44335</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <f aca="false">F31-E31</f>
         <v>364</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="8" t="n">
         <v>274770</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="7" t="n">
         <v>45694</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>44552</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <f aca="false">F32-E32</f>
         <v>546</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="8" t="n">
         <v>5076431.47</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="7" t="n">
         <v>45694</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="7" t="n">
         <v>45940</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <f aca="false">F33-E33</f>
         <v>364</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="8" t="n">
         <v>3270384.36</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="7" t="n">
         <v>45940</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <f aca="false">F34-E34</f>
         <v>364</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="8" t="n">
         <v>1747000</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="7" t="n">
         <v>45578</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="7" t="n">
         <v>45739</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <f aca="false">F35-E35</f>
         <v>179</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="8" t="n">
         <v>2179039.14</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>45560</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="7" t="n">
         <v>44819</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="7" t="n">
         <v>45183</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <f aca="false">F36-E36</f>
         <v>364</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="H36" s="8" t="n">
         <v>1133476.34</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="7" t="n">
         <v>44823</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="7" t="n">
         <v>45628</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="7" t="n">
         <v>46357</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <f aca="false">F37-E37</f>
         <v>729</v>
       </c>
-      <c r="H37" s="7" t="n">
+      <c r="H37" s="8" t="n">
         <v>10101000</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="7" t="n">
         <v>45657</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <v>43509</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="7" t="n">
         <v>43873</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <f aca="false">F38-E38</f>
         <v>364</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="H38" s="8" t="n">
         <v>164927.88</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="7" t="n">
         <v>43517</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="7" t="n">
         <v>45919</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <f aca="false">F39-E39</f>
         <v>364</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="8" t="n">
         <v>6000000</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="P39" s="0" t="s">
+      <c r="P39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="7" t="n">
         <v>45614</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="7" t="n">
         <v>45978</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <f aca="false">F40-E40</f>
         <v>364</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="8" t="n">
         <v>1711000</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="7" t="n">
         <v>45617</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="7" t="n">
         <v>45614</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="7" t="n">
         <v>45794</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <f aca="false">F41-E41</f>
         <v>180</v>
       </c>
-      <c r="H41" s="7" t="n">
+      <c r="H41" s="8" t="n">
         <v>354000</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="7" t="n">
         <v>45617</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>45614</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>44655</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="7" t="n">
         <v>45019</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <f aca="false">F42-E42</f>
         <v>364</v>
       </c>
-      <c r="H42" s="7" t="n">
+      <c r="H42" s="8" t="n">
         <v>1826305.08</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="7" t="n">
         <v>44692</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="7" t="n">
         <v>45895</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <f aca="false">F43-E43</f>
         <v>364</v>
       </c>
-      <c r="H43" s="7" t="n">
+      <c r="H43" s="8" t="n">
         <v>241560</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="7" t="n">
         <v>45758</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="7" t="n">
         <v>45701</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="7" t="n">
         <v>46065</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <f aca="false">F44-E44</f>
         <v>364</v>
       </c>
-      <c r="H44" s="7" t="n">
+      <c r="H44" s="8" t="n">
         <v>250866</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="7" t="n">
         <v>45758</v>
       </c>
     </row>
@@ -3134,508 +3119,508 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="n">
+      <c r="C1" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="n">
+      <c r="D1" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="n">
+      <c r="E1" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="n">
+      <c r="F1" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="n">
+      <c r="G1" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="n">
+      <c r="H1" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="n">
+      <c r="I1" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="n">
+      <c r="J1" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="n">
+      <c r="K1" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="n">
+      <c r="L1" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="n">
+      <c r="M1" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="n">
+      <c r="N1" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="19" t="n">
+      <c r="O1" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="19" t="n">
+      <c r="P1" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="19" t="n">
+      <c r="Q1" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="19" t="n">
+      <c r="R1" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="19" t="n">
+      <c r="S1" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="19" t="n">
+      <c r="T1" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="19" t="n">
+      <c r="U1" s="20" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>45444</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>45824</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>45791</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>45492</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>45612</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>45672</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>45733</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>45706</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>45886</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>45413</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>45593</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>45773</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>45756</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="n">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="n">
         <f aca="true">TODAY()</f>
         <v>45802</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>46107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <f aca="true">TODAY()</f>
         <v>45802</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>45623</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>45829</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="7" t="n">
         <v>45919</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="7" t="n">
         <v>44239</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="7" t="n">
         <v>44604</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <v>44969</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="7" t="n">
         <v>45334</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="7" t="n">
         <v>45700</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <v>45385</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <v>45385</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>45750</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="7" t="n">
         <v>45750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3663,213 +3648,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="23" t="n">
         <v>1248582.28</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="24" t="n">
         <v>45659</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="25" t="n">
         <v>801220.45</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="24" t="n">
         <v>45659</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="26" t="n">
         <v>2335088.97</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="24" t="n">
         <v>45659</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="26" t="n">
         <v>54500</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="24" t="n">
         <v>45687</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3889,2737 +3874,2737 @@
   </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G120" activeCellId="0" sqref="G120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>117383.14</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>5679</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="7" t="n">
         <v>45492</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>102223.16</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>5694</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>45509</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="7" t="n">
         <v>45511</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>45550</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>350615.04</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>5740</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>45558</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>45559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>282653.1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>5771</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>45581</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>45582</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>1175346.97</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>840</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>45468</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>596398.11</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>848</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>45475</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>735945.53</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>867</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>45541</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>660910.39</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>880</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>45547</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>556154.86</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>890</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="7" t="n">
         <v>45403</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>71800.69</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="7" t="n">
         <v>45408</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="7" t="n">
         <v>45411</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>85665.23</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="7" t="n">
         <v>45457</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>221982.14</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>45477</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="7" t="n">
         <v>45478</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>148631.12</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="7" t="n">
         <v>45511</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>53674.33</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>45567</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>127264.43</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <v>45567</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>255170.23</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>45581</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>45582</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>87298.82</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>45603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>702486.5</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>909</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>45623</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>45624</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>45019</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>101974.56</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="7" t="n">
         <v>45019</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <v>45021</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>45068</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>169979.49</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="7" t="n">
         <v>45068</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="7" t="n">
         <v>45071</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>72037.49</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>45114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>292372.25</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="7" t="n">
         <v>45114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>45149</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>135171.87</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="7" t="n">
         <v>45149</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="7" t="n">
         <v>45149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>45208</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>143023.94</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="7" t="n">
         <v>45208</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="7" t="n">
         <v>45210</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>79318.43</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="7" t="n">
         <v>45268</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>77427.96</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="7" t="n">
         <v>45281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>45331</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>160874.38</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>45331</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="7" t="n">
         <v>45336</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>45391</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>27744.5</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>45391</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>45391</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>66838.66</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="7" t="n">
         <v>45429</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>32886.9</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="7" t="n">
         <v>45456</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="7" t="n">
         <v>45550</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>13510.04</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="7" t="n">
         <v>45540</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="7" t="n">
         <v>45541</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="7" t="n">
         <v>45600</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>13535.05</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="7" t="n">
         <v>45600</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="7" t="n">
         <v>45601</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>24631.27</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="7" t="n">
         <v>45632</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>386493</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>5794</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="G35" s="6" t="n">
+      <c r="G35" s="7" t="n">
         <v>45624</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>575016.43</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>5816</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="G36" s="6" t="n">
+      <c r="G36" s="7" t="n">
         <v>45645</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>93264.18</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>5349</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="7" t="n">
         <v>45209</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="7" t="n">
         <v>45257</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>89785.61</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>5406</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="7" t="n">
         <v>45257</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="7" t="n">
         <v>45259</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>143861.27</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>5429</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="G39" s="6" t="n">
+      <c r="G39" s="7" t="n">
         <v>45267</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>92502.67</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>5445</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="7" t="n">
         <v>45281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>192910.6</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>5529</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="G41" s="6" t="n">
+      <c r="G41" s="7" t="n">
         <v>44990</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <v>45391</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>117159.87</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>5579</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="7" t="n">
         <v>45391</v>
       </c>
-      <c r="G42" s="6" t="n">
+      <c r="G42" s="7" t="n">
         <v>45393</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="7" t="n">
         <v>45425</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>104736.9</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>5613</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="7" t="n">
         <v>45425</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="7" t="n">
         <v>45427</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>101971.78</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>5633</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="7" t="n">
         <v>45461</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C45" s="6" t="n">
+      <c r="C45" s="7" t="n">
         <v>45628</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>288086.99</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>5797</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="7" t="n">
         <v>45628</v>
       </c>
-      <c r="G45" s="6" t="n">
+      <c r="G45" s="7" t="n">
         <v>45629</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="n">
+      <c r="C46" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="G46" s="6" t="n">
+      <c r="G46" s="7" t="n">
         <v>45463</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="6" t="n">
+      <c r="C47" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="G47" s="6" t="n">
+      <c r="G47" s="7" t="n">
         <v>45492</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="G48" s="6" t="n">
+      <c r="G48" s="7" t="n">
         <v>45526</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C49" s="6" t="n">
+      <c r="C49" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="G49" s="6" t="n">
+      <c r="G49" s="7" t="n">
         <v>45560</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="7" t="n">
         <v>45589</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="G51" s="6" t="n">
+      <c r="G51" s="7" t="n">
         <v>45624</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="G52" s="6" t="n">
+      <c r="G52" s="7" t="n">
         <v>45646</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>285360</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>746</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="G53" s="6" t="n">
+      <c r="G53" s="7" t="n">
         <v>45527</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>397268.18</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>757</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="G54" s="6" t="n">
+      <c r="G54" s="7" t="n">
         <v>45527</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C55" s="6" t="n">
+      <c r="C55" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>78331.82</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>779</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="G55" s="6" t="n">
+      <c r="G55" s="7" t="n">
         <v>45555</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>146420.6</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>780</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="G56" s="6" t="n">
+      <c r="G56" s="7" t="n">
         <v>45555</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C57" s="6" t="n">
+      <c r="C57" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>329179.4</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F57" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="G57" s="6" t="n">
+      <c r="G57" s="7" t="n">
         <v>45562</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C58" s="6" t="n">
+      <c r="C58" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>570720</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>818</v>
       </c>
-      <c r="F58" s="6" t="n">
+      <c r="F58" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="G58" s="6" t="n">
+      <c r="G58" s="7" t="n">
         <v>45594</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="6" t="n">
+      <c r="C59" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>108917.72</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="6" t="n">
+      <c r="G59" s="7" t="n">
         <v>45649</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>25953.61</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="G60" s="6" t="n">
+      <c r="G60" s="7" t="n">
         <v>45705</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="6" t="n">
+      <c r="C61" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>123290.86</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="G61" s="6" t="n">
+      <c r="G61" s="7" t="n">
         <v>45624</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="6" t="n">
+      <c r="C62" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>64791.46</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F62" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="G62" s="6" t="n">
+      <c r="G62" s="7" t="n">
         <v>45643</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="6" t="n">
+      <c r="C63" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>132598.66</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="G63" s="6" t="n">
+      <c r="G63" s="7" t="n">
         <v>45643</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="6" t="n">
+      <c r="C64" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>63397.61</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="F64" s="6" t="n">
+      <c r="F64" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="G64" s="6" t="n">
+      <c r="G64" s="7" t="n">
         <v>45646</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C65" s="6" t="n">
+      <c r="C65" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>68650.41</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="G65" s="6" t="n">
+      <c r="G65" s="7" t="n">
         <v>45653</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C66" s="6" t="n">
+      <c r="C66" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>49319.96</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="F66" s="6" t="n">
+      <c r="F66" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="G66" s="6" t="n">
+      <c r="G66" s="7" t="n">
         <v>45653</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C67" s="6" t="n">
+      <c r="C67" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>45395.27</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="F67" s="6" t="n">
+      <c r="F67" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="G67" s="6" t="n">
+      <c r="G67" s="7" t="n">
         <v>45705</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C68" s="6" t="n">
+      <c r="C68" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>24085.95</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="F68" s="6" t="n">
+      <c r="F68" s="7" t="n">
         <v>45702</v>
       </c>
-      <c r="G68" s="6" t="n">
+      <c r="G68" s="7" t="n">
         <v>45705</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="6" t="n">
+      <c r="C69" s="7" t="n">
         <v>45705</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>48464.8</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="F69" s="6" t="n">
+      <c r="F69" s="7" t="n">
         <v>45705</v>
       </c>
-      <c r="G69" s="6" t="n">
+      <c r="G69" s="7" t="n">
         <v>45708</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="6" t="n">
+      <c r="C70" s="7" t="n">
         <v>45589</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>22686.63</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F70" s="6" t="n">
+      <c r="F70" s="7" t="n">
         <v>45650</v>
       </c>
-      <c r="G70" s="6" t="n">
+      <c r="G70" s="7" t="n">
         <v>45595</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="7" t="n">
         <v>45653</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>240581.51</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F72" s="7" t="n">
         <v>45653</v>
       </c>
-      <c r="G72" s="6" t="n">
+      <c r="G72" s="7" t="n">
         <v>45656</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C73" s="6" t="n">
+      <c r="C73" s="7" t="n">
         <v>45695</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>140953.65</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F73" s="6" t="n">
+      <c r="F73" s="7" t="n">
         <v>45695</v>
       </c>
-      <c r="G73" s="6" t="n">
+      <c r="G73" s="7" t="n">
         <v>45706</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>157414.34</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F74" s="6" t="n">
+      <c r="F74" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="G74" s="6" t="n">
+      <c r="G74" s="7" t="n">
         <v>45632</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C75" s="6" t="n">
+      <c r="C75" s="7" t="n">
         <v>45657</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C76" s="6" t="n">
+      <c r="C76" s="7" t="n">
         <v>45705</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="F76" s="6" t="n">
+      <c r="F76" s="7" t="n">
         <v>45723</v>
       </c>
-      <c r="G76" s="6" t="n">
+      <c r="G76" s="7" t="n">
         <v>45727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C77" s="6" t="n">
+      <c r="C77" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>441818.34</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>918</v>
       </c>
-      <c r="F77" s="6" t="n">
+      <c r="F77" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="G77" s="6" t="n">
+      <c r="G77" s="7" t="n">
         <v>45649</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="6" t="n">
+      <c r="C78" s="7" t="n">
         <v>45687</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>586068.51</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>936</v>
       </c>
-      <c r="F78" s="6" t="n">
+      <c r="F78" s="7" t="n">
         <v>45721</v>
       </c>
-      <c r="G78" s="6" t="n">
+      <c r="G78" s="7" t="n">
         <v>45723</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C79" s="6" t="n">
+      <c r="C79" s="7" t="n">
         <v>45694</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>84436.43</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>5877</v>
       </c>
-      <c r="F79" s="6" t="n">
+      <c r="F79" s="7" t="n">
         <v>45705</v>
       </c>
-      <c r="G79" s="6" t="n">
+      <c r="G79" s="7" t="n">
         <v>45708</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C80" s="6" t="n">
+      <c r="C80" s="7" t="n">
         <v>45723</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>168092.52</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="F80" s="6" t="n">
+      <c r="F80" s="7" t="n">
         <v>45723</v>
       </c>
-      <c r="G80" s="6" t="n">
+      <c r="G80" s="7" t="n">
         <v>45727</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C81" s="6" t="n">
+      <c r="C81" s="7" t="n">
         <v>45723</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>21409.3</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="F81" s="6" t="n">
+      <c r="F81" s="7" t="n">
         <v>45723</v>
       </c>
-      <c r="G81" s="6" t="n">
+      <c r="G81" s="7" t="n">
         <v>45727</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="6" t="n">
+      <c r="C82" s="7" t="n">
         <v>44522</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>167567</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <v>1672</v>
       </c>
-      <c r="F82" s="6" t="n">
+      <c r="F82" s="7" t="n">
         <v>44522</v>
       </c>
-      <c r="G82" s="6" t="n">
+      <c r="G82" s="7" t="n">
         <v>44523</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C83" s="6" t="n">
+      <c r="C83" s="7" t="n">
         <v>45722</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>28195.5</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="F83" s="6" t="n">
+      <c r="F83" s="7" t="n">
         <v>45730</v>
       </c>
-      <c r="G83" s="6" t="n">
+      <c r="G83" s="7" t="n">
         <v>45734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C84" s="6" t="n">
+      <c r="C84" s="7" t="n">
         <v>45726</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>119152.41</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>5895</v>
       </c>
-      <c r="F84" s="6" t="n">
+      <c r="F84" s="7" t="n">
         <v>45747</v>
       </c>
-      <c r="G84" s="6" t="n">
+      <c r="G84" s="7" t="n">
         <v>45748</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="6" t="n">
+      <c r="C85" s="7" t="n">
         <v>45726</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>587059.26</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>943</v>
       </c>
-      <c r="F85" s="6" t="n">
+      <c r="F85" s="7" t="n">
         <v>45744</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="F86" s="6" t="n">
+      <c r="F86" s="7" t="n">
         <v>45678</v>
       </c>
-      <c r="G86" s="6" t="n">
+      <c r="G86" s="7" t="n">
         <v>45678</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>18000</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="F87" s="6" t="n">
+      <c r="F87" s="7" t="n">
         <v>45670</v>
       </c>
-      <c r="G87" s="6" t="n">
+      <c r="G87" s="7" t="n">
         <v>45678</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>17100</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="F88" s="6" t="n">
+      <c r="F88" s="7" t="n">
         <v>45678</v>
       </c>
-      <c r="G88" s="6" t="n">
+      <c r="G88" s="7" t="n">
         <v>45684</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>12000</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="F89" s="6" t="n">
+      <c r="F89" s="7" t="n">
         <v>45709</v>
       </c>
-      <c r="G89" s="6" t="n">
+      <c r="G89" s="7" t="n">
         <v>45716</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="F90" s="6" t="n">
+      <c r="F90" s="7" t="n">
         <v>45722</v>
       </c>
-      <c r="G90" s="6" t="n">
+      <c r="G90" s="7" t="n">
         <v>45728</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="F91" s="6" t="n">
+      <c r="F91" s="7" t="n">
         <v>45722</v>
       </c>
-      <c r="G91" s="6" t="n">
+      <c r="G91" s="7" t="n">
         <v>45728</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="F92" s="6" t="n">
+      <c r="F92" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="G92" s="6" t="n">
+      <c r="G92" s="7" t="n">
         <v>45736</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C93" s="6" t="n">
+      <c r="C93" s="7" t="n">
         <v>45729</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="F93" s="6" t="n">
+      <c r="F93" s="7" t="n">
         <v>45740</v>
       </c>
-      <c r="G93" s="6" t="n">
+      <c r="G93" s="7" t="n">
         <v>45742</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C94" s="6" t="n">
+      <c r="C94" s="7" t="n">
         <v>45204</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>802404.07</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="F94" s="6" t="n">
+      <c r="F94" s="7" t="n">
         <v>45209</v>
       </c>
-      <c r="G94" s="6" t="n">
+      <c r="G94" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C95" s="6" t="n">
+      <c r="C95" s="7" t="n">
         <v>45281</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <v>141894.66</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="F95" s="6" t="n">
+      <c r="F95" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="G95" s="6" t="n">
+      <c r="G95" s="7" t="n">
         <v>45281</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="6" t="n">
+      <c r="C96" s="7" t="n">
         <v>45281</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="1" t="n">
         <v>229504</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="F96" s="6" t="n">
+      <c r="F96" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="G96" s="6" t="n">
+      <c r="G96" s="7" t="n">
         <v>45287</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C97" s="6" t="n">
+      <c r="C97" s="7" t="n">
         <v>45444</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>74844</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="F97" s="6" t="n">
+      <c r="F97" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="G97" s="6" t="n">
+      <c r="G97" s="7" t="n">
         <v>45457</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C98" s="6" t="n">
+      <c r="C98" s="7" t="n">
         <v>45444</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <v>256987.75</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="F98" s="6" t="n">
+      <c r="F98" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="G98" s="6" t="n">
+      <c r="G98" s="7" t="n">
         <v>45457</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C99" s="6" t="n">
+      <c r="C99" s="7" t="n">
         <v>45734</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <v>61212.97</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <v>67232</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="1" t="n">
         <v>67232</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C102" s="6" t="n">
+      <c r="C102" s="7" t="n">
         <v>45294</v>
       </c>
-      <c r="D102" s="27" t="n">
+      <c r="D102" s="28" t="n">
         <v>150372.27</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <v>536</v>
       </c>
-      <c r="F102" s="6" t="n">
+      <c r="F102" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="G102" s="6" t="n">
+      <c r="G102" s="7" t="n">
         <v>45383</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C103" s="6" t="n">
+      <c r="C103" s="7" t="n">
         <v>45397</v>
       </c>
-      <c r="D103" s="27" t="n">
+      <c r="D103" s="28" t="n">
         <v>130489.02</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <v>553</v>
       </c>
-      <c r="F103" s="6" t="n">
+      <c r="F103" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="G103" s="6" t="n">
+      <c r="G103" s="7" t="n">
         <v>45475</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="6" t="n">
+      <c r="C104" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="D104" s="27" t="n">
+      <c r="D104" s="28" t="n">
         <v>201425.79</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="1" t="n">
         <v>580</v>
       </c>
-      <c r="F104" s="6" t="n">
+      <c r="F104" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="G104" s="6" t="n">
+      <c r="G104" s="7" t="n">
         <v>45594</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C105" s="6" t="n">
+      <c r="C105" s="7" t="n">
         <v>45621</v>
       </c>
-      <c r="D105" s="27" t="n">
+      <c r="D105" s="28" t="n">
         <v>292348.6</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="1" t="n">
         <v>601</v>
       </c>
-      <c r="F105" s="6" t="n">
+      <c r="F105" s="7" t="n">
         <v>45653</v>
       </c>
-      <c r="G105" s="6" t="n">
+      <c r="G105" s="7" t="n">
         <v>45656</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D106" s="27" t="n">
+      <c r="D106" s="28" t="n">
         <v>1200005.94</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D107" s="27" t="n">
+      <c r="D107" s="28" t="n">
         <v>998356.07</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D108" s="27" t="n">
+      <c r="D108" s="28" t="n">
         <v>110704.87</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D109" s="27" t="n">
+      <c r="D109" s="28" t="n">
         <v>2994149.07</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C110" s="6" t="n">
+      <c r="C110" s="7" t="n">
         <v>45747</v>
       </c>
-      <c r="D110" s="27" t="n">
+      <c r="D110" s="28" t="n">
         <v>115541.23</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="F110" s="6" t="n">
+      <c r="F110" s="7" t="n">
         <v>45750</v>
       </c>
-      <c r="G110" s="6" t="n">
+      <c r="G110" s="7" t="n">
         <v>45750</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C111" s="6" t="n">
+      <c r="C111" s="7" t="n">
         <v>45744</v>
       </c>
-      <c r="D111" s="27" t="n">
+      <c r="D111" s="28" t="n">
         <v>26921.29</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="F111" s="6" t="n">
+      <c r="F111" s="7" t="n">
         <v>45750</v>
       </c>
-      <c r="G111" s="6" t="n">
+      <c r="G111" s="7" t="n">
         <v>45750</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C112" s="6" t="n">
+      <c r="C112" s="7" t="n">
         <v>45750</v>
       </c>
-      <c r="D112" s="27" t="n">
+      <c r="D112" s="28" t="n">
         <v>62667.54</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="F112" s="6" t="n">
+      <c r="F112" s="7" t="n">
         <v>45755</v>
       </c>
-      <c r="G112" s="6" t="n">
+      <c r="G112" s="7" t="n">
         <v>45757</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112" s="1" t="n">
         <v>12400</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C113" s="6" t="n">
+      <c r="C113" s="7" t="n">
         <v>45749</v>
       </c>
-      <c r="D113" s="27" t="n">
+      <c r="D113" s="28" t="n">
         <v>783481.71</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="1" t="n">
         <v>945</v>
       </c>
-      <c r="F113" s="6" t="n">
+      <c r="F113" s="7" t="n">
         <v>45755</v>
       </c>
-      <c r="G113" s="6" t="n">
+      <c r="G113" s="7" t="n">
         <v>45757</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D114" s="27" t="n">
+      <c r="D114" s="28" t="n">
         <v>28800</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="F114" s="6" t="n">
+      <c r="F114" s="7" t="n">
         <v>45748</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="6" t="n">
+      <c r="C115" s="7" t="n">
         <v>45757</v>
       </c>
-      <c r="D115" s="27" t="n">
+      <c r="D115" s="28" t="n">
         <v>142830.02</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="F115" s="6" t="n">
+      <c r="F115" s="7" t="n">
         <v>45796</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C116" s="6" t="n">
+      <c r="C116" s="7" t="n">
         <v>45750</v>
       </c>
-      <c r="D116" s="27" t="n">
+      <c r="D116" s="28" t="n">
         <v>26767.08</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="F116" s="6" t="n">
+      <c r="F116" s="7" t="n">
         <v>45761</v>
       </c>
-      <c r="G116" s="6" t="n">
+      <c r="G116" s="7" t="n">
         <v>45762</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C117" s="6" t="n">
+      <c r="C117" s="7" t="n">
         <v>45763</v>
       </c>
-      <c r="D117" s="27" t="n">
+      <c r="D117" s="28" t="n">
         <v>15000</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="F117" s="6" t="n">
+      <c r="F117" s="7" t="n">
         <v>45775</v>
       </c>
-      <c r="G117" s="6" t="n">
+      <c r="G117" s="7" t="n">
         <v>45775</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="6" t="n">
+      <c r="C118" s="7" t="n">
         <v>45784</v>
       </c>
-      <c r="D118" s="27" t="n">
+      <c r="D118" s="28" t="n">
         <v>251355.96</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C119" s="6" t="n">
+      <c r="C119" s="7" t="n">
         <v>45786</v>
       </c>
-      <c r="D119" s="27" t="n">
+      <c r="D119" s="28" t="n">
         <v>12028.32</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="F119" s="6" t="n">
+      <c r="F119" s="7" t="n">
         <v>45791</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C120" s="6" t="n">
+      <c r="C120" s="7" t="n">
         <v>45790</v>
       </c>
-      <c r="D120" s="7" t="n">
+      <c r="D120" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="F120" s="6" t="n">
+      <c r="F120" s="7" t="n">
         <v>45797</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C121" s="6" t="n">
+      <c r="C121" s="7" t="n">
         <v>45775</v>
       </c>
-      <c r="D121" s="27" t="n">
+      <c r="D121" s="28" t="n">
         <v>223035.93</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="F121" s="6" t="n">
+      <c r="F121" s="7" t="n">
         <v>45414</v>
       </c>
-      <c r="G121" s="6" t="n">
+      <c r="G121" s="7" t="n">
         <v>45779</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C122" s="6" t="n">
+      <c r="C122" s="7" t="n">
         <v>45775</v>
       </c>
-      <c r="D122" s="27" t="n">
+      <c r="D122" s="28" t="n">
         <v>21871</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="F122" s="6" t="n">
+      <c r="F122" s="7" t="n">
         <v>45418</v>
       </c>
-      <c r="G122" s="6" t="n">
+      <c r="G122" s="7" t="n">
         <v>45785</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C123" s="6" t="n">
+      <c r="C123" s="7" t="n">
         <v>45792</v>
       </c>
-      <c r="D123" s="27" t="n">
+      <c r="D123" s="28" t="n">
         <v>422057.01</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D124" s="27" t="n">
+      <c r="D124" s="28" t="n">
         <v>947316.34</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="F124" s="6" t="n">
+      <c r="F124" s="7" t="n">
         <v>45785</v>
       </c>
-      <c r="I124" s="0" t="n">
+      <c r="I124" s="1" t="n">
         <v>12854</v>
       </c>
     </row>
@@ -6634,105 +6619,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.03"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC4CCE-EDC5-4978-835E-5668383AB92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85746A-5B4C-4E96-B932-565D98F028A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha4" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="3" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha3!$A$1:$A$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$124</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -669,6 +670,33 @@
   </si>
   <si>
     <t>4 do 3</t>
+  </si>
+  <si>
+    <t>nro aditivo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>vigencia_inicial</t>
+  </si>
+  <si>
+    <t>vigencia_final</t>
+  </si>
+  <si>
+    <t>execucao_inicial</t>
+  </si>
+  <si>
+    <t>execucao_final</t>
+  </si>
+  <si>
+    <t>apostilamento</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>adicao</t>
   </si>
 </sst>
 </file>
@@ -771,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,6 +843,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3349,7 +3379,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45800</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3410,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45800</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,6 +3600,229 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D40EAE-AC28-4ABB-9A0D-97DDAA5956DD}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45013</v>
+      </c>
+      <c r="E2">
+        <v>5310660</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45065</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45444</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45055</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J2" s="28">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45007</v>
+      </c>
+      <c r="E3" s="25">
+        <v>5511402.9400000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45415</v>
+      </c>
+      <c r="E4" s="25">
+        <v>5511402.9400000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45445</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45824</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45420</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45784</v>
+      </c>
+      <c r="J4" s="28">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45432</v>
+      </c>
+      <c r="E5">
+        <v>5689421.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45643</v>
+      </c>
+      <c r="E6">
+        <v>6622628.7999999998</v>
+      </c>
+      <c r="J6" s="28">
+        <v>24.704439699999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45782</v>
+      </c>
+      <c r="E7">
+        <v>7094539.6399999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45825</v>
+      </c>
+      <c r="G7" s="1">
+        <v>46204</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45785</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45793</v>
+      </c>
+      <c r="E8">
+        <v>7472178.6699999999</v>
+      </c>
+      <c r="J8" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -3792,11 +4045,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85746A-5B4C-4E96-B932-565D98F028A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B28898-92EC-4C47-A3ED-5DED0A549753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -844,7 +844,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,9 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -3081,6 +3081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -3601,9 +3602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D40EAE-AC28-4ABB-9A0D-97DDAA5956DD}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3680,7 +3682,7 @@
       <c r="I2" s="1">
         <v>45419</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2">
         <v>3.78</v>
       </c>
     </row>
@@ -3729,7 +3731,7 @@
       <c r="I4" s="1">
         <v>45784</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4">
         <v>3.23</v>
       </c>
     </row>
@@ -3766,7 +3768,7 @@
       <c r="E6">
         <v>6622628.7999999998</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6">
         <v>24.704439699999998</v>
       </c>
     </row>
@@ -3824,6 +3826,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4047,6 +4050,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B28898-92EC-4C47-A3ED-5DED0A549753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C008B782-F453-463B-9801-3D98AA248A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -1161,7 +1161,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -3603,10 +3603,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D40EAE-AC28-4ABB-9A0D-97DDAA5956DD}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,7 +3817,58 @@
       <c r="E8">
         <v>7472178.6699999999</v>
       </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45230</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45365</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45484</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45234</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45272</v>
+      </c>
+      <c r="E10">
+        <f>1311577.5+326580.4</f>
+        <v>1638157.9</v>
+      </c>
+      <c r="J10">
+        <v>24.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C008B782-F453-463B-9801-3D98AA248A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F38D357-930F-455B-9553-881A66C0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3606,7 +3606,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F38D357-930F-455B-9553-881A66C0F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB96DA9-F6D6-4F9A-9ACF-1DAA95AA17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3380,7 +3380,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45803</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45803</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,8 +3605,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,8 +4104,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6681,6 +6681,9 @@
       <c r="F115" s="1">
         <v>45796</v>
       </c>
+      <c r="G115" s="1">
+        <v>45800</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -6741,6 +6744,15 @@
       <c r="D118" s="25">
         <v>251355.96</v>
       </c>
+      <c r="E118">
+        <v>953</v>
+      </c>
+      <c r="F118" s="1">
+        <v>45789</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45792</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -6761,6 +6773,9 @@
       <c r="F119" s="1">
         <v>45791</v>
       </c>
+      <c r="G119" s="1">
+        <v>45792</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -6780,6 +6795,9 @@
       </c>
       <c r="F120" s="1">
         <v>45797</v>
+      </c>
+      <c r="G120" s="1">
+        <v>45799</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB96DA9-F6D6-4F9A-9ACF-1DAA95AA17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5ABA2E-A410-483C-8776-8B467B805DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -697,6 +697,9 @@
   </si>
   <si>
     <t>adicao</t>
+  </si>
+  <si>
+    <t>1 do 4</t>
   </si>
 </sst>
 </file>
@@ -3380,7 +3383,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45804</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,7 +3414,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45804</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4102,10 +4105,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,6 +6883,51 @@
         <v>12854</v>
       </c>
     </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45803</v>
+      </c>
+      <c r="D125" s="25">
+        <v>46100</v>
+      </c>
+      <c r="I125">
+        <v>13083</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D126" s="25">
+        <v>929367.54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45806</v>
+      </c>
+      <c r="D127" s="25">
+        <v>49913.74</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A124" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5ABA2E-A410-483C-8776-8B467B805DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C48793-96AB-483B-A5B0-B99A7169F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4108,7 +4108,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,6 +6862,15 @@
       <c r="D123" s="25">
         <v>422057.01</v>
       </c>
+      <c r="E123">
+        <v>5954</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45785</v>
+      </c>
+      <c r="G123" s="1">
+        <v>45786</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C48793-96AB-483B-A5B0-B99A7169F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3415082-F362-41DB-B90A-6038AACB4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4108,7 +4108,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="C123" s="1">
-        <v>45792</v>
+        <v>45762</v>
       </c>
       <c r="D123" s="25">
         <v>422057.01</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3415082-F362-41DB-B90A-6038AACB4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF55C029-9D62-400E-A2BF-B9C4FFFA961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -700,6 +700,18 @@
   </si>
   <si>
     <t>1 do 4</t>
+  </si>
+  <si>
+    <t>047/2019</t>
+  </si>
+  <si>
+    <t>COOMSER – COOPERATIVA MISTA DE BENS E SERVIÇOS DE RONDONÓPOLIS</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇO DE OPERAÇÃO, MANUTENÇÃO E CONSERVAÇÃO DO SISTEMA PÚBLICO DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
+  </si>
+  <si>
+    <t>CP 001/2018</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1268,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G44" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G45" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3073,6 +3085,48 @@
         <v>26</v>
       </c>
       <c r="M44" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43798</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44178</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="H45" s="14">
+        <v>12394639.09</v>
+      </c>
+      <c r="I45" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45" s="1">
         <v>45758</v>
       </c>
     </row>
@@ -3383,7 +3437,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45807</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +3468,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45807</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4161,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF55C029-9D62-400E-A2BF-B9C4FFFA961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9703177-817D-4066-9000-09A3A36D6F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$124</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -705,13 +705,13 @@
     <t>047/2019</t>
   </si>
   <si>
-    <t>COOMSER – COOPERATIVA MISTA DE BENS E SERVIÇOS DE RONDONÓPOLIS</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇO DE OPERAÇÃO, MANUTENÇÃO E CONSERVAÇÃO DO SISTEMA PÚBLICO DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
-  </si>
-  <si>
     <t>CP 001/2018</t>
+  </si>
+  <si>
+    <t>COOMSER COOPERATIVA MISTA DE BENS E SERVIÇOS DE RONDONÓPOLIS</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇO DE OPERAÇÃO, MANUTENÇÃO E CONSERVAÇÃO DO SISTEMA PÚBLICO DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS MT.</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,10 +3096,10 @@
         <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E45" s="1">
         <v>43798</v>
@@ -3115,7 +3115,7 @@
         <v>12394639.09</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9703177-817D-4066-9000-09A3A36D6F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F4E02-3B10-45E6-A322-0FDC42D46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇO DE OPERAÇÃO, MANUTENÇÃO E CONSERVAÇÃO DO SISTEMA PÚBLICO DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS MT.</t>
+  </si>
+  <si>
+    <t>019/2025</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -3437,7 +3440,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45811</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,7 +3471,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45811</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4159,10 +4162,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6991,6 +6994,34 @@
         <v>49913.74</v>
       </c>
     </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45812</v>
+      </c>
+      <c r="D128" s="25">
+        <v>10970.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45812</v>
+      </c>
+      <c r="D129" s="25">
+        <v>68892.28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A124" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F4E02-3B10-45E6-A322-0FDC42D46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60176AE6-2157-4241-BFC4-EEE3D4E42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3440,7 +3440,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6962,6 +6962,12 @@
       <c r="D125" s="25">
         <v>46100</v>
       </c>
+      <c r="E125">
+        <v>28</v>
+      </c>
+      <c r="F125" s="1">
+        <v>45813</v>
+      </c>
       <c r="I125">
         <v>13083</v>
       </c>
@@ -6992,6 +6998,12 @@
       </c>
       <c r="D127" s="25">
         <v>49913.74</v>
+      </c>
+      <c r="E127">
+        <v>5988</v>
+      </c>
+      <c r="F127" s="1">
+        <v>45813</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60176AE6-2157-4241-BFC4-EEE3D4E42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CB1A34-674C-46F2-A77B-7E24B81EC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -715,6 +715,15 @@
   </si>
   <si>
     <t>019/2025</t>
+  </si>
+  <si>
+    <t>006/2024</t>
+  </si>
+  <si>
+    <t>Serviços de operação, manutenção e conservação do sistema público de esgoto do Município de Rondonópolis/MT.</t>
+  </si>
+  <si>
+    <t>CP 007/2023</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1280,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G45" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G46" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3131,6 +3140,48 @@
       </c>
       <c r="M45" s="1">
         <v>45758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45371</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45735</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H46" s="14">
+        <v>25205417.800000001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <v>45694</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3491,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,7 +3522,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4164,7 +4215,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CB1A34-674C-46F2-A77B-7E24B81EC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD8795-DEE6-4DF1-BA8C-E16A86C4F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>003/2024</t>
   </si>
   <si>
-    <t>EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT,</t>
-  </si>
-  <si>
     <t>CP 006/2023</t>
   </si>
   <si>
@@ -724,6 +721,9 @@
   </si>
   <si>
     <t>CP 007/2023</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS MT,</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1188,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2015,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -2031,7 +2031,7 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>20</v>
@@ -2051,13 +2051,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -2073,7 +2073,7 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2096,13 +2096,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -2118,7 +2118,7 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
@@ -2138,13 +2138,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>
@@ -2178,13 +2178,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -2200,7 +2200,7 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>20</v>
@@ -2220,13 +2220,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2242,7 +2242,7 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>20</v>
@@ -2262,13 +2262,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2284,10 +2284,10 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>21</v>
@@ -2304,13 +2304,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2326,7 +2326,7 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
@@ -2349,13 +2349,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2371,7 +2371,7 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>20</v>
@@ -2391,13 +2391,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2413,13 +2413,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2433,13 +2433,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2455,7 +2455,7 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>20</v>
@@ -2475,13 +2475,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2497,7 +2497,7 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -2517,13 +2517,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2539,7 +2539,7 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -2559,13 +2559,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2581,7 +2581,7 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -2601,13 +2601,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2623,7 +2623,7 @@
         <v>3270384.36</v>
       </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,13 +2631,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
         <v>148</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E34" s="1">
         <v>45576</v>
@@ -2653,7 +2653,7 @@
         <v>1747000</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -2673,13 +2673,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="1">
         <v>45560</v>
@@ -2695,13 +2695,13 @@
         <v>2179039.14</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -2718,13 +2718,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
         <v>155</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E36" s="1">
         <v>44819</v>
@@ -2740,13 +2740,13 @@
         <v>1133476.3400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L36">
         <v>36</v>
@@ -2760,13 +2760,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="E37" s="1">
         <v>45628</v>
@@ -2782,13 +2782,13 @@
         <v>10101000</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -2802,13 +2802,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="E38" s="1">
         <v>43509</v>
@@ -2824,13 +2824,13 @@
         <v>164927.88</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J38" t="s">
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2844,13 +2844,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>45555</v>
@@ -2866,13 +2866,13 @@
         <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" t="s">
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L39">
         <v>24</v>
@@ -2892,13 +2892,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E40" s="1">
         <v>45614</v>
@@ -2914,13 +2914,13 @@
         <v>1711000</v>
       </c>
       <c r="I40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J40" t="s">
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -2934,13 +2934,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E41" s="1">
         <v>45614</v>
@@ -2956,7 +2956,7 @@
         <v>354000</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" t="s">
         <v>20</v>
@@ -2979,13 +2979,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
         <v>179</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E42" s="1">
         <v>44655</v>
@@ -3001,13 +3001,13 @@
         <v>1826305.08</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L42">
         <v>11</v>
@@ -3021,13 +3021,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
         <v>184</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="E43" s="1">
         <v>45531</v>
@@ -3043,13 +3043,13 @@
         <v>241560</v>
       </c>
       <c r="I43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L43">
         <v>27</v>
@@ -3063,13 +3063,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="E44" s="1">
         <v>45701</v>
@@ -3085,13 +3085,13 @@
         <v>250866</v>
       </c>
       <c r="I44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L44">
         <v>26</v>
@@ -3105,13 +3105,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="E45" s="1">
         <v>43798</v>
@@ -3127,7 +3127,7 @@
         <v>12394639.09</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>
@@ -3147,13 +3147,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3169,13 +3169,13 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -3462,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -3499,7 +3499,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1">
         <v>46107</v>
@@ -3510,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
@@ -3530,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -3541,7 +3541,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1">
         <v>45919</v>
@@ -3611,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
@@ -3650,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -3659,7 +3659,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1">
         <v>45385</v>
@@ -3695,7 +3695,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3738,31 +3738,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="I1" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1">
         <v>45007</v>
@@ -3854,7 +3854,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1">
         <v>45432</v>
@@ -3871,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1">
         <v>45643</v>
@@ -3920,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1">
         <v>45793</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1">
         <v>45272</v>
@@ -4011,18 +4011,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -4036,7 +4036,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -4064,7 +4064,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -4234,36 +4234,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>203</v>
-      </c>
-      <c r="I1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4376,7 +4376,7 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,7 +4454,7 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5601,7 +5601,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -6017,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -6178,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -6356,7 +6356,7 @@
         <v>45742</v>
       </c>
       <c r="H93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6382,7 +6382,7 @@
         <v>45216</v>
       </c>
       <c r="H94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
         <v>45281</v>
       </c>
       <c r="H95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6482,7 +6482,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>11</v>
@@ -6738,7 +6738,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" s="1">
         <v>45749</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117">
         <v>11</v>
@@ -6847,7 +6847,7 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C118" s="1">
         <v>45784</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -7028,7 +7028,7 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C126" s="1">
         <v>45806</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>14</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B129">
         <v>15</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD8795-DEE6-4DF1-BA8C-E16A86C4F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40621D2F-C0A7-4F26-A26F-9C38B68B488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>TP 005/2023</t>
-  </si>
-  <si>
-    <t>JAMAL</t>
   </si>
   <si>
     <t>009/2023</t>
@@ -1189,7 +1186,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1950,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1967,13 +1964,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1989,13 +1986,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -2009,13 +2006,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -2031,13 +2028,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -2051,13 +2048,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -2073,7 +2070,7 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2096,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -2118,7 +2115,7 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
@@ -2138,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -2158,7 +2155,7 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>
@@ -2178,13 +2175,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -2200,7 +2197,7 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>20</v>
@@ -2220,13 +2217,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2242,7 +2239,7 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>20</v>
@@ -2262,13 +2259,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2284,10 +2281,10 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>21</v>
@@ -2304,13 +2301,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2326,7 +2323,7 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
@@ -2349,13 +2346,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2371,7 +2368,7 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>20</v>
@@ -2391,13 +2388,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2413,13 +2410,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2433,13 +2430,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2455,7 +2452,7 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>20</v>
@@ -2475,13 +2472,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
         <v>132</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2497,7 +2494,7 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -2517,13 +2514,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2539,7 +2536,7 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -2559,13 +2556,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2581,7 +2578,7 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -2601,13 +2598,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2623,7 +2620,7 @@
         <v>3270384.36</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,13 +2628,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
         <v>147</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="1">
         <v>45576</v>
@@ -2653,7 +2650,7 @@
         <v>1747000</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -2673,13 +2670,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1">
         <v>45560</v>
@@ -2695,13 +2692,13 @@
         <v>2179039.14</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -2718,13 +2715,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E36" s="1">
         <v>44819</v>
@@ -2740,13 +2737,13 @@
         <v>1133476.3400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>36</v>
@@ -2760,13 +2757,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E37" s="1">
         <v>45628</v>
@@ -2782,13 +2779,13 @@
         <v>10101000</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -2802,13 +2799,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="E38" s="1">
         <v>43509</v>
@@ -2824,13 +2821,13 @@
         <v>164927.88</v>
       </c>
       <c r="I38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J38" t="s">
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2844,13 +2841,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1">
         <v>45555</v>
@@ -2866,13 +2863,13 @@
         <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" t="s">
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L39">
         <v>24</v>
@@ -2892,13 +2889,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E40" s="1">
         <v>45614</v>
@@ -2914,13 +2911,13 @@
         <v>1711000</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J40" t="s">
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -2934,13 +2931,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="E41" s="1">
         <v>45614</v>
@@ -2956,7 +2953,7 @@
         <v>354000</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J41" t="s">
         <v>20</v>
@@ -2979,13 +2976,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="E42" s="1">
         <v>44655</v>
@@ -3001,13 +2998,13 @@
         <v>1826305.08</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L42">
         <v>11</v>
@@ -3021,13 +3018,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
         <v>183</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E43" s="1">
         <v>45531</v>
@@ -3043,13 +3040,13 @@
         <v>241560</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L43">
         <v>27</v>
@@ -3063,13 +3060,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="E44" s="1">
         <v>45701</v>
@@ -3085,13 +3082,13 @@
         <v>250866</v>
       </c>
       <c r="I44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L44">
         <v>26</v>
@@ -3105,13 +3102,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="E45" s="1">
         <v>43798</v>
@@ -3127,7 +3124,7 @@
         <v>12394639.09</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>
@@ -3147,13 +3144,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3169,13 +3166,13 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -3446,7 +3443,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3454,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,7 +3467,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3475,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,12 +3483,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45817</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,7 +3496,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1">
         <v>46107</v>
@@ -3510,7 +3507,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,11 +3515,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45817</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3527,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -3541,7 +3538,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3549,7 +3546,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,7 +3570,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -3584,7 +3581,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3592,7 +3589,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1">
         <v>45919</v>
@@ -3611,7 +3608,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3619,7 +3616,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,7 +3624,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
@@ -3650,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -3659,7 +3656,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,7 +3664,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1">
         <v>45385</v>
@@ -3695,7 +3692,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,7 +3700,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3738,31 +3735,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
         <v>215</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" t="s">
-        <v>218</v>
-      </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3805,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1">
         <v>45007</v>
@@ -3854,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1">
         <v>45432</v>
@@ -3871,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1">
         <v>45643</v>
@@ -3920,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1">
         <v>45793</v>
@@ -3968,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1">
         <v>45272</v>
@@ -4011,18 +4008,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -4036,7 +4033,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -4047,10 +4044,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -4064,7 +4061,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -4234,36 +4231,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>202</v>
-      </c>
-      <c r="I1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4376,7 +4373,7 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4402,7 +4399,7 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4428,7 +4425,7 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,7 +4451,7 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4480,7 +4477,7 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,7 +5031,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -5287,7 +5284,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5310,7 +5307,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5333,7 +5330,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5356,7 +5353,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5601,7 +5598,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -5632,7 +5629,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5655,7 +5652,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5678,7 +5675,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -5724,7 +5721,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5747,7 +5744,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -5770,7 +5767,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5862,7 +5859,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5885,7 +5882,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -5908,7 +5905,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -5931,7 +5928,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5968,7 +5965,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -6017,7 +6014,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -6106,7 +6103,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6152,7 +6149,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -6178,7 +6175,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>
@@ -6195,7 +6192,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6215,7 +6212,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6255,7 +6252,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6275,7 +6272,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6295,7 +6292,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -6356,12 +6353,12 @@
         <v>45742</v>
       </c>
       <c r="H93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6382,12 +6379,12 @@
         <v>45216</v>
       </c>
       <c r="H94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -6408,7 +6405,7 @@
         <v>45281</v>
       </c>
       <c r="H95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6459,7 +6456,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -6482,7 +6479,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -6527,7 +6524,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6550,7 +6547,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6573,7 +6570,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -6596,7 +6593,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6630,7 +6627,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6641,7 +6638,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -6652,7 +6649,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6663,7 +6660,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>11</v>
@@ -6738,7 +6735,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" s="1">
         <v>45749</v>
@@ -6758,7 +6755,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -6775,7 +6772,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -6798,7 +6795,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117">
         <v>11</v>
@@ -6847,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C118" s="1">
         <v>45784</v>
@@ -6890,7 +6887,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -6982,7 +6979,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -7028,7 +7025,7 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="1">
         <v>45806</v>
@@ -7039,7 +7036,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128">
         <v>14</v>
@@ -7073,7 +7070,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B129">
         <v>15</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40621D2F-C0A7-4F26-A26F-9C38B68B488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F4CD3-339A-463A-9A88-0E7F919B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>009/2023</t>
   </si>
   <si>
-    <t>EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS – MT.</t>
-  </si>
-  <si>
     <t>TP 004/2023</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>EXECUÇÃO DE 04 (QUATRO) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS MT,</t>
+  </si>
+  <si>
+    <t>EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS MT.</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1950,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -1970,7 +1970,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -1986,13 +1986,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -2006,13 +2006,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -2028,13 +2028,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -2048,13 +2048,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -2070,7 +2070,7 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2093,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -2115,7 +2115,7 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
@@ -2135,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>
@@ -2175,13 +2175,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -2197,7 +2197,7 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>20</v>
@@ -2217,13 +2217,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2239,7 +2239,7 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>20</v>
@@ -2259,13 +2259,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2281,10 +2281,10 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>21</v>
@@ -2301,13 +2301,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2323,7 +2323,7 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
@@ -2346,13 +2346,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2368,7 +2368,7 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>20</v>
@@ -2388,13 +2388,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2410,13 +2410,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2430,13 +2430,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2452,7 +2452,7 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>20</v>
@@ -2472,13 +2472,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2494,7 +2494,7 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -2514,13 +2514,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2536,7 +2536,7 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -2556,13 +2556,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2578,7 +2578,7 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -2598,13 +2598,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2620,7 +2620,7 @@
         <v>3270384.36</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,13 +2628,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>45576</v>
@@ -2650,7 +2650,7 @@
         <v>1747000</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -2670,13 +2670,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" s="1">
         <v>45560</v>
@@ -2692,13 +2692,13 @@
         <v>2179039.14</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -2715,13 +2715,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E36" s="1">
         <v>44819</v>
@@ -2737,13 +2737,13 @@
         <v>1133476.3400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L36">
         <v>36</v>
@@ -2757,13 +2757,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
         <v>157</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E37" s="1">
         <v>45628</v>
@@ -2779,13 +2779,13 @@
         <v>10101000</v>
       </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -2799,13 +2799,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
         <v>161</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E38" s="1">
         <v>43509</v>
@@ -2821,13 +2821,13 @@
         <v>164927.88</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38" t="s">
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2841,13 +2841,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" s="1">
         <v>45555</v>
@@ -2863,13 +2863,13 @@
         <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J39" t="s">
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L39">
         <v>24</v>
@@ -2889,13 +2889,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
         <v>169</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="E40" s="1">
         <v>45614</v>
@@ -2911,13 +2911,13 @@
         <v>1711000</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J40" t="s">
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -2931,13 +2931,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E41" s="1">
         <v>45614</v>
@@ -2953,7 +2953,7 @@
         <v>354000</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J41" t="s">
         <v>20</v>
@@ -2976,13 +2976,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
         <v>177</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E42" s="1">
         <v>44655</v>
@@ -2998,13 +2998,13 @@
         <v>1826305.08</v>
       </c>
       <c r="I42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42">
         <v>11</v>
@@ -3018,13 +3018,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="E43" s="1">
         <v>45531</v>
@@ -3040,13 +3040,13 @@
         <v>241560</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43">
         <v>27</v>
@@ -3060,13 +3060,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E44" s="1">
         <v>45701</v>
@@ -3082,13 +3082,13 @@
         <v>250866</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L44">
         <v>26</v>
@@ -3102,13 +3102,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="E45" s="1">
         <v>43798</v>
@@ -3124,7 +3124,7 @@
         <v>12394639.09</v>
       </c>
       <c r="I45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>
@@ -3144,13 +3144,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3166,13 +3166,13 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -3451,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -3496,7 +3496,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1">
         <v>46107</v>
@@ -3507,7 +3507,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
@@ -3527,7 +3527,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -3538,7 +3538,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -3581,7 +3581,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1">
         <v>45919</v>
@@ -3608,7 +3608,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
@@ -3647,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -3656,7 +3656,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="1">
         <v>45385</v>
@@ -3692,7 +3692,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3735,31 +3735,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
-        <v>213</v>
-      </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>215</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>216</v>
       </c>
-      <c r="I1" t="s">
-        <v>217</v>
-      </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1">
         <v>45007</v>
@@ -3851,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1">
         <v>45432</v>
@@ -3868,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1">
         <v>45643</v>
@@ -3917,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1">
         <v>45793</v>
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1">
         <v>45272</v>
@@ -4008,18 +4008,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -4033,7 +4033,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -4061,7 +4061,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -4231,36 +4231,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
         <v>194</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>199</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>200</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4373,7 +4373,7 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5598,7 +5598,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -6014,7 +6014,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -6175,7 +6175,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -6353,7 +6353,7 @@
         <v>45742</v>
       </c>
       <c r="H93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6379,7 +6379,7 @@
         <v>45216</v>
       </c>
       <c r="H94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>45281</v>
       </c>
       <c r="H95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6479,7 +6479,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>11</v>
@@ -6735,7 +6735,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C113" s="1">
         <v>45749</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117">
         <v>11</v>
@@ -6844,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118" s="1">
         <v>45784</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -7025,7 +7025,7 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="1">
         <v>45806</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128">
         <v>14</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B129">
         <v>15</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F4CD3-339A-463A-9A88-0E7F919B8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBA46F-DB7F-47F0-A0C0-9646D99320E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -711,9 +711,6 @@
     <t>006/2024</t>
   </si>
   <si>
-    <t>Serviços de operação, manutenção e conservação do sistema público de esgoto do Município de Rondonópolis/MT.</t>
-  </si>
-  <si>
     <t>CP 007/2023</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>EXECUÇÃO DE 03 (TRES) POÇOS TUBULARES PROFUNDOS, COM A DEVIDA APLICAÇÃO DE MATERIAIS NO MUNICÍPIO DE RONDONÓPOLIS MT.</t>
+  </si>
+  <si>
+    <t>Serviços de operação, manutenção e conservação do sistema público de esgoto do Município de Rondonópolis MT.</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1185,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -2012,7 +2012,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -3150,7 +3150,7 @@
         <v>223</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3166,7 +3166,7 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
@@ -4212,8 +4212,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7016,6 +7016,9 @@
       <c r="F125" s="1">
         <v>45813</v>
       </c>
+      <c r="G125" s="1">
+        <v>45819</v>
+      </c>
       <c r="I125">
         <v>13083</v>
       </c>
@@ -7033,6 +7036,15 @@
       <c r="D126" s="25">
         <v>929367.54</v>
       </c>
+      <c r="E126">
+        <v>957</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45811</v>
+      </c>
+      <c r="G126" s="1">
+        <v>45812</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -7053,6 +7065,9 @@
       <c r="F127" s="1">
         <v>45813</v>
       </c>
+      <c r="G127" s="1">
+        <v>45818</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -7067,8 +7082,17 @@
       <c r="D128" s="25">
         <v>10970.33</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>286</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45813</v>
+      </c>
+      <c r="G128" s="1">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -7080,6 +7104,15 @@
       </c>
       <c r="D129" s="25">
         <v>68892.28</v>
+      </c>
+      <c r="E129">
+        <v>287</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45813</v>
+      </c>
+      <c r="G129" s="1">
+        <v>45819</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBA46F-DB7F-47F0-A0C0-9646D99320E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1312C-450D-45DA-9424-6EE2166088EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$129</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -3488,7 +3488,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,8 +4212,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6621,8 +6621,20 @@
       <c r="B106">
         <v>1</v>
       </c>
+      <c r="C106" s="1">
+        <v>45441</v>
+      </c>
       <c r="D106" s="25">
         <v>1200005.94</v>
+      </c>
+      <c r="E106">
+        <v>110</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45447</v>
+      </c>
+      <c r="G106" s="1">
+        <v>45457</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6632,8 +6644,20 @@
       <c r="B107">
         <v>2</v>
       </c>
+      <c r="C107" s="1">
+        <v>45528</v>
+      </c>
       <c r="D107" s="25">
         <v>998356.07</v>
+      </c>
+      <c r="E107">
+        <v>118</v>
+      </c>
+      <c r="F107" s="1">
+        <v>45541</v>
+      </c>
+      <c r="G107" s="1">
+        <v>45544</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6643,8 +6667,20 @@
       <c r="B108">
         <v>3</v>
       </c>
+      <c r="C108" s="1">
+        <v>45642</v>
+      </c>
       <c r="D108" s="25">
         <v>110704.87</v>
+      </c>
+      <c r="E108">
+        <v>136</v>
+      </c>
+      <c r="F108" s="1">
+        <v>45649</v>
+      </c>
+      <c r="G108" s="1">
+        <v>45650</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6984,17 +7020,20 @@
       <c r="B124">
         <v>4</v>
       </c>
+      <c r="C124" s="1">
+        <v>45642</v>
+      </c>
       <c r="D124" s="25">
         <v>947316.34</v>
       </c>
       <c r="E124">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F124" s="1">
-        <v>45785</v>
-      </c>
-      <c r="I124">
-        <v>12854</v>
+        <v>45790</v>
+      </c>
+      <c r="G124" s="1">
+        <v>45790</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -7116,7 +7155,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A124" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A129" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1312C-450D-45DA-9424-6EE2166088EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C8660-C572-4CD1-B320-585EC798FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$130</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -4210,10 +4210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,6 +6693,15 @@
       <c r="D109" s="25">
         <v>2994149.07</v>
       </c>
+      <c r="E109">
+        <v>138</v>
+      </c>
+      <c r="F109" s="1">
+        <v>45649</v>
+      </c>
+      <c r="G109" s="1">
+        <v>45650</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -7154,8 +7163,28 @@
         <v>45819</v>
       </c>
     </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="D130" s="25">
+        <v>1470720.51</v>
+      </c>
+      <c r="E130">
+        <v>146</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45790</v>
+      </c>
+      <c r="G130" s="1">
+        <v>45790</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A129" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A130" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C8660-C572-4CD1-B320-585EC798FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F8A42-8F5C-4677-8C1D-4F7A45A233CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4212,8 +4212,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,6 +6690,9 @@
       <c r="B109">
         <v>1</v>
       </c>
+      <c r="C109" s="1">
+        <v>45642</v>
+      </c>
       <c r="D109" s="25">
         <v>2994149.07</v>
       </c>
@@ -7169,6 +7172,9 @@
       </c>
       <c r="B130">
         <v>2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45776</v>
       </c>
       <c r="D130" s="25">
         <v>1470720.51</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F8A42-8F5C-4677-8C1D-4F7A45A233CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FC814-40CD-40CC-84B7-A6196D059B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$132</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -4210,10 +4210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6507,8 +6507,20 @@
       <c r="B100">
         <v>3</v>
       </c>
+      <c r="C100" s="1">
+        <v>45537</v>
+      </c>
       <c r="D100">
         <v>67232</v>
+      </c>
+      <c r="E100">
+        <v>124</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45568</v>
+      </c>
+      <c r="G100" s="1">
+        <v>45575</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,8 +6530,20 @@
       <c r="B101">
         <v>4</v>
       </c>
+      <c r="C101" s="1">
+        <v>45537</v>
+      </c>
       <c r="D101">
         <v>67232</v>
+      </c>
+      <c r="E101">
+        <v>123</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45568</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45575</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -7189,8 +7213,54 @@
         <v>45790</v>
       </c>
     </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45528</v>
+      </c>
+      <c r="D131" s="25">
+        <v>690496.65</v>
+      </c>
+      <c r="E131">
+        <v>119</v>
+      </c>
+      <c r="F131" s="1">
+        <v>45541</v>
+      </c>
+      <c r="G131" s="1">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D132" s="25">
+        <v>26734.400000000001</v>
+      </c>
+      <c r="E132">
+        <v>137</v>
+      </c>
+      <c r="F132" s="1">
+        <v>45649</v>
+      </c>
+      <c r="G132" s="1">
+        <v>45650</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A130" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A132" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FC814-40CD-40CC-84B7-A6196D059B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7690825-8188-4AA9-8772-CA0C20F0E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -703,9 +703,6 @@
   </si>
   <si>
     <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇO DE OPERAÇÃO, MANUTENÇÃO E CONSERVAÇÃO DO SISTEMA PÚBLICO DE ABASTECIMENTO DE ÁGUA DO MUNICÍPIO DE RONDONÓPOLIS MT.</t>
-  </si>
-  <si>
-    <t>019/2025</t>
   </si>
   <si>
     <t>006/2024</t>
@@ -1970,7 +1967,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -2012,7 +2009,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -3144,13 +3141,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
         <v>223</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3166,7 +3163,7 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
@@ -3488,7 +3485,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3516,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,8 +4209,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,7 +7166,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B129">
         <v>15</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7690825-8188-4AA9-8772-CA0C20F0E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04AE7C-0614-4A57-B96B-6D1DA7C47497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$134</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -3485,7 +3485,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,10 +4207,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7256,8 +7256,42 @@
         <v>45650</v>
       </c>
     </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45831</v>
+      </c>
+      <c r="D133" s="25">
+        <v>13724.06</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45826</v>
+      </c>
+      <c r="D134" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E134">
+        <v>59</v>
+      </c>
+      <c r="F134" s="1">
+        <v>45832</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A132" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A134" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04AE7C-0614-4A57-B96B-6D1DA7C47497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D5DD8-6D50-4AB1-A29F-DDB93F89FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4210,7 +4210,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,6 +7269,12 @@
       <c r="D133" s="25">
         <v>13724.06</v>
       </c>
+      <c r="E133">
+        <v>289</v>
+      </c>
+      <c r="F133" s="1">
+        <v>45833</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D5DD8-6D50-4AB1-A29F-DDB93F89FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB713E39-BE17-486F-9509-F2B30D02C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$135</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -3485,7 +3485,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45833</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45833</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,10 +4207,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,8 +7296,22 @@
         <v>45832</v>
       </c>
     </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45818</v>
+      </c>
+      <c r="D135" s="25">
+        <v>141653.39000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A134" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A135" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB713E39-BE17-486F-9509-F2B30D02C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714300E8-0F1D-4EC9-8381-EF38EDC9ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,15 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$136</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>Serviços de operação, manutenção e conservação do sistema público de esgoto do Município de Rondonópolis MT.</t>
+  </si>
+  <si>
+    <t>2 do 4</t>
   </si>
 </sst>
 </file>
@@ -3485,7 +3488,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45834</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +3519,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45834</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,10 +4210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,8 +7313,22 @@
         <v>141653.39000000001</v>
       </c>
     </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45835</v>
+      </c>
+      <c r="D136" s="25">
+        <v>692560.27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A135" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A136" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714300E8-0F1D-4EC9-8381-EF38EDC9ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144251A-F1B3-4A3E-AF8A-95E874F3F307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3488,7 +3488,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45838</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45838</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4213,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7278,6 +7278,9 @@
       <c r="F133" s="1">
         <v>45833</v>
       </c>
+      <c r="G133" s="1">
+        <v>45834</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -7297,6 +7300,9 @@
       </c>
       <c r="F134" s="1">
         <v>45832</v>
+      </c>
+      <c r="G134" s="1">
+        <v>45834</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144251A-F1B3-4A3E-AF8A-95E874F3F307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23DA960-4DF6-4781-88BC-F3399F7F9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4213,7 +4213,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7332,6 +7332,12 @@
       <c r="D136" s="25">
         <v>692560.27</v>
       </c>
+      <c r="E136">
+        <v>984</v>
+      </c>
+      <c r="F136" s="1">
+        <v>45839</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A136" xr:uid="{00000000-0009-0000-0000-000003000000}"/>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23DA960-4DF6-4781-88BC-F3399F7F9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C539C1-40C5-4480-9BE8-564E44569BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$139</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -3488,7 +3488,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45839</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45839</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,10 +4210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7167,7 +7167,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>141653.39000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -7339,8 +7339,56 @@
         <v>45839</v>
       </c>
     </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45839</v>
+      </c>
+      <c r="D137" s="25">
+        <v>15552.49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45840</v>
+      </c>
+      <c r="D138" s="25">
+        <v>32301.48</v>
+      </c>
+      <c r="I138">
+        <v>13434</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45840</v>
+      </c>
+      <c r="D139" s="25">
+        <v>90632.94</v>
+      </c>
+      <c r="I139">
+        <v>13435</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A136" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A139" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C539C1-40C5-4480-9BE8-564E44569BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB120052-FD86-4D2F-8E9F-E933A57550D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1185,8 +1185,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3183,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3488,7 +3488,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45840</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45840</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB120052-FD86-4D2F-8E9F-E933A57550D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596AD8A-810C-4143-B453-CA250ADB5B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha3!$A$1:$A$140</definedName>
     <definedName name="m_1087001192843892000__Hlk166070319" localSheetId="0">Planilha1!$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -1185,7 +1185,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4210,10 +4210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,8 +7387,22 @@
         <v>13435</v>
       </c>
     </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45840</v>
+      </c>
+      <c r="D140" s="25">
+        <v>291762.28999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A139" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A140" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596AD8A-810C-4143-B453-CA250ADB5B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C356980-F8B6-457E-AF94-3A9FCA886A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>2 do 4</t>
+  </si>
+  <si>
+    <t>encerrado (24/05/2025)</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1189,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,6 +1792,9 @@
       </c>
       <c r="O13" s="6">
         <v>44993</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3488,7 +3494,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3525,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4219,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7352,6 +7358,12 @@
       <c r="D137" s="25">
         <v>15552.49</v>
       </c>
+      <c r="E137">
+        <v>29</v>
+      </c>
+      <c r="F137" s="1">
+        <v>45842</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -7366,6 +7378,12 @@
       <c r="D138" s="25">
         <v>32301.48</v>
       </c>
+      <c r="E138">
+        <v>291</v>
+      </c>
+      <c r="F138" s="1">
+        <v>45842</v>
+      </c>
       <c r="I138">
         <v>13434</v>
       </c>
@@ -7383,6 +7401,12 @@
       <c r="D139" s="25">
         <v>90632.94</v>
       </c>
+      <c r="E139">
+        <v>290</v>
+      </c>
+      <c r="F139" s="1">
+        <v>45842</v>
+      </c>
       <c r="I139">
         <v>13435</v>
       </c>
@@ -7399,6 +7423,12 @@
       </c>
       <c r="D140" s="25">
         <v>291762.28999999998</v>
+      </c>
+      <c r="E140">
+        <v>6001</v>
+      </c>
+      <c r="F140" s="1">
+        <v>45842</v>
       </c>
     </row>
   </sheetData>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C356980-F8B6-457E-AF94-3A9FCA886A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AD241-CFB0-4835-8C0E-0A7847E657A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3494,7 +3494,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45842</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45842</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7324,6 +7324,12 @@
       <c r="D135" s="25">
         <v>141653.39000000001</v>
       </c>
+      <c r="E135">
+        <v>263</v>
+      </c>
+      <c r="F135" s="1">
+        <v>45846</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AD241-CFB0-4835-8C0E-0A7847E657A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3E87D-A4A7-4918-B8A8-694C42F14E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="237">
   <si>
     <t>id</t>
   </si>
@@ -724,13 +724,28 @@
   </si>
   <si>
     <t>encerrado (24/05/2025)</t>
+  </si>
+  <si>
+    <t>003/2025</t>
+  </si>
+  <si>
+    <t>ENRON CONSTRUÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>Contratação, em caráter continuado, de empresa especializada na prestação de serviços para implantação e manutenção de rede de media tensão no município de Rondonópolis/MT, abrangendo tanto áreas urbanas quanto rurais, para atender as necessidades operacionais do Sanear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS FERNANDES DE SOUZA </t>
+  </si>
+  <si>
+    <t>CE 016/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +776,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -826,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,6 +892,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1302,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G46" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G47" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3185,6 +3207,48 @@
       </c>
       <c r="M46" s="1">
         <v>45694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45749</v>
+      </c>
+      <c r="F47" s="1">
+        <v>46113</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H47" s="25">
+        <v>4519291.75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47" s="1">
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3558,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45847</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,7 +3589,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45847</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,7 +4282,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3E87D-A4A7-4918-B8A8-694C42F14E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A09C6-22B2-4F1B-8C68-45594B824B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -739,6 +739,36 @@
   </si>
   <si>
     <t>CE 016/2024</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO DE CIRCUITO FECHADO DE TV REMOTO COM FORNECIMENTO DE MATERIAIS E EQUIPAMENTOS DIVERSOS PARA ATENDER SETORES OPERACIONAIS DO SANEAR</t>
+  </si>
+  <si>
+    <t>RONDOFONE TELECOMUNICACOES LTDA EPP</t>
+  </si>
+  <si>
+    <t>025/2022</t>
+  </si>
+  <si>
+    <t>TP 009/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINVAL RAIMUNDO DA SILVA </t>
+  </si>
+  <si>
+    <t>002/2024</t>
+  </si>
+  <si>
+    <t>SOLOS SOLUTION COMÉRCIO DE PRODUTOS AGRÍCOLAS LTDA</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM PRESTAÇÃO DE SERVIÇOS PARA APLICAÇÃO DO PROCESSO DE BIORREMEDIAÇÃO ACELERADA POR BIOAUMENTAÇÃO DE MICROORGANISMOS AUTÓCTONES NO SISTEMA DE TRATAMENTO DE EFLUENTES DA ESTAÇÃO DE TRATAMENTO DE ESGOTO – ETE</t>
+  </si>
+  <si>
+    <t>INEX 001/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIMARY LIMA DE OLIVEIRA PORTELA </t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1332,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G47" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G49" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3248,6 +3278,90 @@
         <v>7</v>
       </c>
       <c r="M47" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44812</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45176</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H48" s="14">
+        <v>587996.9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>241</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45310</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45675</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="H49" s="25">
+        <v>3009330.84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>246</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49" s="1">
         <v>45758</v>
       </c>
     </row>
@@ -3558,7 +3672,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45918</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,7 +3703,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45918</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A09C6-22B2-4F1B-8C68-45594B824B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900B0E5-1871-4FB7-82E3-101B65CC50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="251">
   <si>
     <t>id</t>
   </si>
@@ -769,6 +769,18 @@
   </si>
   <si>
     <t xml:space="preserve">ELIMARY LIMA DE OLIVEIRA PORTELA </t>
+  </si>
+  <si>
+    <t>014/2025</t>
+  </si>
+  <si>
+    <t>R. SANTANA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE REATERRO DE EROSÃO NA ADUTORA DA CAIXA D’ÁGUA DO BAIRRO GLOBO RECREIO, COM EXECUÇÃO DE CIMENTO PARCIAL NO SOLO, MÃO DE OBRA E FORNECIMENTO DOS MATERIAIS</t>
+  </si>
+  <si>
+    <t>CE 008/2025</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1344,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G49" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G50" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3363,6 +3375,48 @@
       </c>
       <c r="M49" s="1">
         <v>45758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45932</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45992</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H50" s="14">
+        <v>131040.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>250</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>43</v>
+      </c>
+      <c r="M50" s="1">
+        <v>45943</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3726,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45924</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,7 +3757,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45924</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900B0E5-1871-4FB7-82E3-101B65CC50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7E53E-ACFE-4FC3-BAC7-8A67635F5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,7 +3726,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45947</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45947</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7E53E-ACFE-4FC3-BAC7-8A67635F5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54129563-7749-4EBA-A7D4-B128B0B81E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>ordem de inicio</t>
   </si>
   <si>
-    <t>situação</t>
-  </si>
-  <si>
     <t>009/2022</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>CE 008/2025</t>
+  </si>
+  <si>
+    <t>situacao</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1252,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="6">
         <v>44685</v>
@@ -1351,13 +1351,13 @@
         <v>5310660</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="4">
         <v>16</v>
@@ -1366,10 +1366,10 @@
         <v>44705</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,13 +1377,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1">
         <v>45061</v>
@@ -1399,13 +1399,13 @@
         <v>192000</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -1414,10 +1414,10 @@
         <v>45077</v>
       </c>
       <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1425,13 +1425,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>44719</v>
@@ -1447,13 +1447,13 @@
         <v>1300043.0900000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="4">
         <v>21</v>
@@ -1462,10 +1462,10 @@
         <v>44736</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1473,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>45133</v>
@@ -1495,13 +1495,13 @@
         <v>848743.93</v>
       </c>
       <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>19</v>
@@ -1510,13 +1510,13 @@
         <v>45135</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="1">
         <v>45197</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1524,13 +1524,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="6">
         <v>45162</v>
@@ -1546,13 +1546,13 @@
         <v>1902400</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="4">
         <v>23</v>
@@ -1566,13 +1566,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>45169</v>
@@ -1588,13 +1588,13 @@
         <v>400996.1</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -1608,13 +1608,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>45233</v>
@@ -1630,13 +1630,13 @@
         <v>4200</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
       </c>
       <c r="L8">
         <v>26</v>
@@ -1650,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="1">
         <v>45265</v>
@@ -1672,13 +1672,13 @@
         <v>578376</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -1692,13 +1692,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="1">
         <v>45280</v>
@@ -1714,13 +1714,13 @@
         <v>79817.73</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1734,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>45281</v>
@@ -1756,13 +1756,13 @@
         <v>315752.32000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
         <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
       </c>
       <c r="L11">
         <v>32</v>
@@ -1776,13 +1776,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="6">
         <v>45281</v>
@@ -1798,13 +1798,13 @@
         <v>4236574.88</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L12" s="4">
         <v>33</v>
@@ -1818,13 +1818,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E13" s="6">
         <v>45000</v>
@@ -1840,13 +1840,13 @@
         <v>1311577.5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L13" s="4">
         <v>9</v>
@@ -1858,7 +1858,7 @@
         <v>44993</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1866,13 +1866,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>45026</v>
@@ -1888,13 +1888,13 @@
         <v>988060.58</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1908,13 +1908,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="6">
         <v>44881</v>
@@ -1930,13 +1930,13 @@
         <v>2328943.1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L15" s="4">
         <v>45</v>
@@ -1950,13 +1950,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="1">
         <v>44893</v>
@@ -1972,13 +1972,13 @@
         <v>415994.99</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
         <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
       </c>
       <c r="L16">
         <v>51</v>
@@ -1992,13 +1992,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>45054</v>
@@ -2014,13 +2014,13 @@
         <v>1496880</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17">
         <v>13</v>
@@ -2034,13 +2034,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="1">
         <v>45054</v>
@@ -2056,13 +2056,13 @@
         <v>1943588.94</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -2076,13 +2076,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="6">
         <v>45328</v>
@@ -2098,13 +2098,13 @@
         <v>3297283.23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -2118,13 +2118,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E20" s="1">
         <v>45462</v>
@@ -2140,13 +2140,13 @@
         <v>10004185.199999999</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
         <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -2163,13 +2163,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="E21" s="6">
         <v>45485</v>
@@ -2185,13 +2185,13 @@
         <v>737000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L21" s="4">
         <v>17</v>
@@ -2205,13 +2205,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E22" s="6">
         <v>45503</v>
@@ -2225,13 +2225,13 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L22" s="4">
         <v>18</v>
@@ -2245,13 +2245,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E23" s="6">
         <v>45425</v>
@@ -2267,13 +2267,13 @@
         <v>180000</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L23" s="4">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="6">
         <v>45378</v>
@@ -2309,13 +2309,13 @@
         <v>4149472.94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L24" s="4">
         <v>12</v>
@@ -2329,13 +2329,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="E25" s="6">
         <v>45517</v>
@@ -2351,13 +2351,13 @@
         <v>590000</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="K25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="4">
         <v>19</v>
@@ -2371,13 +2371,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="E26" s="6">
         <v>45560</v>
@@ -2393,13 +2393,13 @@
         <v>1357500</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L26" s="4">
         <v>25</v>
@@ -2416,13 +2416,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="23">
         <v>44893</v>
@@ -2438,13 +2438,13 @@
         <v>235756.35</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="L27" s="21">
         <v>49</v>
@@ -2458,13 +2458,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E28" s="1">
         <v>44894</v>
@@ -2480,13 +2480,13 @@
         <v>621000</v>
       </c>
       <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
         <v>124</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>125</v>
       </c>
       <c r="L28">
         <v>52</v>
@@ -2500,13 +2500,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="6">
         <v>45643</v>
@@ -2522,13 +2522,13 @@
         <v>705600</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L29" s="4">
         <v>3</v>
@@ -2542,13 +2542,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E30" s="1">
         <v>45652</v>
@@ -2564,13 +2564,13 @@
         <v>108303.03999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
         <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2584,13 +2584,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E31" s="1">
         <v>43971</v>
@@ -2606,13 +2606,13 @@
         <v>274770</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
         <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
       </c>
       <c r="L31">
         <v>6</v>
@@ -2626,13 +2626,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E32" s="1">
         <v>44552</v>
@@ -2648,13 +2648,13 @@
         <v>5076431.47</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
         <v>20</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2668,13 +2668,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E33" s="1">
         <v>45576</v>
@@ -2690,7 +2690,7 @@
         <v>3270384.36</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,13 +2698,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
         <v>145</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="E34" s="1">
         <v>45576</v>
@@ -2720,13 +2720,13 @@
         <v>1747000</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
         <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
       </c>
       <c r="L34">
         <v>28</v>
@@ -2740,13 +2740,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E35" s="1">
         <v>45560</v>
@@ -2762,13 +2762,13 @@
         <v>2179039.14</v>
       </c>
       <c r="I35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
         <v>150</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>151</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -2785,13 +2785,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>152</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E36" s="1">
         <v>44819</v>
@@ -2807,13 +2807,13 @@
         <v>1133476.3400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36">
         <v>36</v>
@@ -2827,13 +2827,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
         <v>156</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="E37" s="1">
         <v>45628</v>
@@ -2849,13 +2849,13 @@
         <v>10101000</v>
       </c>
       <c r="I37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -2869,13 +2869,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
         <v>160</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="E38" s="1">
         <v>43509</v>
@@ -2891,13 +2891,13 @@
         <v>164927.88</v>
       </c>
       <c r="I38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
         <v>163</v>
-      </c>
-      <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s">
-        <v>164</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2911,13 +2911,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="E39" s="1">
         <v>45555</v>
@@ -2933,13 +2933,13 @@
         <v>6000000</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L39">
         <v>24</v>
@@ -2951,7 +2951,7 @@
         <v>45555</v>
       </c>
       <c r="P39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
         <v>168</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E40" s="1">
         <v>45614</v>
@@ -2981,13 +2981,13 @@
         <v>1711000</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -3001,13 +3001,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="E41" s="1">
         <v>45614</v>
@@ -3023,13 +3023,13 @@
         <v>354000</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
         <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
       </c>
       <c r="L41">
         <v>31</v>
@@ -3046,13 +3046,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="E42" s="1">
         <v>44655</v>
@@ -3068,13 +3068,13 @@
         <v>1826305.08</v>
       </c>
       <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
         <v>179</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>180</v>
       </c>
       <c r="L42">
         <v>11</v>
@@ -3088,13 +3088,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
         <v>181</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E43" s="1">
         <v>45531</v>
@@ -3110,13 +3110,13 @@
         <v>241560</v>
       </c>
       <c r="I43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L43">
         <v>27</v>
@@ -3130,13 +3130,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="E44" s="1">
         <v>45701</v>
@@ -3152,13 +3152,13 @@
         <v>250866</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L44">
         <v>26</v>
@@ -3172,13 +3172,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="E45" s="1">
         <v>43798</v>
@@ -3194,13 +3194,13 @@
         <v>12394639.09</v>
       </c>
       <c r="I45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
         <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
       </c>
       <c r="L45">
         <v>9</v>
@@ -3214,13 +3214,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="1">
         <v>45371</v>
@@ -3236,13 +3236,13 @@
         <v>25205417.800000001</v>
       </c>
       <c r="I46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -3256,13 +3256,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
         <v>232</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="E47" s="1">
         <v>45749</v>
@@ -3278,13 +3278,13 @@
         <v>4519291.75</v>
       </c>
       <c r="I47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L47">
         <v>7</v>
@@ -3298,13 +3298,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="1">
         <v>44812</v>
@@ -3320,13 +3320,13 @@
         <v>587996.9</v>
       </c>
       <c r="I48" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
         <v>240</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>241</v>
       </c>
       <c r="L48">
         <v>15</v>
@@ -3340,13 +3340,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
         <v>242</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E49" s="1">
         <v>45310</v>
@@ -3362,13 +3362,13 @@
         <v>3009330.84</v>
       </c>
       <c r="I49" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
         <v>245</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>246</v>
       </c>
       <c r="L49">
         <v>25</v>
@@ -3382,13 +3382,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" t="s">
         <v>247</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="E50" s="1">
         <v>45932</v>
@@ -3404,13 +3404,13 @@
         <v>131040.5</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
         <v>20</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
       </c>
       <c r="L50">
         <v>43</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>45444</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>45791</v>
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>45492</v>
@@ -3567,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>45706</v>
@@ -3581,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>45413</v>
@@ -3646,7 +3646,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>45756</v>
@@ -3657,7 +3657,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,12 +3721,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>45986</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1">
         <v>46107</v>
@@ -3745,7 +3745,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,11 +3753,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>45986</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,7 +3765,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1">
         <v>45623</v>
@@ -3776,7 +3776,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3800,7 +3800,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="1">
         <v>45829</v>
@@ -3819,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,7 +3827,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1">
         <v>45919</v>
@@ -3846,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3862,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
@@ -3885,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -3894,7 +3894,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="1">
         <v>45385</v>
@@ -3930,7 +3930,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3973,36 +3973,36 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-      <c r="C1" t="s">
-        <v>212</v>
-      </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>215</v>
       </c>
-      <c r="I1" t="s">
-        <v>216</v>
-      </c>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4034,13 +4034,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1">
         <v>45007</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4083,13 +4083,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1">
         <v>45432</v>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1">
         <v>45643</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1">
         <v>45793</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4197,13 +4197,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1">
         <v>45272</v>
@@ -4246,18 +4246,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="11">
         <v>1248582.28</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="13">
         <v>801220.45</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="12">
         <v>2335088.9700000002</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="12">
         <v>54500</v>
@@ -4469,36 +4469,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>198</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>199</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>200</v>
-      </c>
-      <c r="I1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4611,12 +4611,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -4637,12 +4637,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4663,12 +4663,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -4689,12 +4689,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -4715,12 +4715,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5836,7 +5836,7 @@
         <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G59" s="1">
         <v>45649</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C78" s="1">
         <v>45687</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" s="1">
         <v>45726</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -6591,12 +6591,12 @@
         <v>45742</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6617,12 +6617,12 @@
         <v>45216</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -6643,12 +6643,12 @@
         <v>45281</v>
       </c>
       <c r="H95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111">
         <v>11</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C113" s="1">
         <v>45749</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>11</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C118" s="1">
         <v>45784</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119">
         <v>18</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="1">
         <v>45806</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128">
         <v>14</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129">
         <v>15</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B133">
         <v>11</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -7565,10 +7565,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C136" s="1">
         <v>45835</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <v>16</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B139">
         <v>12</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140">
         <v>11</v>

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54129563-7749-4EBA-A7D4-B128B0B81E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74526A3-7180-4398-8A06-534710CD044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="253">
   <si>
     <t>id</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <t>situacao</t>
+  </si>
+  <si>
+    <t>aditivado</t>
+  </si>
+  <si>
+    <t>ativo</t>
   </si>
 </sst>
 </file>
@@ -1252,22 +1258,22 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
@@ -1369,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,6 +1566,9 @@
       <c r="M6" s="6">
         <v>45189</v>
       </c>
+      <c r="P6" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1602,6 +1611,9 @@
       <c r="M7" s="1">
         <v>45195</v>
       </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1644,6 +1656,9 @@
       <c r="M8" s="1">
         <v>45257</v>
       </c>
+      <c r="P8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1686,6 +1701,9 @@
       <c r="M9" s="1">
         <v>45279</v>
       </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1728,6 +1746,9 @@
       <c r="M10" s="1">
         <v>45280</v>
       </c>
+      <c r="P10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1770,6 +1791,9 @@
       <c r="M11" s="1">
         <v>45289</v>
       </c>
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1812,6 +1836,9 @@
       <c r="M12" s="6">
         <v>45289</v>
       </c>
+      <c r="P12" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1902,6 +1929,9 @@
       <c r="M14" s="1">
         <v>45033</v>
       </c>
+      <c r="P14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1944,6 +1974,9 @@
       <c r="M15" s="6">
         <v>44886</v>
       </c>
+      <c r="P15" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1986,8 +2019,11 @@
       <c r="M16" s="1">
         <v>44900</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2028,8 +2064,11 @@
       <c r="M17" s="1">
         <v>45077</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2070,8 +2109,11 @@
       <c r="M18" s="1">
         <v>45077</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2112,8 +2154,11 @@
       <c r="M19" s="6">
         <v>45350</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2157,8 +2202,11 @@
       <c r="O20" s="1">
         <v>45544</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2199,8 +2247,11 @@
       <c r="M21" s="6">
         <v>45510</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2239,8 +2290,11 @@
       <c r="M22" s="6">
         <v>45519</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2281,8 +2335,11 @@
       <c r="M23" s="6">
         <v>45456</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2323,8 +2380,11 @@
       <c r="M24" s="6">
         <v>45378</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2365,8 +2425,11 @@
       <c r="M25" s="6">
         <v>45519</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2410,8 +2473,11 @@
       <c r="O26" s="6">
         <v>45568</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -2453,7 +2519,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2495,7 +2561,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2536,8 +2602,11 @@
       <c r="M29" s="6">
         <v>45688</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2578,8 +2647,11 @@
       <c r="M30" s="1">
         <v>45688</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2621,7 +2693,7 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2779,6 +2851,9 @@
       <c r="O35" s="1">
         <v>45560</v>
       </c>
+      <c r="P35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2821,6 +2896,9 @@
       <c r="M36" s="1">
         <v>44823</v>
       </c>
+      <c r="P36" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2863,6 +2941,9 @@
       <c r="M37" s="1">
         <v>45657</v>
       </c>
+      <c r="P37" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2905,6 +2986,9 @@
       <c r="M38" s="1">
         <v>43517</v>
       </c>
+      <c r="P38" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2951,7 +3035,7 @@
         <v>45555</v>
       </c>
       <c r="P39" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,6 +3079,9 @@
       <c r="M40" s="1">
         <v>45617</v>
       </c>
+      <c r="P40" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3039,6 +3126,9 @@
       </c>
       <c r="O41" s="1">
         <v>45614</v>
+      </c>
+      <c r="P41" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,7 +3816,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46021</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,7 +3847,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46021</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/DADOS_CONTRATOS.xlsx
+++ b/DADOS_CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74526A3-7180-4398-8A06-534710CD044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BD89F-19F0-41FB-B554-7DEFCD13FFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>ativo</t>
+  </si>
+  <si>
+    <t>019/2025</t>
+  </si>
+  <si>
+    <t>PE 023/2025</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1356,7 @@
         <v>45064</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G50" si="0">F2-E2</f>
+        <f t="shared" ref="G2:G51" si="0">F2-E2</f>
         <v>379</v>
       </c>
       <c r="H2" s="17">
@@ -3507,6 +3513,45 @@
       </c>
       <c r="M50" s="1">
         <v>45943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="1">
+        <v>46006</v>
+      </c>
+      <c r="F51" s="1">
+        <v>46005</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H51" s="25">
+        <v>75617.100000000006</v>
+      </c>
+      <c r="I51" t="s">
+        <v>254</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="M51" s="1">
+        <v>46007</v>
       </c>
     </row>
   </sheetData>
